--- a/Epsitec.Cresus/App.Aider/Samples/EERV Bonne nouvelle/inscriptions-web.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Bonne nouvelle/inscriptions-web.xlsx
@@ -13936,8 +13936,8 @@
   <dimension ref="A1:J1990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D689" sqref="D689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31225,11 +31225,11 @@
       <c r="A690" s="3">
         <v>41265.535879629599</v>
       </c>
-      <c r="B690" s="2"/>
+      <c r="B690" s="2" t="s">
+        <v>1891</v>
+      </c>
       <c r="C690" s="2"/>
-      <c r="D690" s="2" t="s">
-        <v>1891</v>
-      </c>
+      <c r="D690" s="2"/>
       <c r="E690" s="2"/>
       <c r="F690" s="2" t="s">
         <v>1892</v>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Bonne nouvelle/inscriptions-web.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Bonne nouvelle/inscriptions-web.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9925" uniqueCount="4508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11736" uniqueCount="5199">
   <si>
     <t>Horodateur</t>
   </si>
@@ -13541,6 +13541,2079 @@
   </si>
   <si>
     <t>Marcel R et Elisabeth</t>
+  </si>
+  <si>
+    <t>Av. de la vallombreuse 51</t>
+  </si>
+  <si>
+    <t>Humbert</t>
+  </si>
+  <si>
+    <t>Christinat</t>
+  </si>
+  <si>
+    <t>Ch. des Banderettes 4</t>
+  </si>
+  <si>
+    <t>Verea</t>
+  </si>
+  <si>
+    <t>Floréat 17</t>
+  </si>
+  <si>
+    <t>Carasa</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>Rue du Maupas 22</t>
+  </si>
+  <si>
+    <t>Vifian</t>
+  </si>
+  <si>
+    <t>Croset 10</t>
+  </si>
+  <si>
+    <t>Karaconji</t>
+  </si>
+  <si>
+    <t>Rue du village 5</t>
+  </si>
+  <si>
+    <t>Champrilly 5</t>
+  </si>
+  <si>
+    <t>Champrilly 8</t>
+  </si>
+  <si>
+    <t>Route du Village 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marlène </t>
+  </si>
+  <si>
+    <t>Av. des Alpes 105</t>
+  </si>
+  <si>
+    <t>Vanistendael</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Chemin du canard 4</t>
+  </si>
+  <si>
+    <t>Saint-Prex</t>
+  </si>
+  <si>
+    <t>Senn-Oppliger</t>
+  </si>
+  <si>
+    <t>Route du Montéliza 25</t>
+  </si>
+  <si>
+    <t>Jola</t>
+  </si>
+  <si>
+    <t>Mollenduy 4</t>
+  </si>
+  <si>
+    <t>Ch.de Champ-Belluet 9</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t>Ch. Emile Jovelle 24</t>
+  </si>
+  <si>
+    <t>Anne-France</t>
+  </si>
+  <si>
+    <t>rue du lac 66</t>
+  </si>
+  <si>
+    <t>Zinden</t>
+  </si>
+  <si>
+    <t>Vy d'Aubonne 18</t>
+  </si>
+  <si>
+    <t>Ch. du Chêne 11</t>
+  </si>
+  <si>
+    <t>Strobino</t>
+  </si>
+  <si>
+    <t>Route de Grandvaux 7b</t>
+  </si>
+  <si>
+    <t>Ch. des Vignes 17</t>
+  </si>
+  <si>
+    <t>Gllièron- Griguer</t>
+  </si>
+  <si>
+    <t>Ch. de Chandieu 5</t>
+  </si>
+  <si>
+    <t>Lachot</t>
+  </si>
+  <si>
+    <t>Clotilde</t>
+  </si>
+  <si>
+    <t>Ch. du Collège 14</t>
+  </si>
+  <si>
+    <t>Börlin</t>
+  </si>
+  <si>
+    <t>Ch. Beau Rivage 12</t>
+  </si>
+  <si>
+    <t>Laurette</t>
+  </si>
+  <si>
+    <t>Ch. du Prêche 14</t>
+  </si>
+  <si>
+    <t>St-Cergue</t>
+  </si>
+  <si>
+    <t>Randin</t>
+  </si>
+  <si>
+    <t>Route. de Montcherand 11</t>
+  </si>
+  <si>
+    <t>Ch. d'Entre deux Crêts 22</t>
+  </si>
+  <si>
+    <t>Ch. de la Damaz 46</t>
+  </si>
+  <si>
+    <t>St-Prex</t>
+  </si>
+  <si>
+    <t>Bliznakov</t>
+  </si>
+  <si>
+    <t>Route de Céligny 65</t>
+  </si>
+  <si>
+    <t>Pré-Baron 3</t>
+  </si>
+  <si>
+    <t>Marchissy</t>
+  </si>
+  <si>
+    <t>Rue du Quai 2b</t>
+  </si>
+  <si>
+    <t>Ch. Somais 26</t>
+  </si>
+  <si>
+    <t>Schilter</t>
+  </si>
+  <si>
+    <t>Thévenin</t>
+  </si>
+  <si>
+    <t>Léa</t>
+  </si>
+  <si>
+    <t>Av. Reller 32</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>Natercia</t>
+  </si>
+  <si>
+    <t>Av. de Morges 16</t>
+  </si>
+  <si>
+    <t>Carole</t>
+  </si>
+  <si>
+    <t>Chemin Praz-Lombert 4</t>
+  </si>
+  <si>
+    <t>Recher</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>route du Jorat 190A</t>
+  </si>
+  <si>
+    <t>Lausanne26</t>
+  </si>
+  <si>
+    <t>La Praz</t>
+  </si>
+  <si>
+    <t>Av. Peupliers 3a</t>
+  </si>
+  <si>
+    <t>Bassal</t>
+  </si>
+  <si>
+    <t>Sprenger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hans </t>
+  </si>
+  <si>
+    <t>Av. Ouchy 60</t>
+  </si>
+  <si>
+    <t>Lam</t>
+  </si>
+  <si>
+    <t>Buu</t>
+  </si>
+  <si>
+    <t>Ch. Pierrefleur 32b</t>
+  </si>
+  <si>
+    <t>Ch. du Couchant 26</t>
+  </si>
+  <si>
+    <t>Pré-Yvonnet 47</t>
+  </si>
+  <si>
+    <t>Ch. Tour Carrée 18</t>
+  </si>
+  <si>
+    <t>Graf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. de Longemalle 16 </t>
+  </si>
+  <si>
+    <t>Ris</t>
+  </si>
+  <si>
+    <t>Theodor</t>
+  </si>
+  <si>
+    <t>Rte d'Oron 14d</t>
+  </si>
+  <si>
+    <t>Rte de la Crottaz 32</t>
+  </si>
+  <si>
+    <t>Rte de Chaulin 15</t>
+  </si>
+  <si>
+    <t>Av. Edouard-Dapples 3</t>
+  </si>
+  <si>
+    <t>Rue du Collège 3</t>
+  </si>
+  <si>
+    <t>Seilneux</t>
+  </si>
+  <si>
+    <t>Du collège 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fédy </t>
+  </si>
+  <si>
+    <t>Ch. de la Vuachére 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lugnoni </t>
+  </si>
+  <si>
+    <t>Ch. de la Fin 2</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Ch. des Ramiers 6</t>
+  </si>
+  <si>
+    <t>Rte de Morrens 11</t>
+  </si>
+  <si>
+    <t>Landry</t>
+  </si>
+  <si>
+    <t>Av. du Parc-de-la-Rouvraie 26B</t>
+  </si>
+  <si>
+    <t>Rte de l'Allex 3</t>
+  </si>
+  <si>
+    <t>Roche Vaud</t>
+  </si>
+  <si>
+    <t>Guillet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hélene </t>
+  </si>
+  <si>
+    <t>Mont d'Or</t>
+  </si>
+  <si>
+    <t>Ch. de la Rochelle 16</t>
+  </si>
+  <si>
+    <t>Av. Eugène-Rambert 30</t>
+  </si>
+  <si>
+    <t>Majo</t>
+  </si>
+  <si>
+    <t>Ch. des Bulesses 135</t>
+  </si>
+  <si>
+    <t>La tour de Peilz</t>
+  </si>
+  <si>
+    <t>Viladoms</t>
+  </si>
+  <si>
+    <t>Pascual</t>
+  </si>
+  <si>
+    <t>Ch. du Suchet 4a</t>
+  </si>
+  <si>
+    <t>Christan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. dess Pâquis 10 </t>
+  </si>
+  <si>
+    <t>Frauchiger</t>
+  </si>
+  <si>
+    <t>Gottfried</t>
+  </si>
+  <si>
+    <t>Chemin en Loup 4</t>
+  </si>
+  <si>
+    <t>Giez</t>
+  </si>
+  <si>
+    <t>Godard</t>
+  </si>
+  <si>
+    <t>Ch. Emile-Javelle 1</t>
+  </si>
+  <si>
+    <t>Maurer</t>
+  </si>
+  <si>
+    <t>Av. Mayor-Vautier 17</t>
+  </si>
+  <si>
+    <t>Fleury</t>
+  </si>
+  <si>
+    <t>Cottages 4</t>
+  </si>
+  <si>
+    <t>Av. Reller 4</t>
+  </si>
+  <si>
+    <t>Ch. du Village 27</t>
+  </si>
+  <si>
+    <t>Ch. Charles-Gide 2</t>
+  </si>
+  <si>
+    <t>Marbot</t>
+  </si>
+  <si>
+    <t>Mèbre 8</t>
+  </si>
+  <si>
+    <t>Milone</t>
+  </si>
+  <si>
+    <t>Av. de Rochettaz 7</t>
+  </si>
+  <si>
+    <t>Ch. de la confrérie 13</t>
+  </si>
+  <si>
+    <t>Ch. d la Plumette 10</t>
+  </si>
+  <si>
+    <t>Kunzi</t>
+  </si>
+  <si>
+    <t>Sentier de Clies 10</t>
+  </si>
+  <si>
+    <t>St-Légier</t>
+  </si>
+  <si>
+    <t>Locatelli</t>
+  </si>
+  <si>
+    <t>G-H Piguet 1</t>
+  </si>
+  <si>
+    <t>Baatard</t>
+  </si>
+  <si>
+    <t>Rte de Rovray 19b</t>
+  </si>
+  <si>
+    <t>Yvoand</t>
+  </si>
+  <si>
+    <t>Ch. des Bossons</t>
+  </si>
+  <si>
+    <t>Solliard</t>
+  </si>
+  <si>
+    <t>Av. de la Confrérie 7</t>
+  </si>
+  <si>
+    <t>Ch. Maillefer 127</t>
+  </si>
+  <si>
+    <t>Etchegaray</t>
+  </si>
+  <si>
+    <t>Jean-Sébatien</t>
+  </si>
+  <si>
+    <t>Ch.  Sorecort 12</t>
+  </si>
+  <si>
+    <t>Grand Rue 17</t>
+  </si>
+  <si>
+    <t>Ch. de la Plantaz 8</t>
+  </si>
+  <si>
+    <t>Matile</t>
+  </si>
+  <si>
+    <t>Rue Centrale 43</t>
+  </si>
+  <si>
+    <t>Hanny</t>
+  </si>
+  <si>
+    <t>Ch des Cottages 5</t>
+  </si>
+  <si>
+    <t>Ramseyer</t>
+  </si>
+  <si>
+    <t>Ch. Jules Coindet 18</t>
+  </si>
+  <si>
+    <t>Jomini</t>
+  </si>
+  <si>
+    <t>Pl. du Temple 11</t>
+  </si>
+  <si>
+    <t>Boussat</t>
+  </si>
+  <si>
+    <t>Ch. de Pré-Jonnet 21</t>
+  </si>
+  <si>
+    <t>Nicolier</t>
+  </si>
+  <si>
+    <t>Esilda</t>
+  </si>
+  <si>
+    <t>Rte. de la Ray</t>
+  </si>
+  <si>
+    <t>Château d'Oex</t>
+  </si>
+  <si>
+    <t>Desbois</t>
+  </si>
+  <si>
+    <t>Guy-Robert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. de Plan 6 </t>
+  </si>
+  <si>
+    <t>Rottet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rte. de Nonfoux 20 </t>
+  </si>
+  <si>
+    <t>Essertines-sur-yverdon</t>
+  </si>
+  <si>
+    <t>Develey</t>
+  </si>
+  <si>
+    <t>Grand Rue 15</t>
+  </si>
+  <si>
+    <t>Hochuli</t>
+  </si>
+  <si>
+    <t>Marc-André</t>
+  </si>
+  <si>
+    <t>route de l'Etraz 25</t>
+  </si>
+  <si>
+    <t>Scott Tchuente</t>
+  </si>
+  <si>
+    <t>Séverine</t>
+  </si>
+  <si>
+    <t>Av. Eugène-Rambert 24</t>
+  </si>
+  <si>
+    <t>Zanoli</t>
+  </si>
+  <si>
+    <t>Tour-de-Peilz</t>
+  </si>
+  <si>
+    <t>Vers la Five 428</t>
+  </si>
+  <si>
+    <t>Rte de Savigny 8</t>
+  </si>
+  <si>
+    <t>Aran</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>liliane</t>
+  </si>
+  <si>
+    <t>Ch. de la Baume 53</t>
+  </si>
+  <si>
+    <t>Ch. de Baussan 19</t>
+  </si>
+  <si>
+    <t>Kloug-Gaudin</t>
+  </si>
+  <si>
+    <t>Av. de la Poste 36</t>
+  </si>
+  <si>
+    <t>rue Neuve 16</t>
+  </si>
+  <si>
+    <t>Route de Moudon 17</t>
+  </si>
+  <si>
+    <t>Thierrens</t>
+  </si>
+  <si>
+    <t>Racine</t>
+  </si>
+  <si>
+    <t>Reine</t>
+  </si>
+  <si>
+    <t>Av. Eugène-Rod 12</t>
+  </si>
+  <si>
+    <t>Moget</t>
+  </si>
+  <si>
+    <t>Ch. du Nigueron 8</t>
+  </si>
+  <si>
+    <t>Janin</t>
+  </si>
+  <si>
+    <t>Rte de Cudrefin 21</t>
+  </si>
+  <si>
+    <t>Four 3</t>
+  </si>
+  <si>
+    <t>Denezy</t>
+  </si>
+  <si>
+    <t>Aviolat</t>
+  </si>
+  <si>
+    <t>Yannick</t>
+  </si>
+  <si>
+    <t>Ch. de l'Eglise 1</t>
+  </si>
+  <si>
+    <t>Audrée</t>
+  </si>
+  <si>
+    <t>ch. de l'Eglise 1</t>
+  </si>
+  <si>
+    <t>Ch. de la cure 12</t>
+  </si>
+  <si>
+    <t>Belmont sur lausanne</t>
+  </si>
+  <si>
+    <t>Delacretaz</t>
+  </si>
+  <si>
+    <t>Chalet à Gobet 121</t>
+  </si>
+  <si>
+    <t>Mont sur Lausanne</t>
+  </si>
+  <si>
+    <t>chalet à Gobet 121</t>
+  </si>
+  <si>
+    <t>Ch. d veilloud 52</t>
+  </si>
+  <si>
+    <t>Ch. des Mouette 2d</t>
+  </si>
+  <si>
+    <t>Ch. des Fleurettes 33</t>
+  </si>
+  <si>
+    <t>Mèbre 12</t>
+  </si>
+  <si>
+    <t>Chessaux</t>
+  </si>
+  <si>
+    <t>Megros</t>
+  </si>
+  <si>
+    <t>Ch. de la Marie 1</t>
+  </si>
+  <si>
+    <t>Chesaux</t>
+  </si>
+  <si>
+    <t>Syrvet</t>
+  </si>
+  <si>
+    <t>Pervenche</t>
+  </si>
+  <si>
+    <t>Ch. des Bossons 17</t>
+  </si>
+  <si>
+    <t>Loth</t>
+  </si>
+  <si>
+    <t>Rue de la Tour 11</t>
+  </si>
+  <si>
+    <t>Av. Vallombreuse 69</t>
+  </si>
+  <si>
+    <t>Moulinier</t>
+  </si>
+  <si>
+    <t>Pétoleyres</t>
+  </si>
+  <si>
+    <t>Grand-Vigne 31</t>
+  </si>
+  <si>
+    <t>Vufflens- la-ville</t>
+  </si>
+  <si>
+    <t>Le fort 8</t>
+  </si>
+  <si>
+    <t>Bain</t>
+  </si>
+  <si>
+    <t>Ginette-Madeleine</t>
+  </si>
+  <si>
+    <t>Ch. Champidoux 15</t>
+  </si>
+  <si>
+    <t>Jaccoud</t>
+  </si>
+  <si>
+    <t>Grammont 16</t>
+  </si>
+  <si>
+    <t>Gugerli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t>Av. de la Gare 10</t>
+  </si>
+  <si>
+    <t>Helene</t>
+  </si>
+  <si>
+    <t>Av. Florimont 18</t>
+  </si>
+  <si>
+    <t>De Bony</t>
+  </si>
+  <si>
+    <t>L'Arziller 15</t>
+  </si>
+  <si>
+    <t>Schöni</t>
+  </si>
+  <si>
+    <t>Rte de Ballaigues 7</t>
+  </si>
+  <si>
+    <t>Av. de Lavaux 83</t>
+  </si>
+  <si>
+    <t>Cossa</t>
+  </si>
+  <si>
+    <t>Giacomo</t>
+  </si>
+  <si>
+    <t>Rue des Terreaux 33</t>
+  </si>
+  <si>
+    <t>Jsoz-Stamli</t>
+  </si>
+  <si>
+    <t>Grand Rue 31</t>
+  </si>
+  <si>
+    <t>Cuérel</t>
+  </si>
+  <si>
+    <t>Ch. de Contigny 15</t>
+  </si>
+  <si>
+    <t>Combe 8</t>
+  </si>
+  <si>
+    <t>Kneuss</t>
+  </si>
+  <si>
+    <t>Ch. des Vaux 1</t>
+  </si>
+  <si>
+    <t>Saporiti</t>
+  </si>
+  <si>
+    <t>Ch. Cotty-Dessus 14</t>
+  </si>
+  <si>
+    <t>Montagny-près-Yverdon</t>
+  </si>
+  <si>
+    <t>Szathmary</t>
+  </si>
+  <si>
+    <t>Pierrefleur 24</t>
+  </si>
+  <si>
+    <t>Jaeggi</t>
+  </si>
+  <si>
+    <t>Av. du Grey 2</t>
+  </si>
+  <si>
+    <t>Santschi</t>
+  </si>
+  <si>
+    <t>Av. des Alpes 38</t>
+  </si>
+  <si>
+    <t>Huck</t>
+  </si>
+  <si>
+    <t>Quai Maria Belgia 8</t>
+  </si>
+  <si>
+    <t>Vonnez</t>
+  </si>
+  <si>
+    <t>Etrabloz 25</t>
+  </si>
+  <si>
+    <t>Salvisberg</t>
+  </si>
+  <si>
+    <t>Route Possens 29</t>
+  </si>
+  <si>
+    <t>Pierrier 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Av. de Belmont </t>
+  </si>
+  <si>
+    <t>De Montolieu 135</t>
+  </si>
+  <si>
+    <t>Hintermann</t>
+  </si>
+  <si>
+    <t>Av. Dapples 48</t>
+  </si>
+  <si>
+    <t>Av. Village 12</t>
+  </si>
+  <si>
+    <t>Tognini</t>
+  </si>
+  <si>
+    <t>Rue de Chamblon</t>
+  </si>
+  <si>
+    <t>Hudda</t>
+  </si>
+  <si>
+    <t>Zinnut</t>
+  </si>
+  <si>
+    <t>Ch. du Mont-Tendre 2</t>
+  </si>
+  <si>
+    <t>Horisberger</t>
+  </si>
+  <si>
+    <t>Ch. de la Faille 12</t>
+  </si>
+  <si>
+    <t>Dumont</t>
+  </si>
+  <si>
+    <t>Victor Ruffy 18</t>
+  </si>
+  <si>
+    <t>La Linière 7</t>
+  </si>
+  <si>
+    <t>Jaton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chemin des Bugnons 23 </t>
+  </si>
+  <si>
+    <t>Ormond</t>
+  </si>
+  <si>
+    <t>ch. des Monneyres 6</t>
+  </si>
+  <si>
+    <t>Ch. des Esserpys 11</t>
+  </si>
+  <si>
+    <t>Av. Sainte-Luce 10bis</t>
+  </si>
+  <si>
+    <t>Elmiger</t>
+  </si>
+  <si>
+    <t>Chemin de la Grangette 27</t>
+  </si>
+  <si>
+    <t>Zwimpfer</t>
+  </si>
+  <si>
+    <t>Beat</t>
+  </si>
+  <si>
+    <t>Rue de la Barre 7</t>
+  </si>
+  <si>
+    <t>Schöpfer</t>
+  </si>
+  <si>
+    <t>Chemin des Ramiers 1</t>
+  </si>
+  <si>
+    <t>Poffet</t>
+  </si>
+  <si>
+    <t>Jost Rodolphe</t>
+  </si>
+  <si>
+    <t>Chemin de la Resse 3</t>
+  </si>
+  <si>
+    <t>Oron</t>
+  </si>
+  <si>
+    <t>route de la Claie aux Moines 239</t>
+  </si>
+  <si>
+    <t>La Croix-sur-Lutry</t>
+  </si>
+  <si>
+    <t>Chemin du Planet 3</t>
+  </si>
+  <si>
+    <t>Rue des Tanneurs 1</t>
+  </si>
+  <si>
+    <t>Rosazza</t>
+  </si>
+  <si>
+    <t>Petit-Clos 4</t>
+  </si>
+  <si>
+    <t>PULLY</t>
+  </si>
+  <si>
+    <t>Christin</t>
+  </si>
+  <si>
+    <t>Boissonnet 42a</t>
+  </si>
+  <si>
+    <t>Sauthier</t>
+  </si>
+  <si>
+    <t>Ch. de Fleur de Lys 3</t>
+  </si>
+  <si>
+    <t>Ch La Vignettaz 3</t>
+  </si>
+  <si>
+    <t>Villars-Ste-Croix</t>
+  </si>
+  <si>
+    <t>Guyaz</t>
+  </si>
+  <si>
+    <t>Route du Bois 24</t>
+  </si>
+  <si>
+    <t>Ecublens VD</t>
+  </si>
+  <si>
+    <t>Sahli</t>
+  </si>
+  <si>
+    <t>Frida</t>
+  </si>
+  <si>
+    <t>Ch. des lys 6a</t>
+  </si>
+  <si>
+    <t>Gugelmann</t>
+  </si>
+  <si>
+    <t>rue du Lac 138</t>
+  </si>
+  <si>
+    <t>Girardet</t>
+  </si>
+  <si>
+    <t>Sabine</t>
+  </si>
+  <si>
+    <t>Rue des Glaciers 7</t>
+  </si>
+  <si>
+    <t>Gendroz</t>
+  </si>
+  <si>
+    <t>Rue du couchant 16</t>
+  </si>
+  <si>
+    <t>Rapaz</t>
+  </si>
+  <si>
+    <t>Route d'Aigle 7</t>
+  </si>
+  <si>
+    <t>Av. de Préfaully 19</t>
+  </si>
+  <si>
+    <t>Chavannes près Renens</t>
+  </si>
+  <si>
+    <t>Zurrian</t>
+  </si>
+  <si>
+    <t>Galilard</t>
+  </si>
+  <si>
+    <t>Ch. Du Salève 15</t>
+  </si>
+  <si>
+    <t>Troia</t>
+  </si>
+  <si>
+    <t>Maupas 77</t>
+  </si>
+  <si>
+    <t>Ch. Montétan 1</t>
+  </si>
+  <si>
+    <t>Ch. du couchant 8</t>
+  </si>
+  <si>
+    <t>Hugette</t>
+  </si>
+  <si>
+    <t>Ch. Rochelle 6</t>
+  </si>
+  <si>
+    <t>Vollmar</t>
+  </si>
+  <si>
+    <t>Ch. du Taux 1</t>
+  </si>
+  <si>
+    <t>Glayre</t>
+  </si>
+  <si>
+    <t>Ch. Creux 1</t>
+  </si>
+  <si>
+    <t>Le mont-sur-Lausanne</t>
+  </si>
+  <si>
+    <t>Maria Julia</t>
+  </si>
+  <si>
+    <t>Burquenet 31</t>
+  </si>
+  <si>
+    <t>Joss</t>
+  </si>
+  <si>
+    <t>Prisca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blancherie 3 </t>
+  </si>
+  <si>
+    <t>Chavannes</t>
+  </si>
+  <si>
+    <t>Route de Cossonay 1</t>
+  </si>
+  <si>
+    <t>Châtelain</t>
+  </si>
+  <si>
+    <t>Av. d'Ouchy 24c</t>
+  </si>
+  <si>
+    <t>Banaud</t>
+  </si>
+  <si>
+    <t>Couchirard 9</t>
+  </si>
+  <si>
+    <t>Ch. ds lilas 12</t>
+  </si>
+  <si>
+    <t>Timpano</t>
+  </si>
+  <si>
+    <t>Gerarda</t>
+  </si>
+  <si>
+    <t>Ferrajoz 14</t>
+  </si>
+  <si>
+    <t>Villars-Sainte-Crooix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rue du nord 19 </t>
+  </si>
+  <si>
+    <t>Turin Renaud</t>
+  </si>
+  <si>
+    <t>Sur la Croix 4</t>
+  </si>
+  <si>
+    <t>Av. de Morges 20</t>
+  </si>
+  <si>
+    <t>Ch. des Vignes 4</t>
+  </si>
+  <si>
+    <t>Mont sur Rolle</t>
+  </si>
+  <si>
+    <t>de Miéville</t>
+  </si>
+  <si>
+    <t>Ch. des Morettes 9b</t>
+  </si>
+  <si>
+    <t>Salaz</t>
+  </si>
+  <si>
+    <t>Trabanoan 7</t>
+  </si>
+  <si>
+    <t>Héritier</t>
+  </si>
+  <si>
+    <t>Ch. de Servi 3</t>
+  </si>
+  <si>
+    <t>Ch. de Pierrefleur 66</t>
+  </si>
+  <si>
+    <t>Iermann</t>
+  </si>
+  <si>
+    <t>Les Rochettes 613</t>
+  </si>
+  <si>
+    <t>De Verdairu 33</t>
+  </si>
+  <si>
+    <t>Brélaz</t>
+  </si>
+  <si>
+    <t>Ch. des Bancels 2</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Des Mouettes 5</t>
+  </si>
+  <si>
+    <t>Av. de Chantegrive 9</t>
+  </si>
+  <si>
+    <t>Salvi</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Route du Stand 56</t>
+  </si>
+  <si>
+    <t>Ch Fénix 66</t>
+  </si>
+  <si>
+    <t>Yvettte</t>
+  </si>
+  <si>
+    <t>Corcelettes 2</t>
+  </si>
+  <si>
+    <t>Paquerettes 5</t>
+  </si>
+  <si>
+    <t>Saint-Croix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiaradia </t>
+  </si>
+  <si>
+    <t>Près au comter</t>
+  </si>
+  <si>
+    <t>Villneuve</t>
+  </si>
+  <si>
+    <t>Gaille</t>
+  </si>
+  <si>
+    <t>Jordils 8c</t>
+  </si>
+  <si>
+    <t>Ambrosini</t>
+  </si>
+  <si>
+    <t>Nicola</t>
+  </si>
+  <si>
+    <t>Ch. du Roz 6</t>
+  </si>
+  <si>
+    <t>Av. Delay 9</t>
+  </si>
+  <si>
+    <t>Monot</t>
+  </si>
+  <si>
+    <t>Gaulette</t>
+  </si>
+  <si>
+    <t>Villardin 11</t>
+  </si>
+  <si>
+    <t>Gruber</t>
+  </si>
+  <si>
+    <t>Ch. Primerose 51</t>
+  </si>
+  <si>
+    <t>Av. de l'Eglise Anglaise</t>
+  </si>
+  <si>
+    <t>Croci-Torti</t>
+  </si>
+  <si>
+    <t>Résidence de la côte 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chappuis </t>
+  </si>
+  <si>
+    <t>Route du Village 31</t>
+  </si>
+  <si>
+    <t>Delapraz</t>
+  </si>
+  <si>
+    <t>Riex</t>
+  </si>
+  <si>
+    <t>Poirier de la Croix 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rochot </t>
+  </si>
+  <si>
+    <t>route du Crêt du Puits 2</t>
+  </si>
+  <si>
+    <t>Les Chardonnières</t>
+  </si>
+  <si>
+    <t>Kranzlin</t>
+  </si>
+  <si>
+    <t>Ch. Ad. Burnat 9</t>
+  </si>
+  <si>
+    <t>Vallombreuse 69</t>
+  </si>
+  <si>
+    <t>Piere</t>
+  </si>
+  <si>
+    <t>Hameau du signal 3</t>
+  </si>
+  <si>
+    <t>Cornuz</t>
+  </si>
+  <si>
+    <t>Léonie</t>
+  </si>
+  <si>
+    <t>Ch. des Bulesses 55</t>
+  </si>
+  <si>
+    <t>Dutruy</t>
+  </si>
+  <si>
+    <t>Annabelle</t>
+  </si>
+  <si>
+    <t>Rte. de l'Etraz 16</t>
+  </si>
+  <si>
+    <t>Luins</t>
+  </si>
+  <si>
+    <t>Ch. Grand Pré 4</t>
+  </si>
+  <si>
+    <t>Etienne Joël</t>
+  </si>
+  <si>
+    <t>Rue du Battoir 9</t>
+  </si>
+  <si>
+    <t>Neyruz / Moudon</t>
+  </si>
+  <si>
+    <t>Marlise</t>
+  </si>
+  <si>
+    <t>Maisoneuves 2</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Ch. Champs du chêne 1</t>
+  </si>
+  <si>
+    <t>Kennedy Sabelli</t>
+  </si>
+  <si>
+    <t>Rue du Simplon 1bis</t>
+  </si>
+  <si>
+    <t>Lecoultre</t>
+  </si>
+  <si>
+    <t>Mary-Claude</t>
+  </si>
+  <si>
+    <t>Petites-Buttes 18</t>
+  </si>
+  <si>
+    <t>chemin du Laviau 2</t>
+  </si>
+  <si>
+    <t>Rue des Uttins 11</t>
+  </si>
+  <si>
+    <t>Bd. Forêt 26</t>
+  </si>
+  <si>
+    <t>Dannenmaier</t>
+  </si>
+  <si>
+    <t>Ilse</t>
+  </si>
+  <si>
+    <t>Rue des Fortifications 8a</t>
+  </si>
+  <si>
+    <t>Kubler</t>
+  </si>
+  <si>
+    <t>Ghislaine</t>
+  </si>
+  <si>
+    <t>Rue du midi 34</t>
+  </si>
+  <si>
+    <t>Route Cossonay 10B</t>
+  </si>
+  <si>
+    <t>Av. des Grammoud 12</t>
+  </si>
+  <si>
+    <t>Huswirth</t>
+  </si>
+  <si>
+    <t>Palmira</t>
+  </si>
+  <si>
+    <t>Ch. du Levant 1</t>
+  </si>
+  <si>
+    <t>Mariaanne</t>
+  </si>
+  <si>
+    <t>Route Gare 5</t>
+  </si>
+  <si>
+    <t>Leroy</t>
+  </si>
+  <si>
+    <t>Ch. des Murets 2</t>
+  </si>
+  <si>
+    <t>Vernier</t>
+  </si>
+  <si>
+    <t>Ch. de la Scierie 6</t>
+  </si>
+  <si>
+    <t>Le Corgelet</t>
+  </si>
+  <si>
+    <t>Deloséa</t>
+  </si>
+  <si>
+    <t>Av. des Alpes 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenue de Floréal 18  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lausanne </t>
+  </si>
+  <si>
+    <t>Trutmann</t>
+  </si>
+  <si>
+    <t>Av. des Alpes 13</t>
+  </si>
+  <si>
+    <t>chemin du Mottey 23</t>
+  </si>
+  <si>
+    <t>Rue de l'Eglise 6</t>
+  </si>
+  <si>
+    <t>Sévery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avenuen Florimont 5 </t>
+  </si>
+  <si>
+    <t>La Rochette 20</t>
+  </si>
+  <si>
+    <t>Missy</t>
+  </si>
+  <si>
+    <t>Kreis</t>
+  </si>
+  <si>
+    <t>Suzan</t>
+  </si>
+  <si>
+    <t>Av. Déserte 21</t>
+  </si>
+  <si>
+    <t>Tambourine 44</t>
+  </si>
+  <si>
+    <t>Carouge</t>
+  </si>
+  <si>
+    <t>Rte. de Saint-Cergue 40B</t>
+  </si>
+  <si>
+    <t>Paccaud</t>
+  </si>
+  <si>
+    <t>Rte. du Simplon 14</t>
+  </si>
+  <si>
+    <t>Rue de la Gare 4</t>
+  </si>
+  <si>
+    <t>Hofmann</t>
+  </si>
+  <si>
+    <t>Ch. des Genevroz 7</t>
+  </si>
+  <si>
+    <t>PAUL</t>
+  </si>
+  <si>
+    <t>Tavernier 12</t>
+  </si>
+  <si>
+    <t>aubonne</t>
+  </si>
+  <si>
+    <t>Dubuis Karlen</t>
+  </si>
+  <si>
+    <t>simone</t>
+  </si>
+  <si>
+    <t>château-d'oex</t>
+  </si>
+  <si>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>chemin des Airelles 30</t>
+  </si>
+  <si>
+    <t>Ch. du Péage 25</t>
+  </si>
+  <si>
+    <t>Rue de Nagelin 4</t>
+  </si>
+  <si>
+    <t>Av. Gustave Doret 24</t>
+  </si>
+  <si>
+    <t>Meta-meri</t>
+  </si>
+  <si>
+    <t>Evanne</t>
+  </si>
+  <si>
+    <t>Rte du lac Lussy 8</t>
+  </si>
+  <si>
+    <t>Châtel saint Denis</t>
+  </si>
+  <si>
+    <t>Primerose 53</t>
+  </si>
+  <si>
+    <t>Krattiger</t>
+  </si>
+  <si>
+    <t>Mary-José</t>
+  </si>
+  <si>
+    <t>impasse de la Fontaine 1</t>
+  </si>
+  <si>
+    <t>Reato</t>
+  </si>
+  <si>
+    <t>Rue du Maupas 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacques </t>
+  </si>
+  <si>
+    <t>Bd. Paderwski 25</t>
+  </si>
+  <si>
+    <t>Ch. des Grillets 2</t>
+  </si>
+  <si>
+    <t>Trelex</t>
+  </si>
+  <si>
+    <t>Friikart</t>
+  </si>
+  <si>
+    <t>Hofstetter</t>
+  </si>
+  <si>
+    <t>Ch. ochettaz 27a</t>
+  </si>
+  <si>
+    <t>Geiser</t>
+  </si>
+  <si>
+    <t>Rte de la Corniche 52</t>
+  </si>
+  <si>
+    <t>Epesses</t>
+  </si>
+  <si>
+    <t>Ochettaz 29a</t>
+  </si>
+  <si>
+    <t>Ch. des Barrières 17</t>
+  </si>
+  <si>
+    <t>Martigny</t>
+  </si>
+  <si>
+    <t>Le Mont</t>
+  </si>
+  <si>
+    <t>Gilgien</t>
+  </si>
+  <si>
+    <t>Mon Repos 1</t>
+  </si>
+  <si>
+    <t>Ste-Croix</t>
+  </si>
+  <si>
+    <t>Av. Juste-Olivier 8</t>
+  </si>
+  <si>
+    <t>Derivaz</t>
+  </si>
+  <si>
+    <t>Ch. de la Cretasse 1</t>
+  </si>
+  <si>
+    <t>Liard</t>
+  </si>
+  <si>
+    <t>Rue du Grand-Cerclet 33</t>
+  </si>
+  <si>
+    <t>Roche VD</t>
+  </si>
+  <si>
+    <t>Chez Aaron 7</t>
+  </si>
+  <si>
+    <t>Av. Châtelain 4</t>
+  </si>
+  <si>
+    <t>Mezieres</t>
+  </si>
+  <si>
+    <t>rue du Chemin Neuf 12</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>Rue du midi 1</t>
+  </si>
+  <si>
+    <t>Vacheron</t>
+  </si>
+  <si>
+    <t>Ch. de la Branche 2</t>
+  </si>
+  <si>
+    <t>De pourtalès</t>
+  </si>
+  <si>
+    <t>Charles-Henrie</t>
+  </si>
+  <si>
+    <t>Ch. des Vieux Saules 8</t>
+  </si>
+  <si>
+    <t>Av. de Béthusy 17</t>
+  </si>
+  <si>
+    <t>Dents du Midi 20</t>
+  </si>
+  <si>
+    <t>Av.Esplanade 22a</t>
+  </si>
+  <si>
+    <t>Rte. de saint-Cergue 9</t>
+  </si>
+  <si>
+    <t>Champs de la Pierre 5a</t>
+  </si>
+  <si>
+    <t>Ch. des Chardonnerets 5</t>
+  </si>
+  <si>
+    <t>Blancherie 3</t>
+  </si>
+  <si>
+    <t>Schmiot</t>
+  </si>
+  <si>
+    <t>Nellie</t>
+  </si>
+  <si>
+    <t>Pont Neuf 3</t>
+  </si>
+  <si>
+    <t>Giddery</t>
+  </si>
+  <si>
+    <t>Montassé</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Jirina</t>
+  </si>
+  <si>
+    <t>Rte d'Yverdon 9</t>
+  </si>
+  <si>
+    <t>Ch. du Furet 10</t>
+  </si>
+  <si>
+    <t>Wuillemin</t>
+  </si>
+  <si>
+    <t>Rte de Grailard 5</t>
+  </si>
+  <si>
+    <t>Rte. de Brent 17</t>
+  </si>
+  <si>
+    <t>Monnier Vannod</t>
+  </si>
+  <si>
+    <t>Pierette</t>
+  </si>
+  <si>
+    <t>L'Esterel 10</t>
+  </si>
+  <si>
+    <t>La Sarrraz</t>
+  </si>
+  <si>
+    <t>Du Pont 35</t>
+  </si>
+  <si>
+    <t>Ramiers 20</t>
+  </si>
+  <si>
+    <t>Managanel</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Ch. de la Barque 3</t>
+  </si>
+  <si>
+    <t>Ch. Isabelle-de-Montolieu 83 bis</t>
+  </si>
+  <si>
+    <t>Boyer</t>
+  </si>
+  <si>
+    <t>Grand bois 16</t>
+  </si>
+  <si>
+    <t>Ch. du Creux-de-Corsy 109</t>
+  </si>
+  <si>
+    <t>Melchner-Leidner</t>
+  </si>
+  <si>
+    <t>Jean-Pierre et Denise</t>
+  </si>
+  <si>
+    <t>ch. de Villard 21, 1007 lausanne</t>
+  </si>
+  <si>
+    <t>Gottettaz 24</t>
+  </si>
+  <si>
+    <t>Gariazzo Dessiex</t>
+  </si>
+  <si>
+    <t>FRançoise</t>
+  </si>
+  <si>
+    <t>ch. du Vignoble 21</t>
+  </si>
+  <si>
+    <t>Fischli</t>
+  </si>
+  <si>
+    <t>ch. des Bossons 5</t>
+  </si>
+  <si>
+    <t>Rue des Fontaine 40</t>
+  </si>
+  <si>
+    <t>Droz</t>
+  </si>
+  <si>
+    <t>rue sablons 40</t>
+  </si>
+  <si>
+    <t>neuchâtel</t>
+  </si>
+  <si>
+    <t>Althaus</t>
+  </si>
+  <si>
+    <t>Lac Vernay 104</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Javier</t>
+  </si>
+  <si>
+    <t>Rue Porcelaine 1</t>
+  </si>
+  <si>
+    <t>Friderici</t>
+  </si>
+  <si>
+    <t>Vérène</t>
+  </si>
+  <si>
+    <t>Ch. des Ecoussons 1 b</t>
+  </si>
+  <si>
+    <t>Chigny</t>
+  </si>
+  <si>
+    <t>Jeanneret</t>
+  </si>
+  <si>
+    <t>Ch. de Pré Fleuri 11</t>
+  </si>
+  <si>
+    <t>atelier Kinkin</t>
+  </si>
+  <si>
+    <t>Sébastien</t>
+  </si>
+  <si>
+    <t>avenue de Grandson 48</t>
+  </si>
+  <si>
+    <t>Bürgy</t>
+  </si>
+  <si>
+    <t>Erna</t>
+  </si>
+  <si>
+    <t>Route de Fribourg 9</t>
+  </si>
+  <si>
+    <t>Donatyre</t>
+  </si>
+  <si>
+    <t>Route de Villarepos  14</t>
+  </si>
+  <si>
+    <t>Av. de la Harpe 1</t>
+  </si>
+  <si>
+    <t>Annemarie</t>
+  </si>
+  <si>
+    <t>Ch. de Bochat 25</t>
+  </si>
+  <si>
+    <t>Pulfer</t>
+  </si>
+  <si>
+    <t>Plumhof 24</t>
+  </si>
+  <si>
+    <t>chemin de la Culturaz 42</t>
+  </si>
+  <si>
+    <t>Alouettes 6</t>
+  </si>
+  <si>
+    <t>Av. de la Rosiaz 11</t>
+  </si>
+  <si>
+    <t>Decorges-Jaccaoud</t>
+  </si>
+  <si>
+    <t>Av Général Jomini 24</t>
+  </si>
+  <si>
+    <t>Remünd</t>
+  </si>
+  <si>
+    <t>La Liguière 7</t>
+  </si>
+  <si>
+    <t>chemin de Caudoz 7</t>
+  </si>
+  <si>
+    <t>Romanel s/Lausanne</t>
+  </si>
+  <si>
+    <t>Ch. maichefes 105</t>
+  </si>
+  <si>
+    <t>Steinhauer</t>
+  </si>
+  <si>
+    <t>Ochettaz 21b</t>
+  </si>
+  <si>
+    <t>Burgener</t>
+  </si>
+  <si>
+    <t>Ch. de la Motte 6B</t>
+  </si>
+  <si>
+    <t>Frass</t>
+  </si>
+  <si>
+    <t>Chemin de la Criblette 7</t>
+  </si>
+  <si>
+    <t>Bevilacqua</t>
+  </si>
+  <si>
+    <t>Chalet Les Pouillots</t>
+  </si>
+  <si>
+    <t>Jean-Marc et Audrey</t>
+  </si>
+  <si>
+    <t>Suzanne-Violette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Pierre </t>
+  </si>
+  <si>
+    <t>Suter-Corboz</t>
+  </si>
+  <si>
+    <t>Montet-Berchtold</t>
+  </si>
+  <si>
+    <t>Aloys-Fauquez 93a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monod-Moret </t>
+  </si>
+  <si>
+    <t>Pittet-Monod</t>
+  </si>
+  <si>
+    <t>Lanthemann-Renevey</t>
+  </si>
+  <si>
+    <t>Morier-Genoud</t>
+  </si>
+  <si>
+    <t>Pierre-Louis</t>
+  </si>
+  <si>
+    <t>Luder-Feuz</t>
+  </si>
+  <si>
+    <t>Magnin-Diserens</t>
+  </si>
+  <si>
+    <t>Pralong-Walter</t>
+  </si>
+  <si>
+    <t>Humbert-Droz</t>
+  </si>
+  <si>
+    <t>Roemer-Strohm</t>
+  </si>
+  <si>
+    <t>Gemuseus-Deleury</t>
+  </si>
+  <si>
+    <t>Grand-Rue 66</t>
+  </si>
+  <si>
+    <t>Zelenka-Tissot</t>
+  </si>
+  <si>
+    <t>Ch. Praz-Forney 21</t>
+  </si>
+  <si>
+    <t>Bonne-Espérance 31</t>
+  </si>
+  <si>
+    <t>Savourey-Coutet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thonney-Cavin </t>
+  </si>
+  <si>
+    <t>Lilla-l'Heritier</t>
+  </si>
+  <si>
+    <t>Dubrit-Mermoud</t>
+  </si>
+  <si>
+    <t>Rigo-Balestra</t>
+  </si>
+  <si>
+    <t>Moret-Conus</t>
+  </si>
+  <si>
+    <t>Ian-Mestral</t>
+  </si>
+  <si>
+    <t>Conod-Briod</t>
+  </si>
+  <si>
+    <t>Giroud-Heisler</t>
+  </si>
+  <si>
+    <t>Kuipers-Mulder</t>
+  </si>
+  <si>
+    <t>Chaperon-Amstein</t>
+  </si>
+  <si>
+    <t>Pache-Whlmann</t>
+  </si>
+  <si>
+    <t>Maire-Claire</t>
+  </si>
+  <si>
+    <t>Rue du Petit-Mont</t>
+  </si>
+  <si>
+    <t>Marie-Josèphe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chavannes-Renens </t>
+  </si>
+  <si>
+    <t>Rue Saint-Louis 4</t>
+  </si>
+  <si>
+    <t>Mayor-Vautier 1</t>
+  </si>
+  <si>
+    <t>Wagner-Miserez</t>
+  </si>
+  <si>
+    <t>Chassot-Fanac</t>
+  </si>
+  <si>
+    <t>Junod-Jutigny</t>
+  </si>
+  <si>
+    <t>Saint-Légier-La-Chiesaz</t>
+  </si>
+  <si>
+    <t>Bioley-Magnoux</t>
+  </si>
+  <si>
+    <t>Route Les Roches 4</t>
+  </si>
+  <si>
+    <t>Route du Molard 10</t>
+  </si>
+  <si>
+    <t>Av. de la poste 23b</t>
+  </si>
+  <si>
+    <t>av. du Grammont 7</t>
+  </si>
+  <si>
+    <t>Route de l'Abbaye 30</t>
+  </si>
+  <si>
+    <t>chemin de Sodome 10</t>
+  </si>
+  <si>
+    <t>avenue des Alpes 71</t>
+  </si>
+  <si>
+    <t>chemin des Bulesses 75</t>
+  </si>
+  <si>
+    <t>Av. de la Vogéaz 7</t>
+  </si>
+  <si>
+    <t>Ch .du Clous 6</t>
+  </si>
+  <si>
+    <t>Av. château 64</t>
+  </si>
+  <si>
+    <t>Ch. de la Calice</t>
+  </si>
+  <si>
+    <t>Ch Baye 16</t>
+  </si>
+  <si>
+    <t>Av. du Tirage 5</t>
   </si>
 </sst>
 </file>
@@ -13550,11 +15623,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -13604,14 +15691,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -13620,12 +15708,15 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13924,11 +16015,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1988"/>
+  <dimension ref="A1:J2351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D639" sqref="D639"/>
+      <pane ySplit="1" topLeftCell="A2244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2267" sqref="C2267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -63753,6 +65844,7672 @@
         <v>182</v>
       </c>
     </row>
+    <row r="1989" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1989" s="3"/>
+      <c r="B1989" s="2"/>
+      <c r="C1989" s="2"/>
+      <c r="D1989" s="2"/>
+      <c r="E1989" s="2"/>
+      <c r="F1989" s="2"/>
+      <c r="G1989" s="2"/>
+      <c r="H1989" s="2"/>
+      <c r="I1989" s="2"/>
+    </row>
+    <row r="1990" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1990" s="5"/>
+      <c r="C1990" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1990" s="5" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E1990" s="5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F1990" s="5" t="s">
+        <v>4508</v>
+      </c>
+      <c r="G1990" s="5"/>
+      <c r="H1990" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I1990" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1991" s="5"/>
+      <c r="C1991" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1991" s="5" t="s">
+        <v>4509</v>
+      </c>
+      <c r="E1991" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F1991" s="5" t="s">
+        <v>5186</v>
+      </c>
+      <c r="G1991" s="5"/>
+      <c r="H1991" s="5">
+        <v>1268</v>
+      </c>
+      <c r="I1991" s="5" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1992" s="5"/>
+      <c r="C1992" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1992" s="5" t="s">
+        <v>4510</v>
+      </c>
+      <c r="E1992" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1992" s="5" t="s">
+        <v>5185</v>
+      </c>
+      <c r="G1992" s="5"/>
+      <c r="H1992" s="5">
+        <v>1042</v>
+      </c>
+      <c r="I1992" s="5" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1993" s="5"/>
+      <c r="C1993" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1993" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="E1993" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1993" s="5" t="s">
+        <v>4511</v>
+      </c>
+      <c r="G1993" s="5"/>
+      <c r="H1993" s="5">
+        <v>1038</v>
+      </c>
+      <c r="I1993" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1994" s="5"/>
+      <c r="C1994" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1994" s="5" t="s">
+        <v>5145</v>
+      </c>
+      <c r="E1994" s="5" t="s">
+        <v>4512</v>
+      </c>
+      <c r="F1994" s="5" t="s">
+        <v>4513</v>
+      </c>
+      <c r="G1994" s="5"/>
+      <c r="H1994" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I1994" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1995" s="5"/>
+      <c r="C1995" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1995" s="5" t="s">
+        <v>4514</v>
+      </c>
+      <c r="E1995" s="5" t="s">
+        <v>4515</v>
+      </c>
+      <c r="F1995" s="5" t="s">
+        <v>4516</v>
+      </c>
+      <c r="G1995" s="5"/>
+      <c r="H1995" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I1995" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1996" s="5"/>
+      <c r="C1996" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1996" s="5" t="s">
+        <v>4517</v>
+      </c>
+      <c r="E1996" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F1996" s="5" t="s">
+        <v>4518</v>
+      </c>
+      <c r="G1996" s="5"/>
+      <c r="H1996" s="5">
+        <v>1024</v>
+      </c>
+      <c r="I1996" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1997" s="5"/>
+      <c r="C1997" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1997" s="5" t="s">
+        <v>4519</v>
+      </c>
+      <c r="E1997" s="5" t="s">
+        <v>2557</v>
+      </c>
+      <c r="F1997" s="5" t="s">
+        <v>5146</v>
+      </c>
+      <c r="G1997" s="5"/>
+      <c r="H1997" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I1997" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1998" s="5"/>
+      <c r="C1998" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1998" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E1998" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F1998" s="5" t="s">
+        <v>4520</v>
+      </c>
+      <c r="G1998" s="5"/>
+      <c r="H1998" s="5">
+        <v>1055</v>
+      </c>
+      <c r="I1998" s="5" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1999" s="5"/>
+      <c r="C1999" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1999" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="E1999" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F1999" s="5" t="s">
+        <v>4521</v>
+      </c>
+      <c r="G1999" s="5"/>
+      <c r="H1999" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I1999" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2000" s="5"/>
+      <c r="C2000" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2000" s="5" t="s">
+        <v>5147</v>
+      </c>
+      <c r="E2000" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F2000" s="5" t="s">
+        <v>4522</v>
+      </c>
+      <c r="G2000" s="5"/>
+      <c r="H2000" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2000" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2001" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2001" s="5"/>
+      <c r="C2001" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2001" s="5" t="s">
+        <v>5148</v>
+      </c>
+      <c r="E2001" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="F2001" s="5" t="s">
+        <v>4523</v>
+      </c>
+      <c r="G2001" s="5"/>
+      <c r="H2001" s="5">
+        <v>1066</v>
+      </c>
+      <c r="I2001" s="5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2002" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2002" s="5"/>
+      <c r="C2002" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2002" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E2002" s="5" t="s">
+        <v>4524</v>
+      </c>
+      <c r="F2002" s="5" t="s">
+        <v>4525</v>
+      </c>
+      <c r="G2002" s="5"/>
+      <c r="H2002" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2002" s="5" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2003" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2003" s="5"/>
+      <c r="C2003" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2003" s="5" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E2003" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="F2003" s="5" t="s">
+        <v>5187</v>
+      </c>
+      <c r="G2003" s="5"/>
+      <c r="H2003" s="5">
+        <v>1020</v>
+      </c>
+      <c r="I2003" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2004" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2004" s="5"/>
+      <c r="C2004" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2004" s="5" t="s">
+        <v>4526</v>
+      </c>
+      <c r="E2004" s="5" t="s">
+        <v>4527</v>
+      </c>
+      <c r="F2004" s="5" t="s">
+        <v>4528</v>
+      </c>
+      <c r="G2004" s="5"/>
+      <c r="H2004" s="5">
+        <v>1162</v>
+      </c>
+      <c r="I2004" s="5" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="2005" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2005" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2005" s="5" t="s">
+        <v>4530</v>
+      </c>
+      <c r="E2005" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="F2005" s="5" t="s">
+        <v>4531</v>
+      </c>
+      <c r="G2005" s="5"/>
+      <c r="H2005" s="5">
+        <v>1806</v>
+      </c>
+      <c r="I2005" s="5" t="s">
+        <v>5183</v>
+      </c>
+    </row>
+    <row r="2006" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2006" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2006" s="5" t="s">
+        <v>4459</v>
+      </c>
+      <c r="E2006" s="5" t="s">
+        <v>4532</v>
+      </c>
+      <c r="F2006" s="5" t="s">
+        <v>4533</v>
+      </c>
+      <c r="G2006" s="5"/>
+      <c r="H2006" s="5">
+        <v>1148</v>
+      </c>
+      <c r="I2006" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2007" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2007" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2007" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2007" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F2007" s="5" t="s">
+        <v>4534</v>
+      </c>
+      <c r="G2007" s="5"/>
+      <c r="H2007" s="5">
+        <v>1807</v>
+      </c>
+      <c r="I2007" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2008" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2008" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2008" s="5" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E2008" s="5" t="s">
+        <v>4535</v>
+      </c>
+      <c r="F2008" s="5" t="s">
+        <v>4536</v>
+      </c>
+      <c r="G2008" s="5"/>
+      <c r="H2008" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2008" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2009" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2009" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2009" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2009" s="5" t="s">
+        <v>4537</v>
+      </c>
+      <c r="F2009" s="5" t="s">
+        <v>4538</v>
+      </c>
+      <c r="G2009" s="5"/>
+      <c r="H2009" s="5">
+        <v>1815</v>
+      </c>
+      <c r="I2009" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2010" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2010" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2010" s="5" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E2010" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2010" s="5" t="s">
+        <v>4540</v>
+      </c>
+      <c r="G2010" s="5"/>
+      <c r="H2010" s="5">
+        <v>1144</v>
+      </c>
+      <c r="I2010" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2011" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2011" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2011" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E2011" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F2011" s="5" t="s">
+        <v>4541</v>
+      </c>
+      <c r="G2011" s="5"/>
+      <c r="H2011" s="5">
+        <v>1115</v>
+      </c>
+      <c r="I2011" s="5" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="2012" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2012" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2012" s="5" t="s">
+        <v>4542</v>
+      </c>
+      <c r="E2012" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F2012" s="5" t="s">
+        <v>4543</v>
+      </c>
+      <c r="G2012" s="5"/>
+      <c r="H2012" s="5">
+        <v>1096</v>
+      </c>
+      <c r="I2012" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2013" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2013" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2013" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="E2013" s="5" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F2013" s="5" t="s">
+        <v>4544</v>
+      </c>
+      <c r="G2013" s="5"/>
+      <c r="H2013" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2013" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2014" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2014" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2014" s="5" t="s">
+        <v>4545</v>
+      </c>
+      <c r="E2014" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F2014" s="5" t="s">
+        <v>4546</v>
+      </c>
+      <c r="G2014" s="5"/>
+      <c r="H2014" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2014" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2015" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2015" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2015" s="5" t="s">
+        <v>4547</v>
+      </c>
+      <c r="E2015" s="5" t="s">
+        <v>4548</v>
+      </c>
+      <c r="F2015" s="5" t="s">
+        <v>4549</v>
+      </c>
+      <c r="G2015" s="5"/>
+      <c r="H2015" s="5">
+        <v>1170</v>
+      </c>
+      <c r="I2015" s="5" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="2016" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2016" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2016" s="5" t="s">
+        <v>4550</v>
+      </c>
+      <c r="E2016" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2016" s="5" t="s">
+        <v>4551</v>
+      </c>
+      <c r="G2016" s="5"/>
+      <c r="H2016" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2016" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2017" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2017" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2017" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E2017" s="5" t="s">
+        <v>4552</v>
+      </c>
+      <c r="F2017" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G2017" s="5"/>
+      <c r="H2017" s="5">
+        <v>1815</v>
+      </c>
+      <c r="I2017" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2018" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2018" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2018" s="5" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E2018" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2018" s="5" t="s">
+        <v>4553</v>
+      </c>
+      <c r="G2018" s="5">
+        <v>11</v>
+      </c>
+      <c r="H2018" s="5">
+        <v>1264</v>
+      </c>
+      <c r="I2018" s="5" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="2019" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2019" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2019" s="5" t="s">
+        <v>4555</v>
+      </c>
+      <c r="E2019" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2019" s="5" t="s">
+        <v>4556</v>
+      </c>
+      <c r="G2019" s="5"/>
+      <c r="H2019" s="5">
+        <v>1350</v>
+      </c>
+      <c r="I2019" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2020" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2020" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2020" s="5" t="s">
+        <v>5149</v>
+      </c>
+      <c r="E2020" s="5" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F2020" s="5" t="s">
+        <v>4557</v>
+      </c>
+      <c r="G2020" s="5"/>
+      <c r="H2020" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2020" s="5" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2021" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2021" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2021" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2021" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F2021" s="5" t="s">
+        <v>4558</v>
+      </c>
+      <c r="G2021" s="5"/>
+      <c r="H2021" s="5">
+        <v>1162</v>
+      </c>
+      <c r="I2021" s="5" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="2022" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2022" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2022" s="5" t="s">
+        <v>4560</v>
+      </c>
+      <c r="E2022" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F2022" s="5" t="s">
+        <v>4561</v>
+      </c>
+      <c r="G2022" s="5"/>
+      <c r="H2022" s="5">
+        <v>1298</v>
+      </c>
+      <c r="I2022" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2023" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2023" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2023" s="5" t="s">
+        <v>4509</v>
+      </c>
+      <c r="E2023" s="5" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F2023" s="5" t="s">
+        <v>4562</v>
+      </c>
+      <c r="G2023" s="5"/>
+      <c r="H2023" s="5">
+        <v>1261</v>
+      </c>
+      <c r="I2023" s="5" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="2024" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2024" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2024" s="5" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E2024" s="5" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F2024" s="5" t="s">
+        <v>4564</v>
+      </c>
+      <c r="G2024" s="5"/>
+      <c r="H2024" s="5">
+        <v>1820</v>
+      </c>
+      <c r="I2024" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2025" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2025" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2025" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E2025" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F2025" s="5" t="s">
+        <v>4565</v>
+      </c>
+      <c r="G2025" s="5"/>
+      <c r="H2025" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2025" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2026" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2026" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2026" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E2026" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F2026" s="5" t="s">
+        <v>4565</v>
+      </c>
+      <c r="G2026" s="5"/>
+      <c r="H2026" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2026" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2027" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2027" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2027" s="5" t="s">
+        <v>4566</v>
+      </c>
+      <c r="E2027" s="5" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F2027" s="5" t="s">
+        <v>2265</v>
+      </c>
+      <c r="G2027" s="5"/>
+      <c r="H2027" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I2027" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2028" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2028" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2028" s="5" t="s">
+        <v>4567</v>
+      </c>
+      <c r="E2028" s="5" t="s">
+        <v>4568</v>
+      </c>
+      <c r="F2028" s="5" t="s">
+        <v>4569</v>
+      </c>
+      <c r="G2028" s="5"/>
+      <c r="H2028" s="5">
+        <v>1804</v>
+      </c>
+      <c r="I2028" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="2029" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2029" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2029" s="5" t="s">
+        <v>4570</v>
+      </c>
+      <c r="E2029" s="5" t="s">
+        <v>4571</v>
+      </c>
+      <c r="F2029" s="5" t="s">
+        <v>4572</v>
+      </c>
+      <c r="G2029" s="5"/>
+      <c r="H2029" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2029" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2030" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2030" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2030" s="5" t="s">
+        <v>3332</v>
+      </c>
+      <c r="E2030" s="5" t="s">
+        <v>4573</v>
+      </c>
+      <c r="F2030" s="5" t="s">
+        <v>4574</v>
+      </c>
+      <c r="G2030" s="5"/>
+      <c r="H2030" s="5">
+        <v>1080</v>
+      </c>
+      <c r="I2030" s="5" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="2031" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2031" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2031" s="5" t="s">
+        <v>4575</v>
+      </c>
+      <c r="E2031" s="5" t="s">
+        <v>4576</v>
+      </c>
+      <c r="F2031" s="5" t="s">
+        <v>5194</v>
+      </c>
+      <c r="G2031" s="5"/>
+      <c r="H2031" s="5">
+        <v>1329</v>
+      </c>
+      <c r="I2031" s="5" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2032" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2032" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2032" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2032" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2032" s="5" t="s">
+        <v>4577</v>
+      </c>
+      <c r="G2032" s="5"/>
+      <c r="H2032" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I2032" s="5" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="2033" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2033" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2033" s="5" t="s">
+        <v>4579</v>
+      </c>
+      <c r="E2033" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="F2033" s="5" t="s">
+        <v>5188</v>
+      </c>
+      <c r="G2033" s="5"/>
+      <c r="H2033" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2033" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2034" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2034" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2034" s="5" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E2034" s="5" t="s">
+        <v>4568</v>
+      </c>
+      <c r="F2034" s="5" t="s">
+        <v>4580</v>
+      </c>
+      <c r="G2034" s="5"/>
+      <c r="H2034" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2034" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2035" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2035" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2035" s="5" t="s">
+        <v>4581</v>
+      </c>
+      <c r="E2035" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2035" s="5" t="s">
+        <v>5189</v>
+      </c>
+      <c r="G2035" s="5"/>
+      <c r="H2035" s="5">
+        <v>1168</v>
+      </c>
+      <c r="I2035" s="5" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="2036" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2036" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2036" s="5" t="s">
+        <v>4582</v>
+      </c>
+      <c r="E2036" s="5" t="s">
+        <v>4583</v>
+      </c>
+      <c r="F2036" s="5" t="s">
+        <v>4584</v>
+      </c>
+      <c r="G2036" s="5"/>
+      <c r="H2036" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2036" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2037" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2037" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2037" s="5" t="s">
+        <v>4585</v>
+      </c>
+      <c r="E2037" s="5" t="s">
+        <v>4586</v>
+      </c>
+      <c r="F2037" s="5" t="s">
+        <v>4587</v>
+      </c>
+      <c r="G2037" s="5"/>
+      <c r="H2037" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2037" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2038" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2038" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2038" s="5" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E2038" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2038" s="5" t="s">
+        <v>4588</v>
+      </c>
+      <c r="G2038" s="5"/>
+      <c r="H2038" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2038" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2039" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2039" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2039" s="5" t="s">
+        <v>4145</v>
+      </c>
+      <c r="E2039" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2039" s="5" t="s">
+        <v>4589</v>
+      </c>
+      <c r="G2039" s="5"/>
+      <c r="H2039" s="5">
+        <v>1860</v>
+      </c>
+      <c r="I2039" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2040" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2040" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2040" s="5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E2040" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2040" s="5" t="s">
+        <v>4590</v>
+      </c>
+      <c r="G2040" s="5"/>
+      <c r="H2040" s="5">
+        <v>1350</v>
+      </c>
+      <c r="I2040" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2041" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2041" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2041" s="5" t="s">
+        <v>4591</v>
+      </c>
+      <c r="E2041" s="5" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F2041" s="5" t="s">
+        <v>4592</v>
+      </c>
+      <c r="G2041" s="5"/>
+      <c r="H2041" s="5">
+        <v>1020</v>
+      </c>
+      <c r="I2041" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2042" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2042" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2042" s="5" t="s">
+        <v>4593</v>
+      </c>
+      <c r="E2042" s="5" t="s">
+        <v>4594</v>
+      </c>
+      <c r="F2042" s="5" t="s">
+        <v>4595</v>
+      </c>
+      <c r="G2042" s="5"/>
+      <c r="H2042" s="5">
+        <v>1010</v>
+      </c>
+      <c r="I2042" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2043" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2043" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2043" s="5" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E2043" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F2043" s="5" t="s">
+        <v>4596</v>
+      </c>
+      <c r="G2043" s="5"/>
+      <c r="H2043" s="5">
+        <v>1802</v>
+      </c>
+      <c r="I2043" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2044" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2044" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2044" s="5" t="s">
+        <v>5150</v>
+      </c>
+      <c r="E2044" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2044" s="5" t="s">
+        <v>4597</v>
+      </c>
+      <c r="G2044" s="5"/>
+      <c r="H2044" s="5">
+        <v>1822</v>
+      </c>
+      <c r="I2044" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2045" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2045" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2045" s="5" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E2045" s="5" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F2045" s="5" t="s">
+        <v>4598</v>
+      </c>
+      <c r="G2045" s="5"/>
+      <c r="H2045" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2045" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2046" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2046" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2046" s="5" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E2046" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F2046" s="5" t="s">
+        <v>4599</v>
+      </c>
+      <c r="G2046" s="5"/>
+      <c r="H2046" s="5">
+        <v>1525</v>
+      </c>
+      <c r="I2046" s="5" t="s">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="2047" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2047" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2047" s="5" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E2047" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F2047" s="5" t="s">
+        <v>4601</v>
+      </c>
+      <c r="G2047" s="5"/>
+      <c r="H2047" s="5">
+        <v>1525</v>
+      </c>
+      <c r="I2047" s="5" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="2048" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2048" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2048" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E2048" s="5" t="s">
+        <v>4602</v>
+      </c>
+      <c r="F2048" s="5" t="s">
+        <v>4603</v>
+      </c>
+      <c r="G2048" s="5"/>
+      <c r="H2048" s="5">
+        <v>1005</v>
+      </c>
+      <c r="I2048" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2049" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2049" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2049" s="5" t="s">
+        <v>4604</v>
+      </c>
+      <c r="E2049" s="5" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F2049" s="5" t="s">
+        <v>4605</v>
+      </c>
+      <c r="G2049" s="5"/>
+      <c r="H2049" s="5">
+        <v>1802</v>
+      </c>
+      <c r="I2049" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2050" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2050" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2050" s="5" t="s">
+        <v>4606</v>
+      </c>
+      <c r="E2050" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2050" s="5" t="s">
+        <v>4607</v>
+      </c>
+      <c r="G2050" s="5"/>
+      <c r="H2050" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2050" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2051" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2051" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2051" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E2051" s="5" t="s">
+        <v>5151</v>
+      </c>
+      <c r="F2051" s="5" t="s">
+        <v>4608</v>
+      </c>
+      <c r="G2051" s="5"/>
+      <c r="H2051" s="5">
+        <v>1033</v>
+      </c>
+      <c r="I2051" s="5" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="2052" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2052" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2052" s="5" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E2052" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2052" s="5" t="s">
+        <v>4610</v>
+      </c>
+      <c r="G2052" s="5"/>
+      <c r="H2052" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I2052" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2053" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2053" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2053" s="5" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E2053" s="5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F2053" s="5" t="s">
+        <v>4611</v>
+      </c>
+      <c r="G2053" s="5"/>
+      <c r="H2053" s="5">
+        <v>1852</v>
+      </c>
+      <c r="I2053" s="5" t="s">
+        <v>4612</v>
+      </c>
+    </row>
+    <row r="2054" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2054" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2054" s="5" t="s">
+        <v>4613</v>
+      </c>
+      <c r="E2054" s="5" t="s">
+        <v>4614</v>
+      </c>
+      <c r="F2054" s="5" t="s">
+        <v>4615</v>
+      </c>
+      <c r="G2054" s="5"/>
+      <c r="H2054" s="5">
+        <v>1400</v>
+      </c>
+      <c r="I2054" s="5" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2055" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2055" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2055" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E2055" s="5" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F2055" s="5" t="s">
+        <v>4616</v>
+      </c>
+      <c r="G2055" s="5"/>
+      <c r="H2055" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2055" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2056" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2056" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2056" s="5" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E2056" s="5" t="s">
+        <v>2525</v>
+      </c>
+      <c r="F2056" s="5" t="s">
+        <v>4617</v>
+      </c>
+      <c r="G2056" s="5"/>
+      <c r="H2056" s="5">
+        <v>1005</v>
+      </c>
+      <c r="I2056" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2057" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2057" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2057" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2057" s="5" t="s">
+        <v>4618</v>
+      </c>
+      <c r="F2057" s="5" t="s">
+        <v>4619</v>
+      </c>
+      <c r="G2057" s="5"/>
+      <c r="H2057" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2057" s="5" t="s">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="2058" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2058" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2058" s="5" t="s">
+        <v>4621</v>
+      </c>
+      <c r="E2058" s="5" t="s">
+        <v>4622</v>
+      </c>
+      <c r="F2058" s="5" t="s">
+        <v>4623</v>
+      </c>
+      <c r="G2058" s="5"/>
+      <c r="H2058" s="5">
+        <v>1350</v>
+      </c>
+      <c r="I2058" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2059" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2059" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2059" s="5" t="s">
+        <v>4624</v>
+      </c>
+      <c r="E2059" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2059" s="5" t="s">
+        <v>4625</v>
+      </c>
+      <c r="G2059" s="5"/>
+      <c r="H2059" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2059" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2060" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2060" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2060" s="5" t="s">
+        <v>4626</v>
+      </c>
+      <c r="E2060" s="5" t="s">
+        <v>4627</v>
+      </c>
+      <c r="F2060" s="5" t="s">
+        <v>3894</v>
+      </c>
+      <c r="G2060" s="5"/>
+      <c r="H2060" s="5">
+        <v>1350</v>
+      </c>
+      <c r="I2060" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2061" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2061" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2061" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E2061" s="5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F2061" s="5" t="s">
+        <v>4628</v>
+      </c>
+      <c r="G2061" s="5"/>
+      <c r="H2061" s="5">
+        <v>1429</v>
+      </c>
+      <c r="I2061" s="5" t="s">
+        <v>4629</v>
+      </c>
+    </row>
+    <row r="2062" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2062" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2062" s="5" t="s">
+        <v>4630</v>
+      </c>
+      <c r="E2062" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="F2062" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G2062" s="5"/>
+      <c r="H2062" s="5">
+        <v>1400</v>
+      </c>
+      <c r="I2062" s="5" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2063" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2063" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2063" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E2063" s="5" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F2063" s="5" t="s">
+        <v>4631</v>
+      </c>
+      <c r="G2063" s="5"/>
+      <c r="H2063" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2063" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2064" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2064" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2064" s="5" t="s">
+        <v>4632</v>
+      </c>
+      <c r="E2064" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="F2064" s="5" t="s">
+        <v>4633</v>
+      </c>
+      <c r="G2064" s="5"/>
+      <c r="H2064" s="5">
+        <v>1815</v>
+      </c>
+      <c r="I2064" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2065" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2065" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2065" s="5" t="s">
+        <v>4634</v>
+      </c>
+      <c r="E2065" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2065" s="5" t="s">
+        <v>4635</v>
+      </c>
+      <c r="G2065" s="5"/>
+      <c r="H2065" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2065" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2066" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2066" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2066" s="5" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E2066" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2066" s="5" t="s">
+        <v>4636</v>
+      </c>
+      <c r="G2066" s="5"/>
+      <c r="H2066" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2066" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2067" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2067" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2067" s="5" t="s">
+        <v>2776</v>
+      </c>
+      <c r="E2067" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2067" s="5" t="s">
+        <v>4637</v>
+      </c>
+      <c r="G2067" s="5"/>
+      <c r="H2067" s="5">
+        <v>1012</v>
+      </c>
+      <c r="I2067" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2068" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2068" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2068" s="5" t="s">
+        <v>3683</v>
+      </c>
+      <c r="E2068" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="F2068" s="5" t="s">
+        <v>4638</v>
+      </c>
+      <c r="G2068" s="5"/>
+      <c r="H2068" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2068" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2069" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2069" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2069" s="5" t="s">
+        <v>4639</v>
+      </c>
+      <c r="E2069" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2069" s="5" t="s">
+        <v>4640</v>
+      </c>
+      <c r="G2069" s="5"/>
+      <c r="H2069" s="5">
+        <v>1020</v>
+      </c>
+      <c r="I2069" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2070" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2070" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2070" s="5" t="s">
+        <v>4641</v>
+      </c>
+      <c r="E2070" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2070" s="5" t="s">
+        <v>4642</v>
+      </c>
+      <c r="G2070" s="5"/>
+      <c r="H2070" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2070" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2071" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2071" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2071" s="5" t="s">
+        <v>3368</v>
+      </c>
+      <c r="E2071" s="5" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F2071" s="5" t="s">
+        <v>4643</v>
+      </c>
+      <c r="G2071" s="5"/>
+      <c r="H2071" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2071" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2072" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2072" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2072" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="E2072" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="F2072" s="5" t="s">
+        <v>4644</v>
+      </c>
+      <c r="G2072" s="5"/>
+      <c r="H2072" s="5">
+        <v>1073</v>
+      </c>
+      <c r="I2072" s="5" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="2073" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2073" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2073" s="5" t="s">
+        <v>4645</v>
+      </c>
+      <c r="E2073" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F2073" s="5" t="s">
+        <v>4646</v>
+      </c>
+      <c r="G2073" s="5"/>
+      <c r="H2073" s="5">
+        <v>1806</v>
+      </c>
+      <c r="I2073" s="5" t="s">
+        <v>4647</v>
+      </c>
+    </row>
+    <row r="2074" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2074" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2074" s="5" t="s">
+        <v>4648</v>
+      </c>
+      <c r="E2074" s="5" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F2074" s="5" t="s">
+        <v>4649</v>
+      </c>
+      <c r="G2074" s="5"/>
+      <c r="H2074" s="5">
+        <v>1347</v>
+      </c>
+      <c r="I2074" s="5" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="2075" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2075" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2075" s="5" t="s">
+        <v>4650</v>
+      </c>
+      <c r="E2075" s="5" t="s">
+        <v>1604</v>
+      </c>
+      <c r="F2075" s="5" t="s">
+        <v>4651</v>
+      </c>
+      <c r="G2075" s="5"/>
+      <c r="H2075" s="5">
+        <v>1462</v>
+      </c>
+      <c r="I2075" s="5" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="2076" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2076" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2076" s="5" t="s">
+        <v>5152</v>
+      </c>
+      <c r="E2076" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F2076" s="5" t="s">
+        <v>4653</v>
+      </c>
+      <c r="G2076" s="5"/>
+      <c r="H2076" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I2076" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2077" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2077" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2077" s="5" t="s">
+        <v>4654</v>
+      </c>
+      <c r="E2077" s="5" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F2077" s="5" t="s">
+        <v>4655</v>
+      </c>
+      <c r="G2077" s="5"/>
+      <c r="H2077" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2077" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2078" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2078" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2078" s="5" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E2078" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2078" s="5" t="s">
+        <v>4656</v>
+      </c>
+      <c r="G2078" s="5"/>
+      <c r="H2078" s="5">
+        <v>1052</v>
+      </c>
+      <c r="I2078" s="5" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="2079" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2079" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2079" s="5" t="s">
+        <v>4657</v>
+      </c>
+      <c r="E2079" s="5" t="s">
+        <v>4658</v>
+      </c>
+      <c r="F2079" s="5" t="s">
+        <v>4659</v>
+      </c>
+      <c r="G2079" s="5"/>
+      <c r="H2079" s="5">
+        <v>1134</v>
+      </c>
+      <c r="I2079" s="5" t="s">
+        <v>2303</v>
+      </c>
+    </row>
+    <row r="2080" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2080" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2080" s="5" t="s">
+        <v>5153</v>
+      </c>
+      <c r="E2080" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2080" s="5" t="s">
+        <v>4660</v>
+      </c>
+      <c r="G2080" s="5"/>
+      <c r="H2080" s="5">
+        <v>1373</v>
+      </c>
+      <c r="I2080" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2081" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2081" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2081" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E2081" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F2081" s="5" t="s">
+        <v>4661</v>
+      </c>
+      <c r="G2081" s="5"/>
+      <c r="H2081" s="5">
+        <v>1033</v>
+      </c>
+      <c r="I2081" s="5" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="2082" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2082" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2082" s="5" t="s">
+        <v>4662</v>
+      </c>
+      <c r="E2082" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2082" s="5" t="s">
+        <v>4663</v>
+      </c>
+      <c r="G2082" s="5"/>
+      <c r="H2082" s="5">
+        <v>1880</v>
+      </c>
+      <c r="I2082" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2083" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2083" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2083" s="5" t="s">
+        <v>5154</v>
+      </c>
+      <c r="E2083" s="5" t="s">
+        <v>4664</v>
+      </c>
+      <c r="F2083" s="5" t="s">
+        <v>4665</v>
+      </c>
+      <c r="G2083" s="5"/>
+      <c r="H2083" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2083" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2084" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2084" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2084" s="5" t="s">
+        <v>4666</v>
+      </c>
+      <c r="E2084" s="5" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F2084" s="5" t="s">
+        <v>4667</v>
+      </c>
+      <c r="G2084" s="5"/>
+      <c r="H2084" s="5">
+        <v>1290</v>
+      </c>
+      <c r="I2084" s="5" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="2085" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2085" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2085" s="5" t="s">
+        <v>4668</v>
+      </c>
+      <c r="E2085" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2085" s="5" t="s">
+        <v>4669</v>
+      </c>
+      <c r="G2085" s="5"/>
+      <c r="H2085" s="5">
+        <v>1304</v>
+      </c>
+      <c r="I2085" s="5" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="2086" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2086" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2086" s="5" t="s">
+        <v>4670</v>
+      </c>
+      <c r="E2086" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="F2086" s="5" t="s">
+        <v>5190</v>
+      </c>
+      <c r="G2086" s="5"/>
+      <c r="H2086" s="5">
+        <v>1272</v>
+      </c>
+      <c r="I2086" s="5" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2087" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2087" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2087" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2087" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2087" s="5" t="s">
+        <v>4671</v>
+      </c>
+      <c r="G2087" s="5"/>
+      <c r="H2087" s="5">
+        <v>1860</v>
+      </c>
+      <c r="I2087" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2088" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2088" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2088" s="5" t="s">
+        <v>4672</v>
+      </c>
+      <c r="E2088" s="5" t="s">
+        <v>4673</v>
+      </c>
+      <c r="F2088" s="5" t="s">
+        <v>4674</v>
+      </c>
+      <c r="G2088" s="5"/>
+      <c r="H2088" s="5">
+        <v>1660</v>
+      </c>
+      <c r="I2088" s="5" t="s">
+        <v>4675</v>
+      </c>
+    </row>
+    <row r="2089" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2089" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2089" s="5" t="s">
+        <v>4676</v>
+      </c>
+      <c r="E2089" s="5" t="s">
+        <v>4677</v>
+      </c>
+      <c r="F2089" s="5" t="s">
+        <v>4678</v>
+      </c>
+      <c r="G2089" s="5"/>
+      <c r="H2089" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2089" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2090" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2090" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2090" s="5" t="s">
+        <v>4679</v>
+      </c>
+      <c r="E2090" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2090" s="5" t="s">
+        <v>4680</v>
+      </c>
+      <c r="G2090" s="5"/>
+      <c r="H2090" s="5">
+        <v>1417</v>
+      </c>
+      <c r="I2090" s="5" t="s">
+        <v>4681</v>
+      </c>
+    </row>
+    <row r="2091" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2091" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2091" s="5" t="s">
+        <v>4682</v>
+      </c>
+      <c r="E2091" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F2091" s="5" t="s">
+        <v>4683</v>
+      </c>
+      <c r="G2091" s="5"/>
+      <c r="H2091" s="5">
+        <v>1315</v>
+      </c>
+      <c r="I2091" s="5" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="2092" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2092" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2092" s="5" t="s">
+        <v>4684</v>
+      </c>
+      <c r="E2092" s="5" t="s">
+        <v>4685</v>
+      </c>
+      <c r="F2092" s="5" t="s">
+        <v>4686</v>
+      </c>
+      <c r="G2092" s="5"/>
+      <c r="H2092" s="5">
+        <v>1185</v>
+      </c>
+      <c r="I2092" s="5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="2093" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2093" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2093" s="5" t="s">
+        <v>4687</v>
+      </c>
+      <c r="E2093" s="5" t="s">
+        <v>4688</v>
+      </c>
+      <c r="F2093" s="5" t="s">
+        <v>4689</v>
+      </c>
+      <c r="G2093" s="5"/>
+      <c r="H2093" s="5">
+        <v>1005</v>
+      </c>
+      <c r="I2093" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2094" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2094" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2094" s="5" t="s">
+        <v>4690</v>
+      </c>
+      <c r="E2094" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2094" s="5" t="s">
+        <v>5191</v>
+      </c>
+      <c r="G2094" s="5"/>
+      <c r="H2094" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2094" s="5" t="s">
+        <v>4691</v>
+      </c>
+    </row>
+    <row r="2095" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2095" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2095" s="5" t="s">
+        <v>3588</v>
+      </c>
+      <c r="E2095" s="5" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F2095" s="5" t="s">
+        <v>4692</v>
+      </c>
+      <c r="G2095" s="5"/>
+      <c r="H2095" s="5">
+        <v>1454</v>
+      </c>
+      <c r="I2095" s="5" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2096" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2096" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2096" s="5" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E2096" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2096" s="5" t="s">
+        <v>4693</v>
+      </c>
+      <c r="G2096" s="5"/>
+      <c r="H2096" s="5">
+        <v>1091</v>
+      </c>
+      <c r="I2096" s="5" t="s">
+        <v>4694</v>
+      </c>
+    </row>
+    <row r="2097" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2097" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2097" s="5" t="s">
+        <v>4695</v>
+      </c>
+      <c r="E2097" s="5" t="s">
+        <v>4696</v>
+      </c>
+      <c r="F2097" s="5" t="s">
+        <v>5192</v>
+      </c>
+      <c r="G2097" s="5"/>
+      <c r="H2097" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2097" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2098" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2098" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2098" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E2098" s="5" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F2098" s="5" t="s">
+        <v>4697</v>
+      </c>
+      <c r="G2098" s="5"/>
+      <c r="H2098" s="5">
+        <v>1803</v>
+      </c>
+      <c r="I2098" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2099" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2099" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2099" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E2099" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2099" s="5" t="s">
+        <v>4698</v>
+      </c>
+      <c r="G2099" s="5"/>
+      <c r="H2099" s="5">
+        <v>1091</v>
+      </c>
+      <c r="I2099" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2100" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2100" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2100" s="5" t="s">
+        <v>4699</v>
+      </c>
+      <c r="E2100" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2100" s="5" t="s">
+        <v>4700</v>
+      </c>
+      <c r="G2100" s="5"/>
+      <c r="H2100" s="5">
+        <v>1020</v>
+      </c>
+      <c r="I2100" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2101" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2101" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2101" s="5" t="s">
+        <v>2353</v>
+      </c>
+      <c r="E2101" s="5" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F2101" s="5" t="s">
+        <v>4701</v>
+      </c>
+      <c r="G2101" s="5"/>
+      <c r="H2101" s="5">
+        <v>1804</v>
+      </c>
+      <c r="I2101" s="5" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="2102" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2102" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2102" s="5" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E2102" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F2102" s="5" t="s">
+        <v>4702</v>
+      </c>
+      <c r="G2102" s="5">
+        <v>56</v>
+      </c>
+      <c r="H2102" s="5">
+        <v>1410</v>
+      </c>
+      <c r="I2102" s="5" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="2103" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2103" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2103" s="5" t="s">
+        <v>4704</v>
+      </c>
+      <c r="E2103" s="5" t="s">
+        <v>4705</v>
+      </c>
+      <c r="F2103" s="5" t="s">
+        <v>4706</v>
+      </c>
+      <c r="G2103" s="5"/>
+      <c r="H2103" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2103" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2104" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2104" s="5" t="s">
+        <v>4707</v>
+      </c>
+      <c r="E2104" s="5" t="s">
+        <v>4658</v>
+      </c>
+      <c r="F2104" s="5" t="s">
+        <v>4708</v>
+      </c>
+      <c r="G2104" s="5"/>
+      <c r="H2104" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2104" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2105" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2105" s="5" t="s">
+        <v>4709</v>
+      </c>
+      <c r="E2105" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2105" s="5" t="s">
+        <v>4710</v>
+      </c>
+      <c r="G2105" s="5"/>
+      <c r="H2105" s="5">
+        <v>1586</v>
+      </c>
+      <c r="I2105" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2106" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2106" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2106" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="E2106" s="5" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F2106" s="5" t="s">
+        <v>4711</v>
+      </c>
+      <c r="G2106" s="5"/>
+      <c r="H2106" s="5">
+        <v>1410</v>
+      </c>
+      <c r="I2106" s="5" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="2107" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2107" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2107" s="5" t="s">
+        <v>4713</v>
+      </c>
+      <c r="E2107" s="5" t="s">
+        <v>4714</v>
+      </c>
+      <c r="F2107" s="5" t="s">
+        <v>4715</v>
+      </c>
+      <c r="G2107" s="5"/>
+      <c r="H2107" s="5">
+        <v>1407</v>
+      </c>
+      <c r="I2107" s="5" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="2108" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2108" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2108" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E2108" s="5" t="s">
+        <v>4716</v>
+      </c>
+      <c r="F2108" s="5" t="s">
+        <v>4717</v>
+      </c>
+      <c r="G2108" s="5"/>
+      <c r="H2108" s="5">
+        <v>1407</v>
+      </c>
+      <c r="I2108" s="5" t="s">
+        <v>5184</v>
+      </c>
+    </row>
+    <row r="2109" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2109" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2109" s="5" t="s">
+        <v>3169</v>
+      </c>
+      <c r="E2109" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2109" s="5" t="s">
+        <v>4718</v>
+      </c>
+      <c r="G2109" s="5"/>
+      <c r="H2109" s="5">
+        <v>1092</v>
+      </c>
+      <c r="I2109" s="5" t="s">
+        <v>4719</v>
+      </c>
+    </row>
+    <row r="2110" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2110" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2110" s="5" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E2110" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2110" s="5" t="s">
+        <v>4721</v>
+      </c>
+      <c r="G2110" s="5"/>
+      <c r="H2110" s="5">
+        <v>1052</v>
+      </c>
+      <c r="I2110" s="5" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="2111" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2111" s="5" t="s">
+        <v>4720</v>
+      </c>
+      <c r="E2111" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="F2111" s="5" t="s">
+        <v>4723</v>
+      </c>
+      <c r="G2111" s="5"/>
+      <c r="H2111" s="5">
+        <v>1052</v>
+      </c>
+      <c r="I2111" s="5" t="s">
+        <v>4722</v>
+      </c>
+    </row>
+    <row r="2112" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2112" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2112" s="5" t="s">
+        <v>5155</v>
+      </c>
+      <c r="E2112" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="F2112" s="5" t="s">
+        <v>4724</v>
+      </c>
+      <c r="G2112" s="5"/>
+      <c r="H2112" s="5">
+        <v>1024</v>
+      </c>
+      <c r="I2112" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2113" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2113" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2113" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2113" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2113" s="5" t="s">
+        <v>4725</v>
+      </c>
+      <c r="G2113" s="5"/>
+      <c r="H2113" s="5">
+        <v>1028</v>
+      </c>
+      <c r="I2113" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2114" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2114" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2114" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E2114" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2114" s="5" t="s">
+        <v>4726</v>
+      </c>
+      <c r="G2114" s="5"/>
+      <c r="H2114" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2114" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2115" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2115" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2115" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E2115" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2115" s="5" t="s">
+        <v>4727</v>
+      </c>
+      <c r="G2115" s="5"/>
+      <c r="H2115" s="5">
+        <v>1033</v>
+      </c>
+      <c r="I2115" s="5" t="s">
+        <v>4728</v>
+      </c>
+    </row>
+    <row r="2116" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2116" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2116" s="5" t="s">
+        <v>4729</v>
+      </c>
+      <c r="E2116" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F2116" s="5" t="s">
+        <v>4730</v>
+      </c>
+      <c r="G2116" s="5"/>
+      <c r="H2116" s="5">
+        <v>1033</v>
+      </c>
+      <c r="I2116" s="5" t="s">
+        <v>4731</v>
+      </c>
+    </row>
+    <row r="2117" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2117" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2117" s="5" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E2117" s="5" t="s">
+        <v>4733</v>
+      </c>
+      <c r="F2117" s="5" t="s">
+        <v>4734</v>
+      </c>
+      <c r="G2117" s="5"/>
+      <c r="H2117" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I2117" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2118" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2118" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2118" s="5" t="s">
+        <v>4735</v>
+      </c>
+      <c r="E2118" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2118" s="5" t="s">
+        <v>4736</v>
+      </c>
+      <c r="G2118" s="5"/>
+      <c r="H2118" s="5">
+        <v>1580</v>
+      </c>
+      <c r="I2118" s="5" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="2119" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2119" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2119" s="5" t="s">
+        <v>3264</v>
+      </c>
+      <c r="E2119" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="F2119" s="5" t="s">
+        <v>4737</v>
+      </c>
+      <c r="G2119" s="5"/>
+      <c r="H2119" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2119" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2120" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2120" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2120" s="5" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E2120" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2120" s="5" t="s">
+        <v>4739</v>
+      </c>
+      <c r="G2120" s="5"/>
+      <c r="H2120" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2120" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2121" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2121" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2121" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="E2121" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F2121" s="5" t="s">
+        <v>4740</v>
+      </c>
+      <c r="G2121" s="5"/>
+      <c r="H2121" s="5">
+        <v>1302</v>
+      </c>
+      <c r="I2121" s="5" t="s">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="2122" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2122" s="5" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E2122" s="5" t="s">
+        <v>3164</v>
+      </c>
+      <c r="F2122" s="5" t="s">
+        <v>4742</v>
+      </c>
+      <c r="G2122" s="5">
+        <v>206</v>
+      </c>
+      <c r="H2122" s="5">
+        <v>1268</v>
+      </c>
+      <c r="I2122" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2123" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2123" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2123" s="5" t="s">
+        <v>4743</v>
+      </c>
+      <c r="E2123" s="5" t="s">
+        <v>4744</v>
+      </c>
+      <c r="F2123" s="5" t="s">
+        <v>4745</v>
+      </c>
+      <c r="G2123" s="5"/>
+      <c r="H2123" s="5">
+        <v>1261</v>
+      </c>
+      <c r="I2123" s="5" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="2124" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2124" s="5" t="s">
+        <v>4746</v>
+      </c>
+      <c r="E2124" s="5" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F2124" s="5" t="s">
+        <v>4747</v>
+      </c>
+      <c r="G2124" s="5">
+        <v>927</v>
+      </c>
+      <c r="H2124" s="5">
+        <v>1001</v>
+      </c>
+      <c r="I2124" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2125" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2125" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2125" s="5" t="s">
+        <v>4748</v>
+      </c>
+      <c r="E2125" s="5" t="s">
+        <v>4749</v>
+      </c>
+      <c r="F2125" s="5" t="s">
+        <v>4750</v>
+      </c>
+      <c r="G2125" s="5"/>
+      <c r="H2125" s="5">
+        <v>1180</v>
+      </c>
+      <c r="I2125" s="5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2126" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2126" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2126" s="5" t="s">
+        <v>3998</v>
+      </c>
+      <c r="E2126" s="5" t="s">
+        <v>4751</v>
+      </c>
+      <c r="F2126" s="5" t="s">
+        <v>4752</v>
+      </c>
+      <c r="G2126" s="5"/>
+      <c r="H2126" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2126" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2127" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2127" s="5" t="s">
+        <v>4753</v>
+      </c>
+      <c r="E2127" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="F2127" s="5" t="s">
+        <v>4754</v>
+      </c>
+      <c r="G2127" s="5"/>
+      <c r="H2127" s="5">
+        <v>1302</v>
+      </c>
+      <c r="I2127" s="5" t="s">
+        <v>4741</v>
+      </c>
+    </row>
+    <row r="2128" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2128" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2128" s="5" t="s">
+        <v>4755</v>
+      </c>
+      <c r="E2128" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2128" s="5" t="s">
+        <v>4756</v>
+      </c>
+      <c r="G2128" s="5"/>
+      <c r="H2128" s="5">
+        <v>1357</v>
+      </c>
+      <c r="I2128" s="5" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="2129" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2129" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2129" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2129" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2129" s="5" t="s">
+        <v>4757</v>
+      </c>
+      <c r="G2129" s="5"/>
+      <c r="H2129" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2129" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2130" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2130" s="5" t="s">
+        <v>4758</v>
+      </c>
+      <c r="E2130" s="5" t="s">
+        <v>4759</v>
+      </c>
+      <c r="F2130" s="5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="G2130" s="5">
+        <v>120</v>
+      </c>
+      <c r="H2130" s="5">
+        <v>1030</v>
+      </c>
+      <c r="I2130" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2131" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2131" s="5" t="s">
+        <v>5156</v>
+      </c>
+      <c r="E2131" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2131" s="5" t="s">
+        <v>4760</v>
+      </c>
+      <c r="G2131" s="5"/>
+      <c r="H2131" s="5">
+        <v>1350</v>
+      </c>
+      <c r="I2131" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2132" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2132" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2132" s="5" t="s">
+        <v>4761</v>
+      </c>
+      <c r="E2132" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="F2132" s="5" t="s">
+        <v>4762</v>
+      </c>
+      <c r="G2132" s="5"/>
+      <c r="H2132" s="5">
+        <v>1454</v>
+      </c>
+      <c r="I2132" s="5" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="2133" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2133" s="5" t="s">
+        <v>4763</v>
+      </c>
+      <c r="E2133" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2133" s="5" t="s">
+        <v>4764</v>
+      </c>
+      <c r="G2133" s="5"/>
+      <c r="H2133" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2133" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2134" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2134" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2134" s="5" t="s">
+        <v>3381</v>
+      </c>
+      <c r="E2134" s="5" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F2134" s="5" t="s">
+        <v>4765</v>
+      </c>
+      <c r="G2134" s="5"/>
+      <c r="H2134" s="5">
+        <v>1128</v>
+      </c>
+      <c r="I2134" s="5" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="2135" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2135" s="5" t="s">
+        <v>4766</v>
+      </c>
+      <c r="E2135" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2135" s="5" t="s">
+        <v>4767</v>
+      </c>
+      <c r="G2135" s="5"/>
+      <c r="H2135" s="5">
+        <v>1350</v>
+      </c>
+      <c r="I2135" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2136" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2136" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2136" s="5" t="s">
+        <v>4768</v>
+      </c>
+      <c r="E2136" s="5" t="s">
+        <v>3891</v>
+      </c>
+      <c r="F2136" s="5" t="s">
+        <v>4769</v>
+      </c>
+      <c r="G2136" s="5"/>
+      <c r="H2136" s="5">
+        <v>1442</v>
+      </c>
+      <c r="I2136" s="5" t="s">
+        <v>4770</v>
+      </c>
+    </row>
+    <row r="2137" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2137" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2137" s="5" t="s">
+        <v>4771</v>
+      </c>
+      <c r="E2137" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="F2137" s="5" t="s">
+        <v>4772</v>
+      </c>
+      <c r="G2137" s="5"/>
+      <c r="H2137" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2137" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2138" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2138" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2138" s="5" t="s">
+        <v>4773</v>
+      </c>
+      <c r="E2138" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2138" s="5" t="s">
+        <v>4774</v>
+      </c>
+      <c r="G2138" s="5"/>
+      <c r="H2138" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2138" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2139" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2139" s="5" t="s">
+        <v>4775</v>
+      </c>
+      <c r="E2139" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="F2139" s="5" t="s">
+        <v>4776</v>
+      </c>
+      <c r="G2139" s="5"/>
+      <c r="H2139" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2139" s="5" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2140" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2140" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2140" s="5" t="s">
+        <v>4777</v>
+      </c>
+      <c r="E2140" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F2140" s="5" t="s">
+        <v>4778</v>
+      </c>
+      <c r="G2140" s="5"/>
+      <c r="H2140" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2140" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2141" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2141" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2141" s="5" t="s">
+        <v>4779</v>
+      </c>
+      <c r="E2141" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2141" s="5" t="s">
+        <v>4780</v>
+      </c>
+      <c r="G2141" s="5"/>
+      <c r="H2141" s="5">
+        <v>1551</v>
+      </c>
+      <c r="I2141" s="5" t="s">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="2142" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2142" s="5" t="s">
+        <v>4781</v>
+      </c>
+      <c r="E2142" s="5" t="s">
+        <v>2354</v>
+      </c>
+      <c r="F2142" s="5" t="s">
+        <v>4782</v>
+      </c>
+      <c r="G2142" s="5"/>
+      <c r="H2142" s="5">
+        <v>1044</v>
+      </c>
+      <c r="I2142" s="5" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="2143" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2143" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2143" s="5" t="s">
+        <v>2579</v>
+      </c>
+      <c r="E2143" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F2143" s="5" t="s">
+        <v>4783</v>
+      </c>
+      <c r="G2143" s="5"/>
+      <c r="H2143" s="5">
+        <v>1815</v>
+      </c>
+      <c r="I2143" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2144" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2144" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2144" s="5" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E2144" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2144" s="5" t="s">
+        <v>4784</v>
+      </c>
+      <c r="G2144" s="5"/>
+      <c r="H2144" s="5">
+        <v>1820</v>
+      </c>
+      <c r="I2144" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2145" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2145" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2145" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E2145" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2145" s="5" t="s">
+        <v>4785</v>
+      </c>
+      <c r="G2145" s="5"/>
+      <c r="H2145" s="5">
+        <v>1010</v>
+      </c>
+      <c r="I2145" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2146" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2146" s="5" t="s">
+        <v>4786</v>
+      </c>
+      <c r="E2146" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="F2146" s="5" t="s">
+        <v>4787</v>
+      </c>
+      <c r="G2146" s="5"/>
+      <c r="H2146" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2146" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2147" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2147" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2147" s="5" t="s">
+        <v>3723</v>
+      </c>
+      <c r="E2147" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2147" s="5" t="s">
+        <v>4788</v>
+      </c>
+      <c r="G2147" s="5"/>
+      <c r="H2147" s="5">
+        <v>1372</v>
+      </c>
+      <c r="I2147" s="5" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="2148" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2148" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2148" s="5" t="s">
+        <v>4789</v>
+      </c>
+      <c r="E2148" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2148" s="5" t="s">
+        <v>4790</v>
+      </c>
+      <c r="G2148" s="5"/>
+      <c r="H2148" s="5">
+        <v>1400</v>
+      </c>
+      <c r="I2148" s="5" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2149" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2149" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2149" s="5" t="s">
+        <v>4791</v>
+      </c>
+      <c r="E2149" s="5" t="s">
+        <v>4792</v>
+      </c>
+      <c r="F2149" s="5" t="s">
+        <v>4793</v>
+      </c>
+      <c r="G2149" s="5"/>
+      <c r="H2149" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2149" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2150" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2150" s="5" t="s">
+        <v>4794</v>
+      </c>
+      <c r="E2150" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2150" s="5" t="s">
+        <v>4795</v>
+      </c>
+      <c r="G2150" s="5"/>
+      <c r="H2150" s="5">
+        <v>1423</v>
+      </c>
+      <c r="I2150" s="5" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="2151" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2151" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2151" s="5" t="s">
+        <v>4796</v>
+      </c>
+      <c r="E2151" s="5" t="s">
+        <v>3628</v>
+      </c>
+      <c r="F2151" s="5" t="s">
+        <v>4797</v>
+      </c>
+      <c r="G2151" s="5"/>
+      <c r="H2151" s="5">
+        <v>1012</v>
+      </c>
+      <c r="I2151" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2152" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2152" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2152" s="5" t="s">
+        <v>3247</v>
+      </c>
+      <c r="E2152" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2152" s="5" t="s">
+        <v>4798</v>
+      </c>
+      <c r="G2152" s="5"/>
+      <c r="H2152" s="5">
+        <v>1196</v>
+      </c>
+      <c r="I2152" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2153" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2153" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2153" s="5" t="s">
+        <v>4799</v>
+      </c>
+      <c r="E2153" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2153" s="5" t="s">
+        <v>4800</v>
+      </c>
+      <c r="G2153" s="5"/>
+      <c r="H2153" s="5">
+        <v>1195</v>
+      </c>
+      <c r="I2153" s="5" t="s">
+        <v>3395</v>
+      </c>
+    </row>
+    <row r="2154" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2154" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2154" s="5" t="s">
+        <v>4801</v>
+      </c>
+      <c r="E2154" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2154" s="5" t="s">
+        <v>4802</v>
+      </c>
+      <c r="G2154" s="5"/>
+      <c r="H2154" s="5">
+        <v>1135</v>
+      </c>
+      <c r="I2154" s="5" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="2155" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2155" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2155" s="5" t="s">
+        <v>3854</v>
+      </c>
+      <c r="E2155" s="5" t="s">
+        <v>3657</v>
+      </c>
+      <c r="F2155" s="5" t="s">
+        <v>4803</v>
+      </c>
+      <c r="G2155" s="5"/>
+      <c r="H2155" s="5">
+        <v>1032</v>
+      </c>
+      <c r="I2155" s="5" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2156" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2156" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2156" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2156" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F2156" s="5" t="s">
+        <v>4804</v>
+      </c>
+      <c r="G2156" s="5"/>
+      <c r="H2156" s="5">
+        <v>1003</v>
+      </c>
+      <c r="I2156" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2157" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2157" s="5" t="s">
+        <v>4805</v>
+      </c>
+      <c r="E2157" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2157" s="5" t="s">
+        <v>4806</v>
+      </c>
+      <c r="G2157" s="5"/>
+      <c r="H2157" s="5">
+        <v>1094</v>
+      </c>
+      <c r="I2157" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2158" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2158" s="5" t="s">
+        <v>4807</v>
+      </c>
+      <c r="E2158" s="5" t="s">
+        <v>4808</v>
+      </c>
+      <c r="F2158" s="5" t="s">
+        <v>4809</v>
+      </c>
+      <c r="G2158" s="5"/>
+      <c r="H2158" s="5">
+        <v>1005</v>
+      </c>
+      <c r="I2158" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2159" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2159" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2159" s="5" t="s">
+        <v>4810</v>
+      </c>
+      <c r="E2159" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="F2159" s="5" t="s">
+        <v>4811</v>
+      </c>
+      <c r="G2159" s="5"/>
+      <c r="H2159" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2159" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2160" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2160" s="5" t="s">
+        <v>4812</v>
+      </c>
+      <c r="E2160" s="5" t="s">
+        <v>4813</v>
+      </c>
+      <c r="F2160" s="5" t="s">
+        <v>4814</v>
+      </c>
+      <c r="G2160" s="5"/>
+      <c r="H2160" s="5">
+        <v>1608</v>
+      </c>
+      <c r="I2160" s="5" t="s">
+        <v>4815</v>
+      </c>
+    </row>
+    <row r="2161" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2161" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2161" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="E2161" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2161" s="5" t="s">
+        <v>4816</v>
+      </c>
+      <c r="G2161" s="5"/>
+      <c r="H2161" s="5">
+        <v>1090</v>
+      </c>
+      <c r="I2161" s="5" t="s">
+        <v>4817</v>
+      </c>
+    </row>
+    <row r="2162" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2162" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2162" s="5" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F2162" s="5" t="s">
+        <v>4818</v>
+      </c>
+      <c r="G2162" s="5"/>
+      <c r="H2162" s="5">
+        <v>1865</v>
+      </c>
+      <c r="I2162" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2163" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2163" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2163" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2163" s="5" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F2163" s="5" t="s">
+        <v>4819</v>
+      </c>
+      <c r="G2163" s="5"/>
+      <c r="H2163" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2163" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2164" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2164" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2164" s="5" t="s">
+        <v>4820</v>
+      </c>
+      <c r="E2164" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="F2164" s="5" t="s">
+        <v>4821</v>
+      </c>
+      <c r="G2164" s="5"/>
+      <c r="H2164" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2164" s="5" t="s">
+        <v>4822</v>
+      </c>
+    </row>
+    <row r="2165" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2165" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2165" s="5" t="s">
+        <v>4823</v>
+      </c>
+      <c r="E2165" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2165" s="5" t="s">
+        <v>5198</v>
+      </c>
+      <c r="G2165" s="5"/>
+      <c r="H2165" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2165" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2166" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2166" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2166" s="5" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E2166" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2166" s="5" t="s">
+        <v>4824</v>
+      </c>
+      <c r="G2166" s="5"/>
+      <c r="H2166" s="5">
+        <v>1010</v>
+      </c>
+      <c r="I2166" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2167" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2167" s="5" t="s">
+        <v>4825</v>
+      </c>
+      <c r="E2167" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2167" s="5" t="s">
+        <v>4826</v>
+      </c>
+      <c r="G2167" s="5"/>
+      <c r="H2167" s="5">
+        <v>1071</v>
+      </c>
+      <c r="I2167" s="5" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="2168" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2168" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2168" s="5" t="s">
+        <v>3947</v>
+      </c>
+      <c r="E2168" s="5" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F2168" s="5" t="s">
+        <v>4827</v>
+      </c>
+      <c r="G2168" s="5"/>
+      <c r="H2168" s="5">
+        <v>1029</v>
+      </c>
+      <c r="I2168" s="5" t="s">
+        <v>4828</v>
+      </c>
+    </row>
+    <row r="2169" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2169" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2169" s="5" t="s">
+        <v>4829</v>
+      </c>
+      <c r="E2169" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2169" s="5" t="s">
+        <v>4830</v>
+      </c>
+      <c r="G2169" s="5"/>
+      <c r="H2169" s="5">
+        <v>1024</v>
+      </c>
+      <c r="I2169" s="5" t="s">
+        <v>4831</v>
+      </c>
+    </row>
+    <row r="2170" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2170" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2170" s="5" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E2170" s="5" t="s">
+        <v>4833</v>
+      </c>
+      <c r="F2170" s="5" t="s">
+        <v>4834</v>
+      </c>
+      <c r="G2170" s="5"/>
+      <c r="H2170" s="5">
+        <v>1010</v>
+      </c>
+      <c r="I2170" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2171" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2171" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2171" s="5" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E2171" s="5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F2171" s="5" t="s">
+        <v>4836</v>
+      </c>
+      <c r="G2171" s="5"/>
+      <c r="H2171" s="5">
+        <v>1815</v>
+      </c>
+      <c r="I2171" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2172" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2172" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2172" s="5" t="s">
+        <v>4837</v>
+      </c>
+      <c r="E2172" s="5" t="s">
+        <v>4838</v>
+      </c>
+      <c r="F2172" s="5" t="s">
+        <v>4839</v>
+      </c>
+      <c r="G2172" s="5"/>
+      <c r="H2172" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2172" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2173" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2173" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2173" s="5" t="s">
+        <v>4840</v>
+      </c>
+      <c r="E2173" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="F2173" s="5" t="s">
+        <v>4841</v>
+      </c>
+      <c r="G2173" s="5"/>
+      <c r="H2173" s="5">
+        <v>1404</v>
+      </c>
+      <c r="I2173" s="5" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="2174" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2174" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2174" s="5" t="s">
+        <v>4842</v>
+      </c>
+      <c r="E2174" s="5" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F2174" s="5" t="s">
+        <v>4843</v>
+      </c>
+      <c r="G2174" s="5"/>
+      <c r="H2174" s="5">
+        <v>1880</v>
+      </c>
+      <c r="I2174" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2175" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2175" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2175" s="5" t="s">
+        <v>5157</v>
+      </c>
+      <c r="E2175" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F2175" s="5" t="s">
+        <v>4844</v>
+      </c>
+      <c r="G2175" s="5"/>
+      <c r="H2175" s="5">
+        <v>1022</v>
+      </c>
+      <c r="I2175" s="5" t="s">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="2176" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2176" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2176" s="5" t="s">
+        <v>4846</v>
+      </c>
+      <c r="E2176" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2176" s="5" t="s">
+        <v>5158</v>
+      </c>
+      <c r="G2176" s="5"/>
+      <c r="H2176" s="5">
+        <v>1660</v>
+      </c>
+      <c r="I2176" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2177" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2177" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2177" s="5" t="s">
+        <v>4847</v>
+      </c>
+      <c r="E2177" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2177" s="5" t="s">
+        <v>4848</v>
+      </c>
+      <c r="G2177" s="5"/>
+      <c r="H2177" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2177" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2178" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2178" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2178" s="5" t="s">
+        <v>4849</v>
+      </c>
+      <c r="E2178" s="5" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F2178" s="5" t="s">
+        <v>4850</v>
+      </c>
+      <c r="G2178" s="5"/>
+      <c r="H2178" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2178" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2179" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2179" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2179" s="5" t="s">
+        <v>5159</v>
+      </c>
+      <c r="E2179" s="5" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F2179" s="5" t="s">
+        <v>4851</v>
+      </c>
+      <c r="G2179" s="5"/>
+      <c r="H2179" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2179" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2180" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2180" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2180" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E2180" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F2180" s="5" t="s">
+        <v>4852</v>
+      </c>
+      <c r="G2180" s="5"/>
+      <c r="H2180" s="5">
+        <v>1023</v>
+      </c>
+      <c r="I2180" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2181" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2181" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2181" s="5" t="s">
+        <v>4243</v>
+      </c>
+      <c r="E2181" s="5" t="s">
+        <v>4853</v>
+      </c>
+      <c r="F2181" s="5" t="s">
+        <v>4854</v>
+      </c>
+      <c r="G2181" s="5"/>
+      <c r="H2181" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2181" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2182" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2182" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2182" s="5" t="s">
+        <v>4855</v>
+      </c>
+      <c r="E2182" s="5" t="s">
+        <v>4278</v>
+      </c>
+      <c r="F2182" s="5" t="s">
+        <v>4856</v>
+      </c>
+      <c r="G2182" s="5"/>
+      <c r="H2182" s="5">
+        <v>1820</v>
+      </c>
+      <c r="I2182" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2183" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2183" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2183" s="5" t="s">
+        <v>4857</v>
+      </c>
+      <c r="E2183" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2183" s="5" t="s">
+        <v>4858</v>
+      </c>
+      <c r="G2183" s="5"/>
+      <c r="H2183" s="5">
+        <v>1052</v>
+      </c>
+      <c r="I2183" s="5" t="s">
+        <v>4859</v>
+      </c>
+    </row>
+    <row r="2184" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2184" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2184" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E2184" s="5" t="s">
+        <v>4860</v>
+      </c>
+      <c r="F2184" s="5" t="s">
+        <v>4861</v>
+      </c>
+      <c r="G2184" s="5"/>
+      <c r="H2184" s="5">
+        <v>1095</v>
+      </c>
+      <c r="I2184" s="5" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="2185" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2185" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2185" s="5" t="s">
+        <v>4862</v>
+      </c>
+      <c r="E2185" s="5" t="s">
+        <v>4863</v>
+      </c>
+      <c r="F2185" s="5" t="s">
+        <v>4864</v>
+      </c>
+      <c r="G2185" s="5"/>
+      <c r="H2185" s="5">
+        <v>1022</v>
+      </c>
+      <c r="I2185" s="5" t="s">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="2186" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2186" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2186" s="5" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E2186" s="5" t="s">
+        <v>5141</v>
+      </c>
+      <c r="F2186" s="5" t="s">
+        <v>4866</v>
+      </c>
+      <c r="G2186" s="5"/>
+      <c r="H2186" s="5">
+        <v>1124</v>
+      </c>
+      <c r="I2186" s="5" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="2187" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2187" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2187" s="5" t="s">
+        <v>4867</v>
+      </c>
+      <c r="E2187" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2187" s="5" t="s">
+        <v>4868</v>
+      </c>
+      <c r="G2187" s="5"/>
+      <c r="H2187" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2187" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2188" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2188" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2188" s="5" t="s">
+        <v>4869</v>
+      </c>
+      <c r="E2188" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="F2188" s="5" t="s">
+        <v>4870</v>
+      </c>
+      <c r="G2188" s="5"/>
+      <c r="H2188" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2188" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2189" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2189" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2189" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E2189" s="5" t="s">
+        <v>4524</v>
+      </c>
+      <c r="F2189" s="5" t="s">
+        <v>4871</v>
+      </c>
+      <c r="G2189" s="5"/>
+      <c r="H2189" s="5">
+        <v>1034</v>
+      </c>
+      <c r="I2189" s="5" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="2190" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2190" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2190" s="5" t="s">
+        <v>4872</v>
+      </c>
+      <c r="E2190" s="5" t="s">
+        <v>4873</v>
+      </c>
+      <c r="F2190" s="5" t="s">
+        <v>4874</v>
+      </c>
+      <c r="G2190" s="5">
+        <v>33</v>
+      </c>
+      <c r="H2190" s="5">
+        <v>1029</v>
+      </c>
+      <c r="I2190" s="5" t="s">
+        <v>4875</v>
+      </c>
+    </row>
+    <row r="2191" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2191" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2191" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2191" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="F2191" s="5" t="s">
+        <v>4876</v>
+      </c>
+      <c r="G2191" s="5"/>
+      <c r="H2191" s="5">
+        <v>1188</v>
+      </c>
+      <c r="I2191" s="5" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="2192" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2192" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2192" s="5" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E2192" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2192" s="5" t="s">
+        <v>4878</v>
+      </c>
+      <c r="G2192" s="5">
+        <v>28</v>
+      </c>
+      <c r="H2192" s="5">
+        <v>1261</v>
+      </c>
+      <c r="I2192" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2193" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2193" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2193" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E2193" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="F2193" s="5" t="s">
+        <v>4879</v>
+      </c>
+      <c r="G2193" s="5"/>
+      <c r="H2193" s="5">
+        <v>1027</v>
+      </c>
+      <c r="I2193" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2194" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2194" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2194" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E2194" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F2194" s="5" t="s">
+        <v>4880</v>
+      </c>
+      <c r="G2194" s="5"/>
+      <c r="H2194" s="5">
+        <v>1185</v>
+      </c>
+      <c r="I2194" s="5" t="s">
+        <v>4881</v>
+      </c>
+    </row>
+    <row r="2195" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2195" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2195" s="5" t="s">
+        <v>4882</v>
+      </c>
+      <c r="E2195" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F2195" s="5" t="s">
+        <v>4883</v>
+      </c>
+      <c r="G2195" s="5"/>
+      <c r="H2195" s="5">
+        <v>1197</v>
+      </c>
+      <c r="I2195" s="5" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="2196" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2196" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2196" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="E2196" s="5" t="s">
+        <v>2525</v>
+      </c>
+      <c r="F2196" s="5" t="s">
+        <v>4884</v>
+      </c>
+      <c r="G2196" s="5"/>
+      <c r="H2196" s="5">
+        <v>1867</v>
+      </c>
+      <c r="I2196" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2197" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2197" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2197" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="E2197" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2197" s="5" t="s">
+        <v>4885</v>
+      </c>
+      <c r="G2197" s="5"/>
+      <c r="H2197" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2197" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2198" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2198" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2198" s="5" t="s">
+        <v>4886</v>
+      </c>
+      <c r="E2198" s="5" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F2198" s="5" t="s">
+        <v>4887</v>
+      </c>
+      <c r="G2198" s="5"/>
+      <c r="H2198" s="5">
+        <v>1882</v>
+      </c>
+      <c r="I2198" s="5" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2199" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2199" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2199" s="5" t="s">
+        <v>2542</v>
+      </c>
+      <c r="E2199" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2199" s="5" t="s">
+        <v>4888</v>
+      </c>
+      <c r="G2199" s="5"/>
+      <c r="H2199" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2199" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2200" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2200" s="5" t="s">
+        <v>4889</v>
+      </c>
+      <c r="E2200" s="5" t="s">
+        <v>4677</v>
+      </c>
+      <c r="F2200" s="5" t="s">
+        <v>5160</v>
+      </c>
+      <c r="G2200" s="5"/>
+      <c r="H2200" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2200" s="5" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="2201" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2201" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2201" s="5" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E2201" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2201" s="5" t="s">
+        <v>4890</v>
+      </c>
+      <c r="G2201" s="5"/>
+      <c r="H2201" s="5">
+        <v>1454</v>
+      </c>
+      <c r="I2201" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="2202" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2202" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2202" s="5" t="s">
+        <v>4261</v>
+      </c>
+      <c r="E2202" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F2202" s="5" t="s">
+        <v>4891</v>
+      </c>
+      <c r="G2202" s="5"/>
+      <c r="H2202" s="5">
+        <v>1523</v>
+      </c>
+      <c r="I2202" s="5" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="2203" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2203" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2203" s="5" t="s">
+        <v>4892</v>
+      </c>
+      <c r="E2203" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2203" s="5" t="s">
+        <v>5161</v>
+      </c>
+      <c r="G2203" s="5"/>
+      <c r="H2203" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2203" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2204" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2204" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2204" s="5" t="s">
+        <v>5162</v>
+      </c>
+      <c r="E2204" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2204" s="5" t="s">
+        <v>4893</v>
+      </c>
+      <c r="G2204" s="5"/>
+      <c r="H2204" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2204" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2205" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2205" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2205" s="5" t="s">
+        <v>4894</v>
+      </c>
+      <c r="E2205" s="5" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F2205" s="5" t="s">
+        <v>4895</v>
+      </c>
+      <c r="G2205" s="5"/>
+      <c r="H2205" s="5">
+        <v>1400</v>
+      </c>
+      <c r="I2205" s="5" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2206" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2206" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2206" s="5" t="s">
+        <v>2712</v>
+      </c>
+      <c r="E2206" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F2206" s="5" t="s">
+        <v>4896</v>
+      </c>
+      <c r="G2206" s="5"/>
+      <c r="H2206" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2206" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2207" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2207" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2207" s="5" t="s">
+        <v>4897</v>
+      </c>
+      <c r="E2207" s="5" t="s">
+        <v>4898</v>
+      </c>
+      <c r="F2207" s="5" t="s">
+        <v>4899</v>
+      </c>
+      <c r="G2207" s="5"/>
+      <c r="H2207" s="5">
+        <v>1260</v>
+      </c>
+      <c r="I2207" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2208" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2208" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2208" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E2208" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2208" s="5" t="s">
+        <v>4900</v>
+      </c>
+      <c r="G2208" s="5"/>
+      <c r="H2208" s="5">
+        <v>1095</v>
+      </c>
+      <c r="I2208" s="5" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="2209" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2209" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2209" s="5" t="s">
+        <v>4026</v>
+      </c>
+      <c r="E2209" s="5" t="s">
+        <v>4901</v>
+      </c>
+      <c r="F2209" s="5" t="s">
+        <v>4902</v>
+      </c>
+      <c r="G2209" s="5"/>
+      <c r="H2209" s="5">
+        <v>1422</v>
+      </c>
+      <c r="I2209" s="5" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="2210" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2210" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2210" s="5" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E2210" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2210" s="5" t="s">
+        <v>4903</v>
+      </c>
+      <c r="G2210" s="5"/>
+      <c r="H2210" s="5">
+        <v>1450</v>
+      </c>
+      <c r="I2210" s="5" t="s">
+        <v>4904</v>
+      </c>
+    </row>
+    <row r="2211" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2211" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2211" s="5" t="s">
+        <v>4905</v>
+      </c>
+      <c r="E2211" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F2211" s="5" t="s">
+        <v>4906</v>
+      </c>
+      <c r="G2211" s="5">
+        <v>68</v>
+      </c>
+      <c r="H2211" s="5">
+        <v>1844</v>
+      </c>
+      <c r="I2211" s="5" t="s">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="2212" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2212" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2212" s="5" t="s">
+        <v>4908</v>
+      </c>
+      <c r="E2212" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2212" s="5" t="s">
+        <v>4909</v>
+      </c>
+      <c r="G2212" s="5"/>
+      <c r="H2212" s="5">
+        <v>1400</v>
+      </c>
+      <c r="I2212" s="5" t="s">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="2213" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2213" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2213" s="5" t="s">
+        <v>4910</v>
+      </c>
+      <c r="E2213" s="5" t="s">
+        <v>4911</v>
+      </c>
+      <c r="F2213" s="5" t="s">
+        <v>4912</v>
+      </c>
+      <c r="G2213" s="5"/>
+      <c r="H2213" s="5">
+        <v>1025</v>
+      </c>
+      <c r="I2213" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2214" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2214" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2214" s="5" t="s">
+        <v>2703</v>
+      </c>
+      <c r="E2214" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2214" s="5" t="s">
+        <v>4913</v>
+      </c>
+      <c r="G2214" s="5"/>
+      <c r="H2214" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2214" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2215" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2215" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2215" s="5" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E2215" s="5" t="s">
+        <v>4915</v>
+      </c>
+      <c r="F2215" s="5" t="s">
+        <v>4916</v>
+      </c>
+      <c r="G2215" s="5"/>
+      <c r="H2215" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2215" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2216" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2216" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2216" s="5" t="s">
+        <v>4917</v>
+      </c>
+      <c r="E2216" s="5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="F2216" s="5" t="s">
+        <v>4918</v>
+      </c>
+      <c r="G2216" s="5"/>
+      <c r="H2216" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2216" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2217" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2217" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2217" s="5" t="s">
+        <v>5144</v>
+      </c>
+      <c r="E2217" s="5" t="s">
+        <v>5142</v>
+      </c>
+      <c r="F2217" s="5" t="s">
+        <v>4919</v>
+      </c>
+      <c r="G2217" s="5"/>
+      <c r="H2217" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2217" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2218" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2218" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2218" s="5" t="s">
+        <v>4920</v>
+      </c>
+      <c r="E2218" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2218" s="5" t="s">
+        <v>4921</v>
+      </c>
+      <c r="G2218" s="5"/>
+      <c r="H2218" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2218" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2219" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2219" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2219" s="5" t="s">
+        <v>4922</v>
+      </c>
+      <c r="E2219" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2219" s="5" t="s">
+        <v>4923</v>
+      </c>
+      <c r="G2219" s="5"/>
+      <c r="H2219" s="5">
+        <v>1070</v>
+      </c>
+      <c r="I2219" s="5" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="2220" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2220" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2220" s="5" t="s">
+        <v>4924</v>
+      </c>
+      <c r="E2220" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="F2220" s="5" t="s">
+        <v>2997</v>
+      </c>
+      <c r="G2220" s="5"/>
+      <c r="H2220" s="5">
+        <v>1097</v>
+      </c>
+      <c r="I2220" s="5" t="s">
+        <v>4925</v>
+      </c>
+    </row>
+    <row r="2221" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2221" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2221" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="E2221" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2221" s="5" t="s">
+        <v>4926</v>
+      </c>
+      <c r="G2221" s="5"/>
+      <c r="H2221" s="5">
+        <v>1304</v>
+      </c>
+      <c r="I2221" s="5" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2222" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2222" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2222" s="5" t="s">
+        <v>4927</v>
+      </c>
+      <c r="E2222" s="5" t="s">
+        <v>3523</v>
+      </c>
+      <c r="F2222" s="5" t="s">
+        <v>4928</v>
+      </c>
+      <c r="G2222" s="5"/>
+      <c r="H2222" s="5">
+        <v>1343</v>
+      </c>
+      <c r="I2222" s="5" t="s">
+        <v>4929</v>
+      </c>
+    </row>
+    <row r="2223" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2223" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2223" s="5" t="s">
+        <v>4930</v>
+      </c>
+      <c r="E2223" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2223" s="5" t="s">
+        <v>4931</v>
+      </c>
+      <c r="G2223" s="5"/>
+      <c r="H2223" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2223" s="5" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2224" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2224" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2224" s="5" t="s">
+        <v>2625</v>
+      </c>
+      <c r="E2224" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2224" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="G2224" s="5"/>
+      <c r="H2224" s="5">
+        <v>1034</v>
+      </c>
+      <c r="I2224" s="5" t="s">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="2225" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2225" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2225" s="5" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E2225" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2225" s="5" t="s">
+        <v>4932</v>
+      </c>
+      <c r="G2225" s="5"/>
+      <c r="H2225" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2225" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2226" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2226" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2226" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E2226" s="5" t="s">
+        <v>4933</v>
+      </c>
+      <c r="F2226" s="5" t="s">
+        <v>4934</v>
+      </c>
+      <c r="G2226" s="5"/>
+      <c r="H2226" s="5">
+        <v>1807</v>
+      </c>
+      <c r="I2226" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2227" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2227" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2227" s="5" t="s">
+        <v>4935</v>
+      </c>
+      <c r="E2227" s="5" t="s">
+        <v>4936</v>
+      </c>
+      <c r="F2227" s="5" t="s">
+        <v>4937</v>
+      </c>
+      <c r="G2227" s="5"/>
+      <c r="H2227" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2227" s="5" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2228" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2228" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2228" s="5" t="s">
+        <v>4938</v>
+      </c>
+      <c r="E2228" s="5" t="s">
+        <v>4939</v>
+      </c>
+      <c r="F2228" s="5" t="s">
+        <v>4940</v>
+      </c>
+      <c r="G2228" s="5"/>
+      <c r="H2228" s="5">
+        <v>1184</v>
+      </c>
+      <c r="I2228" s="5" t="s">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="2229" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2229" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2229" s="5" t="s">
+        <v>4938</v>
+      </c>
+      <c r="E2229" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2229" s="5" t="s">
+        <v>4942</v>
+      </c>
+      <c r="G2229" s="5"/>
+      <c r="H2229" s="5">
+        <v>1184</v>
+      </c>
+      <c r="I2229" s="5" t="s">
+        <v>4941</v>
+      </c>
+    </row>
+    <row r="2230" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2230" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2230" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="E2230" s="5" t="s">
+        <v>4943</v>
+      </c>
+      <c r="F2230" s="5" t="s">
+        <v>4944</v>
+      </c>
+      <c r="G2230" s="5"/>
+      <c r="H2230" s="5">
+        <v>1515</v>
+      </c>
+      <c r="I2230" s="5" t="s">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="2231" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2231" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2231" s="5" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E2231" s="5" t="s">
+        <v>4946</v>
+      </c>
+      <c r="F2231" s="5" t="s">
+        <v>4947</v>
+      </c>
+      <c r="G2231" s="5"/>
+      <c r="H2231" s="5">
+        <v>1853</v>
+      </c>
+      <c r="I2231" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="2232" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2232" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2232" s="5" t="s">
+        <v>5163</v>
+      </c>
+      <c r="E2232" s="5" t="s">
+        <v>4948</v>
+      </c>
+      <c r="F2232" s="5" t="s">
+        <v>4949</v>
+      </c>
+      <c r="G2232" s="5"/>
+      <c r="H2232" s="5">
+        <v>1085</v>
+      </c>
+      <c r="I2232" s="5" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="2233" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2233" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2233" s="5" t="s">
+        <v>4950</v>
+      </c>
+      <c r="E2233" s="5" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F2233" s="5" t="s">
+        <v>4951</v>
+      </c>
+      <c r="G2233" s="5"/>
+      <c r="H2233" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2233" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2234" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2234" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2234" s="5" t="s">
+        <v>4952</v>
+      </c>
+      <c r="E2234" s="5" t="s">
+        <v>4953</v>
+      </c>
+      <c r="F2234" s="5" t="s">
+        <v>4954</v>
+      </c>
+      <c r="G2234" s="5"/>
+      <c r="H2234" s="5">
+        <v>1180</v>
+      </c>
+      <c r="I2234" s="5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2235" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2235" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2235" s="5" t="s">
+        <v>4810</v>
+      </c>
+      <c r="E2235" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="F2235" s="5" t="s">
+        <v>4811</v>
+      </c>
+      <c r="G2235" s="5"/>
+      <c r="H2235" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2235" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2236" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2236" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2236" s="5" t="s">
+        <v>2994</v>
+      </c>
+      <c r="E2236" s="5" t="s">
+        <v>3455</v>
+      </c>
+      <c r="F2236" s="5" t="s">
+        <v>4955</v>
+      </c>
+      <c r="G2236" s="5"/>
+      <c r="H2236" s="5">
+        <v>1805</v>
+      </c>
+      <c r="I2236" s="5" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="2237" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2237" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2237" s="5" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E2237" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2237" s="5" t="s">
+        <v>4956</v>
+      </c>
+      <c r="G2237" s="5"/>
+      <c r="H2237" s="5">
+        <v>1115</v>
+      </c>
+      <c r="I2237" s="5" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="2238" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2238" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2238" s="5" t="s">
+        <v>5164</v>
+      </c>
+      <c r="E2238" s="5" t="s">
+        <v>5142</v>
+      </c>
+      <c r="F2238" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2238" s="5"/>
+      <c r="H2238" s="5">
+        <v>1820</v>
+      </c>
+      <c r="I2238" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2239" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2239" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2239" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2239" s="5" t="s">
+        <v>3737</v>
+      </c>
+      <c r="F2239" s="5" t="s">
+        <v>4957</v>
+      </c>
+      <c r="G2239" s="5"/>
+      <c r="H2239" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2239" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2240" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2240" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2240" s="5" t="s">
+        <v>4958</v>
+      </c>
+      <c r="E2240" s="5" t="s">
+        <v>4959</v>
+      </c>
+      <c r="F2240" s="5" t="s">
+        <v>4960</v>
+      </c>
+      <c r="G2240" s="5"/>
+      <c r="H2240" s="5">
+        <v>1844</v>
+      </c>
+      <c r="I2240" s="5" t="s">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="2241" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2241" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2241" s="5" t="s">
+        <v>4961</v>
+      </c>
+      <c r="E2241" s="5" t="s">
+        <v>4962</v>
+      </c>
+      <c r="F2241" s="5" t="s">
+        <v>4963</v>
+      </c>
+      <c r="G2241" s="5"/>
+      <c r="H2241" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2241" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2242" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2242" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2242" s="5" t="s">
+        <v>4223</v>
+      </c>
+      <c r="E2242" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="F2242" s="5" t="s">
+        <v>4964</v>
+      </c>
+      <c r="G2242" s="5"/>
+      <c r="H2242" s="5">
+        <v>1040</v>
+      </c>
+      <c r="I2242" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2243" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2243" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2243" s="5" t="s">
+        <v>3827</v>
+      </c>
+      <c r="E2243" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2243" s="5" t="s">
+        <v>4965</v>
+      </c>
+      <c r="G2243" s="5"/>
+      <c r="H2243" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2243" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2244" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2244" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2244" s="5" t="s">
+        <v>4966</v>
+      </c>
+      <c r="E2244" s="5" t="s">
+        <v>4967</v>
+      </c>
+      <c r="F2244" s="5" t="s">
+        <v>4968</v>
+      </c>
+      <c r="G2244" s="5"/>
+      <c r="H2244" s="5">
+        <v>1815</v>
+      </c>
+      <c r="I2244" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2245" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2245" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2245" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="E2245" s="5" t="s">
+        <v>4969</v>
+      </c>
+      <c r="F2245" s="5" t="s">
+        <v>4970</v>
+      </c>
+      <c r="G2245" s="5"/>
+      <c r="H2245" s="5">
+        <v>1070</v>
+      </c>
+      <c r="I2245" s="5" t="s">
+        <v>3389</v>
+      </c>
+    </row>
+    <row r="2246" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2246" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2246" s="5" t="s">
+        <v>4971</v>
+      </c>
+      <c r="E2246" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F2246" s="5" t="s">
+        <v>4972</v>
+      </c>
+      <c r="G2246" s="5"/>
+      <c r="H2246" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2246" s="5" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2247" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2247" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2247" s="5" t="s">
+        <v>4973</v>
+      </c>
+      <c r="E2247" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2247" s="5" t="s">
+        <v>4974</v>
+      </c>
+      <c r="G2247" s="5"/>
+      <c r="H2247" s="5">
+        <v>1162</v>
+      </c>
+      <c r="I2247" s="5" t="s">
+        <v>4529</v>
+      </c>
+    </row>
+    <row r="2248" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2248" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2248" s="5" t="s">
+        <v>5165</v>
+      </c>
+      <c r="E2248" s="5" t="s">
+        <v>5143</v>
+      </c>
+      <c r="F2248" s="5" t="s">
+        <v>4975</v>
+      </c>
+      <c r="G2248" s="5"/>
+      <c r="H2248" s="5">
+        <v>1854</v>
+      </c>
+      <c r="I2248" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="2249" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2249" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2249" s="5" t="s">
+        <v>4976</v>
+      </c>
+      <c r="E2249" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F2249" s="5" t="s">
+        <v>4977</v>
+      </c>
+      <c r="G2249" s="5"/>
+      <c r="H2249" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2249" s="5" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2250" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2250" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2250" s="5" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E2250" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2250" s="5" t="s">
+        <v>4978</v>
+      </c>
+      <c r="G2250" s="5"/>
+      <c r="H2250" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2250" s="5" t="s">
+        <v>4979</v>
+      </c>
+    </row>
+    <row r="2251" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2251" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2251" s="5" t="s">
+        <v>4980</v>
+      </c>
+      <c r="E2251" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2251" s="5" t="s">
+        <v>4981</v>
+      </c>
+      <c r="G2251" s="5"/>
+      <c r="H2251" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2251" s="5" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="2252" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2252" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2252" s="5" t="s">
+        <v>5166</v>
+      </c>
+      <c r="E2252" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F2252" s="5" t="s">
+        <v>4982</v>
+      </c>
+      <c r="G2252" s="5"/>
+      <c r="H2252" s="5">
+        <v>1020</v>
+      </c>
+      <c r="I2252" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2253" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2253" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2253" s="5" t="s">
+        <v>5167</v>
+      </c>
+      <c r="E2253" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2253" s="5" t="s">
+        <v>4983</v>
+      </c>
+      <c r="G2253" s="5"/>
+      <c r="H2253" s="5">
+        <v>1141</v>
+      </c>
+      <c r="I2253" s="5" t="s">
+        <v>4984</v>
+      </c>
+    </row>
+    <row r="2254" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2254" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2254" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2254" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2254" s="5" t="s">
+        <v>4985</v>
+      </c>
+      <c r="G2254" s="5"/>
+      <c r="H2254" s="5">
+        <v>1820</v>
+      </c>
+      <c r="I2254" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2255" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2255" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2255" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2255" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2255" s="5" t="s">
+        <v>4986</v>
+      </c>
+      <c r="G2255" s="5"/>
+      <c r="H2255" s="5">
+        <v>1565</v>
+      </c>
+      <c r="I2255" s="5" t="s">
+        <v>4987</v>
+      </c>
+    </row>
+    <row r="2256" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2256" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2256" s="5" t="s">
+        <v>4988</v>
+      </c>
+      <c r="E2256" s="5" t="s">
+        <v>4989</v>
+      </c>
+      <c r="F2256" s="5" t="s">
+        <v>4990</v>
+      </c>
+      <c r="G2256" s="5">
+        <v>207</v>
+      </c>
+      <c r="H2256" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2256" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2257" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2257" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2257" s="5" t="s">
+        <v>4908</v>
+      </c>
+      <c r="E2257" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2257" s="5" t="s">
+        <v>4991</v>
+      </c>
+      <c r="G2257" s="5"/>
+      <c r="H2257" s="5">
+        <v>1227</v>
+      </c>
+      <c r="I2257" s="5" t="s">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="2258" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2258" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2258" s="5" t="s">
+        <v>5168</v>
+      </c>
+      <c r="E2258" s="5" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F2258" s="5" t="s">
+        <v>4993</v>
+      </c>
+      <c r="G2258" s="5"/>
+      <c r="H2258" s="5">
+        <v>1260</v>
+      </c>
+      <c r="I2258" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2259" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2259" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2259" s="5" t="s">
+        <v>4994</v>
+      </c>
+      <c r="E2259" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2259" s="5" t="s">
+        <v>4995</v>
+      </c>
+      <c r="G2259" s="5"/>
+      <c r="H2259" s="5">
+        <v>1094</v>
+      </c>
+      <c r="I2259" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2260" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2260" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2260" s="5" t="s">
+        <v>5169</v>
+      </c>
+      <c r="E2260" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2260" s="5" t="s">
+        <v>4996</v>
+      </c>
+      <c r="G2260" s="5"/>
+      <c r="H2260" s="5">
+        <v>1329</v>
+      </c>
+      <c r="I2260" s="5" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="2261" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2261" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2261" s="5" t="s">
+        <v>4997</v>
+      </c>
+      <c r="E2261" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F2261" s="5" t="s">
+        <v>4998</v>
+      </c>
+      <c r="G2261" s="5"/>
+      <c r="H2261" s="5">
+        <v>1093</v>
+      </c>
+      <c r="I2261" s="5" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="2262" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2262" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2262" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="E2262" s="5" t="s">
+        <v>4999</v>
+      </c>
+      <c r="F2262" s="5" t="s">
+        <v>5000</v>
+      </c>
+      <c r="G2262" s="5"/>
+      <c r="H2262" s="5">
+        <v>1170</v>
+      </c>
+      <c r="I2262" s="5" t="s">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="2263" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2263" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2263" s="5" t="s">
+        <v>5002</v>
+      </c>
+      <c r="E2263" s="5" t="s">
+        <v>5003</v>
+      </c>
+      <c r="F2263" s="5" t="s">
+        <v>2626</v>
+      </c>
+      <c r="G2263" s="5"/>
+      <c r="H2263" s="5">
+        <v>1166</v>
+      </c>
+      <c r="I2263" s="5" t="s">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="2264" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2264" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2264" s="5" t="s">
+        <v>5005</v>
+      </c>
+      <c r="E2264" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F2264" s="5" t="s">
+        <v>5006</v>
+      </c>
+      <c r="G2264" s="5"/>
+      <c r="H2264" s="5">
+        <v>1020</v>
+      </c>
+      <c r="I2264" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2265" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2265" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2265" s="5" t="s">
+        <v>5170</v>
+      </c>
+      <c r="E2265" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2265" s="5" t="s">
+        <v>5007</v>
+      </c>
+      <c r="G2265" s="5"/>
+      <c r="H2265" s="5">
+        <v>1807</v>
+      </c>
+      <c r="I2265" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2266" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2266" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2266" s="5" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E2266" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F2266" s="5" t="s">
+        <v>5008</v>
+      </c>
+      <c r="G2266" s="5"/>
+      <c r="H2266" s="5">
+        <v>1880</v>
+      </c>
+      <c r="I2266" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2267" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2267" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2267" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E2267" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2267" s="5" t="s">
+        <v>5009</v>
+      </c>
+      <c r="G2267" s="5"/>
+      <c r="H2267" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2267" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2268" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2268" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2268" s="5" t="s">
+        <v>5171</v>
+      </c>
+      <c r="E2268" s="5" t="s">
+        <v>5010</v>
+      </c>
+      <c r="F2268" s="5" t="s">
+        <v>5197</v>
+      </c>
+      <c r="G2268" s="5"/>
+      <c r="H2268" s="5">
+        <v>1807</v>
+      </c>
+      <c r="I2268" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2269" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2269" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2269" s="5" t="s">
+        <v>5172</v>
+      </c>
+      <c r="E2269" s="5" t="s">
+        <v>5011</v>
+      </c>
+      <c r="F2269" s="5" t="s">
+        <v>5012</v>
+      </c>
+      <c r="G2269" s="5"/>
+      <c r="H2269" s="5">
+        <v>1618</v>
+      </c>
+      <c r="I2269" s="5" t="s">
+        <v>5013</v>
+      </c>
+    </row>
+    <row r="2270" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2270" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2270" s="5" t="s">
+        <v>5173</v>
+      </c>
+      <c r="E2270" s="5" t="s">
+        <v>5174</v>
+      </c>
+      <c r="F2270" s="5" t="s">
+        <v>5014</v>
+      </c>
+      <c r="G2270" s="5"/>
+      <c r="H2270" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2270" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2271" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2271" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2271" s="5" t="s">
+        <v>5015</v>
+      </c>
+      <c r="E2271" s="5" t="s">
+        <v>5016</v>
+      </c>
+      <c r="F2271" s="5" t="s">
+        <v>5017</v>
+      </c>
+      <c r="G2271" s="5"/>
+      <c r="H2271" s="5">
+        <v>1537</v>
+      </c>
+      <c r="I2271" s="5" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="2272" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2272" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2272" s="5" t="s">
+        <v>5018</v>
+      </c>
+      <c r="E2272" s="5" t="s">
+        <v>2503</v>
+      </c>
+      <c r="F2272" s="5" t="s">
+        <v>5196</v>
+      </c>
+      <c r="G2272" s="5"/>
+      <c r="H2272" s="5">
+        <v>1844</v>
+      </c>
+      <c r="I2272" s="5" t="s">
+        <v>4907</v>
+      </c>
+    </row>
+    <row r="2273" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2273" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2273" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E2273" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2273" s="5" t="s">
+        <v>5019</v>
+      </c>
+      <c r="G2273" s="5"/>
+      <c r="H2273" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2273" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2274" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2274" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2274" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="E2274" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2274" s="5" t="s">
+        <v>5019</v>
+      </c>
+      <c r="G2274" s="5"/>
+      <c r="H2274" s="5">
+        <v>1004</v>
+      </c>
+      <c r="I2274" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2275" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2275" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2275" s="5" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E2275" s="5" t="s">
+        <v>5020</v>
+      </c>
+      <c r="F2275" s="5" t="s">
+        <v>5021</v>
+      </c>
+      <c r="G2275" s="5"/>
+      <c r="H2275" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2275" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2276" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2276" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2276" s="5" t="s">
+        <v>4914</v>
+      </c>
+      <c r="E2276" s="5" t="s">
+        <v>5020</v>
+      </c>
+      <c r="F2276" s="5" t="s">
+        <v>5021</v>
+      </c>
+      <c r="G2276" s="5"/>
+      <c r="H2276" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2276" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2277" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2277" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2277" s="5" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E2277" s="5" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F2277" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="G2277" s="5"/>
+      <c r="H2277" s="5">
+        <v>1815</v>
+      </c>
+      <c r="I2277" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2278" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2278" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2278" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E2278" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="F2278" s="5" t="s">
+        <v>5022</v>
+      </c>
+      <c r="G2278" s="5">
+        <v>22</v>
+      </c>
+      <c r="H2278" s="5">
+        <v>1270</v>
+      </c>
+      <c r="I2278" s="5" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="2279" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2279" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2279" s="5" t="s">
+        <v>5024</v>
+      </c>
+      <c r="E2279" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2279" s="5" t="s">
+        <v>5195</v>
+      </c>
+      <c r="G2279" s="5"/>
+      <c r="H2279" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2279" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2280" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2280" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2280" s="5" t="s">
+        <v>5025</v>
+      </c>
+      <c r="E2280" s="5" t="s">
+        <v>2877</v>
+      </c>
+      <c r="F2280" s="5" t="s">
+        <v>5026</v>
+      </c>
+      <c r="G2280" s="5"/>
+      <c r="H2280" s="5">
+        <v>1025</v>
+      </c>
+      <c r="I2280" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2281" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2281" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2281" s="5" t="s">
+        <v>5027</v>
+      </c>
+      <c r="E2281" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F2281" s="5" t="s">
+        <v>5028</v>
+      </c>
+      <c r="G2281" s="5"/>
+      <c r="H2281" s="5">
+        <v>1098</v>
+      </c>
+      <c r="I2281" s="5" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="2282" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2282" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2282" s="5" t="s">
+        <v>3797</v>
+      </c>
+      <c r="E2282" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2282" s="5" t="s">
+        <v>5030</v>
+      </c>
+      <c r="G2282" s="5"/>
+      <c r="H2282" s="5">
+        <v>1025</v>
+      </c>
+      <c r="I2282" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2283" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2283" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2283" s="5" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E2283" s="5" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F2283" s="5" t="s">
+        <v>5031</v>
+      </c>
+      <c r="G2283" s="5"/>
+      <c r="H2283" s="5">
+        <v>1920</v>
+      </c>
+      <c r="I2283" s="5" t="s">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="2284" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2284" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2284" s="5" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E2284" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2284" s="5" t="s">
+        <v>5175</v>
+      </c>
+      <c r="G2284" s="5"/>
+      <c r="H2284" s="5">
+        <v>1052</v>
+      </c>
+      <c r="I2284" s="5" t="s">
+        <v>5033</v>
+      </c>
+    </row>
+    <row r="2285" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2285" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2285" s="5" t="s">
+        <v>5034</v>
+      </c>
+      <c r="E2285" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2285" s="5" t="s">
+        <v>5035</v>
+      </c>
+      <c r="G2285" s="5"/>
+      <c r="H2285" s="5">
+        <v>1450</v>
+      </c>
+      <c r="I2285" s="5" t="s">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="2286" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2286" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2286" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="E2286" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="F2286" s="5" t="s">
+        <v>5037</v>
+      </c>
+      <c r="G2286" s="5"/>
+      <c r="H2286" s="5">
+        <v>1006</v>
+      </c>
+      <c r="I2286" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2287" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2287" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2287" s="5" t="s">
+        <v>5038</v>
+      </c>
+      <c r="E2287" s="5" t="s">
+        <v>1620</v>
+      </c>
+      <c r="F2287" s="5" t="s">
+        <v>5039</v>
+      </c>
+      <c r="G2287" s="5"/>
+      <c r="H2287" s="5">
+        <v>1862</v>
+      </c>
+      <c r="I2287" s="5" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="2288" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2288" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2288" s="5" t="s">
+        <v>5040</v>
+      </c>
+      <c r="E2288" s="5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F2288" s="5" t="s">
+        <v>5041</v>
+      </c>
+      <c r="G2288" s="5"/>
+      <c r="H2288" s="5">
+        <v>1852</v>
+      </c>
+      <c r="I2288" s="5" t="s">
+        <v>5042</v>
+      </c>
+    </row>
+    <row r="2289" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2289" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2289" s="5" t="s">
+        <v>2491</v>
+      </c>
+      <c r="E2289" s="5" t="s">
+        <v>5176</v>
+      </c>
+      <c r="F2289" s="5" t="s">
+        <v>5043</v>
+      </c>
+      <c r="G2289" s="5"/>
+      <c r="H2289" s="5">
+        <v>1346</v>
+      </c>
+      <c r="I2289" s="5" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="2290" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2290" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2290" s="5" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E2290" s="5" t="s">
+        <v>3230</v>
+      </c>
+      <c r="F2290" s="5" t="s">
+        <v>5044</v>
+      </c>
+      <c r="G2290" s="5"/>
+      <c r="H2290" s="5">
+        <v>1180</v>
+      </c>
+      <c r="I2290" s="5" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="2291" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2291" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2291" s="5" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E2291" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2291" s="5" t="s">
+        <v>3496</v>
+      </c>
+      <c r="G2291" s="5"/>
+      <c r="H2291" s="5">
+        <v>1083</v>
+      </c>
+      <c r="I2291" s="5" t="s">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="2292" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2292" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2292" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2292" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2292" s="5" t="s">
+        <v>5046</v>
+      </c>
+      <c r="G2292" s="5"/>
+      <c r="H2292" s="5">
+        <v>1530</v>
+      </c>
+      <c r="I2292" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2293" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2293" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2293" s="5" t="s">
+        <v>5047</v>
+      </c>
+      <c r="E2293" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2293" s="5" t="s">
+        <v>5048</v>
+      </c>
+      <c r="G2293" s="5"/>
+      <c r="H2293" s="5">
+        <v>1003</v>
+      </c>
+      <c r="I2293" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2294" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2294" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2294" s="5" t="s">
+        <v>5049</v>
+      </c>
+      <c r="E2294" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2294" s="5" t="s">
+        <v>5050</v>
+      </c>
+      <c r="G2294" s="5"/>
+      <c r="H2294" s="5">
+        <v>1091</v>
+      </c>
+      <c r="I2294" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2295" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2295" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2295" s="5" t="s">
+        <v>5051</v>
+      </c>
+      <c r="E2295" s="5" t="s">
+        <v>5052</v>
+      </c>
+      <c r="F2295" s="5" t="s">
+        <v>5053</v>
+      </c>
+      <c r="G2295" s="5"/>
+      <c r="H2295" s="5">
+        <v>1295</v>
+      </c>
+      <c r="I2295" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2296" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2296" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2296" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2296" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2296" s="5" t="s">
+        <v>5054</v>
+      </c>
+      <c r="G2296" s="5"/>
+      <c r="H2296" s="5">
+        <v>1005</v>
+      </c>
+      <c r="I2296" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2297" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2297" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2297" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2297" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2297" s="5" t="s">
+        <v>5054</v>
+      </c>
+      <c r="G2297" s="5"/>
+      <c r="H2297" s="5">
+        <v>1005</v>
+      </c>
+      <c r="I2297" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2298" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2298" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2298" s="5" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E2298" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F2298" s="5" t="s">
+        <v>5055</v>
+      </c>
+      <c r="G2298" s="5"/>
+      <c r="H2298" s="5">
+        <v>1820</v>
+      </c>
+      <c r="I2298" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2299" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2299" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2299" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2299" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F2299" s="5" t="s">
+        <v>5056</v>
+      </c>
+      <c r="G2299" s="5"/>
+      <c r="H2299" s="5">
+        <v>1012</v>
+      </c>
+      <c r="I2299" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2300" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2300" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2300" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E2300" s="5" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F2300" s="5" t="s">
+        <v>5057</v>
+      </c>
+      <c r="G2300" s="5"/>
+      <c r="H2300" s="5">
+        <v>1410</v>
+      </c>
+      <c r="I2300" s="5" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="2301" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2301" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2301" s="5" t="s">
+        <v>1797</v>
+      </c>
+      <c r="E2301" s="5" t="s">
+        <v>1798</v>
+      </c>
+      <c r="F2301" s="5" t="s">
+        <v>5058</v>
+      </c>
+      <c r="G2301" s="5"/>
+      <c r="H2301" s="5">
+        <v>1410</v>
+      </c>
+      <c r="I2301" s="5" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="2302" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2302" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2302" s="5" t="s">
+        <v>4799</v>
+      </c>
+      <c r="E2302" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2302" s="5" t="s">
+        <v>5059</v>
+      </c>
+      <c r="G2302" s="5"/>
+      <c r="H2302" s="5">
+        <v>1008</v>
+      </c>
+      <c r="I2302" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2303" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2303" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2303" s="5" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E2303" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2303" s="5" t="s">
+        <v>5060</v>
+      </c>
+      <c r="G2303" s="5"/>
+      <c r="H2303" s="5">
+        <v>1022</v>
+      </c>
+      <c r="I2303" s="5" t="s">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="2304" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2304" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2304" s="5" t="s">
+        <v>5061</v>
+      </c>
+      <c r="E2304" s="5" t="s">
+        <v>5062</v>
+      </c>
+      <c r="F2304" s="5" t="s">
+        <v>5063</v>
+      </c>
+      <c r="G2304" s="5"/>
+      <c r="H2304" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2304" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2305" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2305" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2305" s="5" t="s">
+        <v>4459</v>
+      </c>
+      <c r="E2305" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2305" s="5" t="s">
+        <v>5178</v>
+      </c>
+      <c r="G2305" s="5"/>
+      <c r="H2305" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2305" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2306" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2306" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2306" s="5" t="s">
+        <v>5064</v>
+      </c>
+      <c r="E2306" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="F2306" s="5" t="s">
+        <v>5065</v>
+      </c>
+      <c r="G2306" s="5"/>
+      <c r="H2306" s="5">
+        <v>1023</v>
+      </c>
+      <c r="I2306" s="5" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="2307" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2307" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2307" s="5" t="s">
+        <v>5066</v>
+      </c>
+      <c r="E2307" s="5" t="s">
+        <v>5067</v>
+      </c>
+      <c r="F2307" s="5" t="s">
+        <v>5179</v>
+      </c>
+      <c r="G2307" s="5"/>
+      <c r="H2307" s="5">
+        <v>1815</v>
+      </c>
+      <c r="I2307" s="5" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="2308" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2308" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2308" s="5" t="s">
+        <v>4382</v>
+      </c>
+      <c r="E2308" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2308" s="5" t="s">
+        <v>5068</v>
+      </c>
+      <c r="G2308" s="5"/>
+      <c r="H2308" s="5">
+        <v>1410</v>
+      </c>
+      <c r="I2308" s="5" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="2309" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2309" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2309" s="5" t="s">
+        <v>3359</v>
+      </c>
+      <c r="E2309" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2309" s="5" t="s">
+        <v>5069</v>
+      </c>
+      <c r="G2309" s="5"/>
+      <c r="H2309" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I2309" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2310" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2310" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2310" s="5" t="s">
+        <v>5070</v>
+      </c>
+      <c r="E2310" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="F2310" s="5" t="s">
+        <v>5071</v>
+      </c>
+      <c r="G2310" s="5"/>
+      <c r="H2310" s="5">
+        <v>1867</v>
+      </c>
+      <c r="I2310" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2311" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2311" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2311" s="5" t="s">
+        <v>5180</v>
+      </c>
+      <c r="E2311" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F2311" s="5" t="s">
+        <v>5072</v>
+      </c>
+      <c r="G2311" s="5"/>
+      <c r="H2311" s="5">
+        <v>1807</v>
+      </c>
+      <c r="I2311" s="5" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2312" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2312" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2312" s="5" t="s">
+        <v>5073</v>
+      </c>
+      <c r="E2312" s="5" t="s">
+        <v>5074</v>
+      </c>
+      <c r="F2312" s="5" t="s">
+        <v>5075</v>
+      </c>
+      <c r="G2312" s="5"/>
+      <c r="H2312" s="5">
+        <v>1315</v>
+      </c>
+      <c r="I2312" s="5" t="s">
+        <v>5076</v>
+      </c>
+    </row>
+    <row r="2313" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2313" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2313" s="5" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E2313" s="5" t="s">
+        <v>3633</v>
+      </c>
+      <c r="F2313" s="5" t="s">
+        <v>5077</v>
+      </c>
+      <c r="G2313" s="5"/>
+      <c r="H2313" s="5">
+        <v>1820</v>
+      </c>
+      <c r="I2313" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2314" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2314" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2314" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E2314" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="F2314" s="5" t="s">
+        <v>5078</v>
+      </c>
+      <c r="G2314" s="5"/>
+      <c r="H2314" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2314" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2315" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2315" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2315" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2315" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2315" s="5" t="s">
+        <v>5193</v>
+      </c>
+      <c r="G2315" s="5"/>
+      <c r="H2315" s="5">
+        <v>1110</v>
+      </c>
+      <c r="I2315" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2316" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2316" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2316" s="5" t="s">
+        <v>5079</v>
+      </c>
+      <c r="E2316" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2316" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2316" s="5"/>
+      <c r="H2316" s="5">
+        <v>1350</v>
+      </c>
+      <c r="I2316" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="2317" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2317" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2317" s="5" t="s">
+        <v>5080</v>
+      </c>
+      <c r="E2317" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2317" s="5" t="s">
+        <v>5081</v>
+      </c>
+      <c r="G2317" s="5"/>
+      <c r="H2317" s="5">
+        <v>1027</v>
+      </c>
+      <c r="I2317" s="5" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="2318" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2318" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2318" s="5" t="s">
+        <v>4591</v>
+      </c>
+      <c r="E2318" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2318" s="5" t="s">
+        <v>5082</v>
+      </c>
+      <c r="G2318" s="5"/>
+      <c r="H2318" s="5">
+        <v>1010</v>
+      </c>
+      <c r="I2318" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2319" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2319" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2319" s="5" t="s">
+        <v>5083</v>
+      </c>
+      <c r="E2319" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2319" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G2319" s="5"/>
+      <c r="H2319" s="5">
+        <v>1814</v>
+      </c>
+      <c r="I2319" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2320" spans="3:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2320" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2320" s="5" t="s">
+        <v>3664</v>
+      </c>
+      <c r="E2320" s="5" t="s">
+        <v>1804</v>
+      </c>
+      <c r="F2320" s="5" t="s">
+        <v>5084</v>
+      </c>
+      <c r="G2320" s="5"/>
+      <c r="H2320" s="5">
+        <v>1000</v>
+      </c>
+      <c r="I2320" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2321" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2321" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2321" s="5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="E2321" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F2321" s="5" t="s">
+        <v>5085</v>
+      </c>
+      <c r="G2321" s="5"/>
+      <c r="H2321" s="5">
+        <v>1093</v>
+      </c>
+      <c r="I2321" s="5" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="2322" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2322" s="5"/>
+      <c r="C2322" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2322" s="5" t="s">
+        <v>5086</v>
+      </c>
+      <c r="E2322" s="5" t="s">
+        <v>5087</v>
+      </c>
+      <c r="F2322" s="5" t="s">
+        <v>5088</v>
+      </c>
+      <c r="G2322" s="5"/>
+      <c r="H2322" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2322" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2323" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2323" s="5"/>
+      <c r="C2323" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2323" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="E2323" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F2323" s="5" t="s">
+        <v>5089</v>
+      </c>
+      <c r="G2323" s="5"/>
+      <c r="H2323" s="5">
+        <v>1012</v>
+      </c>
+      <c r="I2323" s="5" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="2324" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2324" s="5"/>
+      <c r="C2324" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2324" s="5" t="s">
+        <v>5090</v>
+      </c>
+      <c r="E2324" s="5" t="s">
+        <v>5091</v>
+      </c>
+      <c r="F2324" s="5" t="s">
+        <v>5092</v>
+      </c>
+      <c r="G2324" s="5"/>
+      <c r="H2324" s="5">
+        <v>1268</v>
+      </c>
+      <c r="I2324" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2325" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2325" s="5"/>
+      <c r="C2325" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2325" s="5" t="s">
+        <v>5093</v>
+      </c>
+      <c r="E2325" s="5" t="s">
+        <v>3487</v>
+      </c>
+      <c r="F2325" s="5" t="s">
+        <v>5094</v>
+      </c>
+      <c r="G2325" s="5"/>
+      <c r="H2325" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I2325" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2326" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2326" s="5"/>
+      <c r="C2326" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2326" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="E2326" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2326" s="5" t="s">
+        <v>5095</v>
+      </c>
+      <c r="G2326" s="5"/>
+      <c r="H2326" s="5">
+        <v>1413</v>
+      </c>
+      <c r="I2326" s="5" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="2327" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2327" s="5"/>
+      <c r="C2327" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2327" s="5" t="s">
+        <v>5096</v>
+      </c>
+      <c r="E2327" s="5" t="s">
+        <v>3633</v>
+      </c>
+      <c r="F2327" s="5" t="s">
+        <v>5097</v>
+      </c>
+      <c r="G2327" s="5"/>
+      <c r="H2327" s="5">
+        <v>2000</v>
+      </c>
+      <c r="I2327" s="5" t="s">
+        <v>5098</v>
+      </c>
+    </row>
+    <row r="2328" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2328" s="5"/>
+      <c r="C2328" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2328" s="5" t="s">
+        <v>5099</v>
+      </c>
+      <c r="E2328" s="5" t="s">
+        <v>2780</v>
+      </c>
+      <c r="F2328" s="5" t="s">
+        <v>5100</v>
+      </c>
+      <c r="G2328" s="5"/>
+      <c r="H2328" s="5">
+        <v>1853</v>
+      </c>
+      <c r="I2328" s="5" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="2329" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2329" s="5"/>
+      <c r="C2329" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2329" s="5" t="s">
+        <v>5101</v>
+      </c>
+      <c r="E2329" s="5" t="s">
+        <v>5102</v>
+      </c>
+      <c r="F2329" s="5" t="s">
+        <v>5103</v>
+      </c>
+      <c r="G2329" s="5"/>
+      <c r="H2329" s="5">
+        <v>1260</v>
+      </c>
+      <c r="I2329" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2330" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2330" s="5"/>
+      <c r="C2330" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2330" s="5" t="s">
+        <v>5104</v>
+      </c>
+      <c r="E2330" s="5" t="s">
+        <v>5105</v>
+      </c>
+      <c r="F2330" s="5" t="s">
+        <v>5106</v>
+      </c>
+      <c r="G2330" s="5"/>
+      <c r="H2330" s="5">
+        <v>1134</v>
+      </c>
+      <c r="I2330" s="5" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="2331" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2331" s="5"/>
+      <c r="C2331" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2331" s="5" t="s">
+        <v>5108</v>
+      </c>
+      <c r="E2331" s="5" t="s">
+        <v>2722</v>
+      </c>
+      <c r="F2331" s="5" t="s">
+        <v>5109</v>
+      </c>
+      <c r="G2331" s="5"/>
+      <c r="H2331" s="5">
+        <v>1260</v>
+      </c>
+      <c r="I2331" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2332" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2332" s="5"/>
+      <c r="C2332" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2332" s="5" t="s">
+        <v>4807</v>
+      </c>
+      <c r="E2332" s="5" t="s">
+        <v>4808</v>
+      </c>
+      <c r="F2332" s="5" t="s">
+        <v>4809</v>
+      </c>
+      <c r="G2332" s="5"/>
+      <c r="H2332" s="5">
+        <v>1005</v>
+      </c>
+      <c r="I2332" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2333" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2333" s="5" t="s">
+        <v>5110</v>
+      </c>
+      <c r="C2333" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2333" s="5" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E2333" s="5" t="s">
+        <v>5111</v>
+      </c>
+      <c r="F2333" s="5" t="s">
+        <v>5112</v>
+      </c>
+      <c r="G2333" s="5"/>
+      <c r="H2333" s="5">
+        <v>1400</v>
+      </c>
+      <c r="I2333" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2334" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2334" s="5"/>
+      <c r="C2334" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2334" s="5" t="s">
+        <v>5113</v>
+      </c>
+      <c r="E2334" s="5" t="s">
+        <v>5114</v>
+      </c>
+      <c r="F2334" s="5" t="s">
+        <v>5115</v>
+      </c>
+      <c r="G2334" s="5"/>
+      <c r="H2334" s="5">
+        <v>1580</v>
+      </c>
+      <c r="I2334" s="5" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="2335" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2335" s="5"/>
+      <c r="C2335" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2335" s="5" t="s">
+        <v>2529</v>
+      </c>
+      <c r="E2335" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="F2335" s="5" t="s">
+        <v>5117</v>
+      </c>
+      <c r="G2335" s="5"/>
+      <c r="H2335" s="5">
+        <v>1580</v>
+      </c>
+      <c r="I2335" s="5" t="s">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="2336" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2336" s="5"/>
+      <c r="C2336" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2336" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E2336" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F2336" s="5" t="s">
+        <v>5118</v>
+      </c>
+      <c r="G2336" s="5"/>
+      <c r="H2336" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2336" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2337" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2337" s="5"/>
+      <c r="C2337" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2337" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="E2337" s="5" t="s">
+        <v>1476</v>
+      </c>
+      <c r="F2337" s="5" t="s">
+        <v>5118</v>
+      </c>
+      <c r="G2337" s="5"/>
+      <c r="H2337" s="5">
+        <v>1007</v>
+      </c>
+      <c r="I2337" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2338" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2338" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2338" s="5" t="s">
+        <v>4058</v>
+      </c>
+      <c r="E2338" s="5" t="s">
+        <v>5119</v>
+      </c>
+      <c r="F2338" s="5" t="s">
+        <v>5120</v>
+      </c>
+      <c r="G2338" s="5"/>
+      <c r="H2338" s="5">
+        <v>1094</v>
+      </c>
+      <c r="I2338" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2339" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2339" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2339" s="5" t="s">
+        <v>5121</v>
+      </c>
+      <c r="E2339" s="5" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F2339" s="5" t="s">
+        <v>5122</v>
+      </c>
+      <c r="G2339" s="5"/>
+      <c r="H2339" s="5">
+        <v>1800</v>
+      </c>
+      <c r="I2339" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2340" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2340" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2340" s="5" t="s">
+        <v>3934</v>
+      </c>
+      <c r="E2340" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="F2340" s="5" t="s">
+        <v>5123</v>
+      </c>
+      <c r="G2340" s="5"/>
+      <c r="H2340" s="5">
+        <v>1095</v>
+      </c>
+      <c r="I2340" s="5" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="2341" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2341" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2341" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2341" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F2341" s="5" t="s">
+        <v>5124</v>
+      </c>
+      <c r="G2341" s="5"/>
+      <c r="H2341" s="5">
+        <v>1860</v>
+      </c>
+      <c r="I2341" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2342" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2342" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2342" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2342" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="F2342" s="5" t="s">
+        <v>5124</v>
+      </c>
+      <c r="G2342" s="5"/>
+      <c r="H2342" s="5">
+        <v>1860</v>
+      </c>
+      <c r="I2342" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2343" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2343" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2343" s="5" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E2343" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2343" s="5" t="s">
+        <v>5125</v>
+      </c>
+      <c r="G2343" s="5"/>
+      <c r="H2343" s="5">
+        <v>1009</v>
+      </c>
+      <c r="I2343" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2344" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2344" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2344" s="5" t="s">
+        <v>5126</v>
+      </c>
+      <c r="E2344" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F2344" s="5" t="s">
+        <v>5127</v>
+      </c>
+      <c r="G2344" s="5"/>
+      <c r="H2344" s="5">
+        <v>1530</v>
+      </c>
+      <c r="I2344" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="2345" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2345" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2345" s="5" t="s">
+        <v>5128</v>
+      </c>
+      <c r="E2345" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2345" s="5" t="s">
+        <v>5129</v>
+      </c>
+      <c r="G2345" s="5"/>
+      <c r="H2345" s="5">
+        <v>1196</v>
+      </c>
+      <c r="I2345" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2346" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2346" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2346" s="5" t="s">
+        <v>5181</v>
+      </c>
+      <c r="E2346" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2346" s="5" t="s">
+        <v>5130</v>
+      </c>
+      <c r="G2346" s="5"/>
+      <c r="H2346" s="5">
+        <v>1032</v>
+      </c>
+      <c r="I2346" s="5" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="2347" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2347" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2347" s="5" t="s">
+        <v>5182</v>
+      </c>
+      <c r="E2347" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F2347" s="5" t="s">
+        <v>5132</v>
+      </c>
+      <c r="G2347" s="5"/>
+      <c r="H2347" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I2347" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2348" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2348" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2348" s="5" t="s">
+        <v>5133</v>
+      </c>
+      <c r="E2348" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="F2348" s="5" t="s">
+        <v>5134</v>
+      </c>
+      <c r="G2348" s="5"/>
+      <c r="H2348" s="5">
+        <v>1025</v>
+      </c>
+      <c r="I2348" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2349" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2349" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2349" s="5" t="s">
+        <v>5135</v>
+      </c>
+      <c r="E2349" s="5" t="s">
+        <v>5052</v>
+      </c>
+      <c r="F2349" s="5" t="s">
+        <v>5136</v>
+      </c>
+      <c r="G2349" s="5"/>
+      <c r="H2349" s="5">
+        <v>1018</v>
+      </c>
+      <c r="I2349" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2350" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2350" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2350" s="5" t="s">
+        <v>5137</v>
+      </c>
+      <c r="E2350" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F2350" s="5" t="s">
+        <v>5138</v>
+      </c>
+      <c r="G2350" s="5"/>
+      <c r="H2350" s="5">
+        <v>1091</v>
+      </c>
+      <c r="I2350" s="5" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="2351" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2351" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2351" s="5" t="s">
+        <v>5139</v>
+      </c>
+      <c r="E2351" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2351" s="5" t="s">
+        <v>5140</v>
+      </c>
+      <c r="G2351" s="5"/>
+      <c r="H2351" s="5">
+        <v>1854</v>
+      </c>
+      <c r="I2351" s="5" t="s">
+        <v>737</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Bonne nouvelle/inscriptions-web.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Bonne nouvelle/inscriptions-web.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11736" uniqueCount="5199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11837" uniqueCount="5252">
   <si>
     <t>Horodateur</t>
   </si>
@@ -15614,6 +15614,165 @@
   </si>
   <si>
     <t>Av. du Tirage 5</t>
+  </si>
+  <si>
+    <t>Roth Durr</t>
+  </si>
+  <si>
+    <t>Scheibler</t>
+  </si>
+  <si>
+    <t>Chaignat</t>
+  </si>
+  <si>
+    <t>Schneller</t>
+  </si>
+  <si>
+    <t>Derron-Notter</t>
+  </si>
+  <si>
+    <t>Chadourne</t>
+  </si>
+  <si>
+    <t>Jaccard Krejci</t>
+  </si>
+  <si>
+    <t>Stähli</t>
+  </si>
+  <si>
+    <t>Fillon Marguerat</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Wittwer</t>
+  </si>
+  <si>
+    <t>Schär-Rossier</t>
+  </si>
+  <si>
+    <t>Parisod-Gorjat</t>
+  </si>
+  <si>
+    <t>Marc et Marlyse</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Chalet le Torrent</t>
+  </si>
+  <si>
+    <t>Rütiwaldstrasse 18</t>
+  </si>
+  <si>
+    <t>route du Chaussié 3</t>
+  </si>
+  <si>
+    <t>Pra Pury 20</t>
+  </si>
+  <si>
+    <t>Meylandstrasse 14</t>
+  </si>
+  <si>
+    <t>CP 3106</t>
+  </si>
+  <si>
+    <t>avenue du Bois-de-la-Chapelle 79</t>
+  </si>
+  <si>
+    <t>Au Village 36</t>
+  </si>
+  <si>
+    <t>rue Jean-Violette 12</t>
+  </si>
+  <si>
+    <t>impasse des Chaffeirus  19</t>
+  </si>
+  <si>
+    <t>au Village 13</t>
+  </si>
+  <si>
+    <t>route du Marchet 15</t>
+  </si>
+  <si>
+    <t>route de l'Aclex 1</t>
+  </si>
+  <si>
+    <t>route de la Gare 41</t>
+  </si>
+  <si>
+    <t>avenue A.-F.-Dubois 58</t>
+  </si>
+  <si>
+    <t>L'Essert 11</t>
+  </si>
+  <si>
+    <t>route de Riaz 2</t>
+  </si>
+  <si>
+    <t>Home du Vully - route de la Gare 12</t>
+  </si>
+  <si>
+    <t>Herisau</t>
+  </si>
+  <si>
+    <t>Vuisternens-devant-Romont</t>
+  </si>
+  <si>
+    <t>Morat</t>
+  </si>
+  <si>
+    <t>Neuchâtel</t>
+  </si>
+  <si>
+    <t>Onex</t>
+  </si>
+  <si>
+    <t>Sugiez</t>
+  </si>
+  <si>
+    <t>Surpierre</t>
+  </si>
+  <si>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>Châtonnaye</t>
+  </si>
+  <si>
+    <t>Neyruz</t>
+  </si>
+  <si>
+    <t>Nuvilly</t>
+  </si>
+  <si>
+    <t>Estavayer-le-Lac</t>
+  </si>
+  <si>
+    <t>Meyrin</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Middes</t>
+  </si>
+  <si>
+    <t>Bulle</t>
+  </si>
+  <si>
+    <t>Rte des Baumes 2</t>
+  </si>
+  <si>
+    <t>Zürichbergstrasse 136</t>
+  </si>
+  <si>
+    <t>Région</t>
   </si>
 </sst>
 </file>
@@ -15623,11 +15782,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -15691,15 +15857,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -15708,15 +15875,30 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -16015,11 +16197,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2351"/>
+  <dimension ref="A1:K2372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2267" sqref="C2267"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -16033,7 +16215,7 @@
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16064,8 +16246,11 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>5251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>41137.487604166701</v>
       </c>
@@ -16090,7 +16275,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>41139.531643518501</v>
       </c>
@@ -16115,7 +16300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>41150.4466203704</v>
       </c>
@@ -16140,7 +16325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>41150.640659722201</v>
       </c>
@@ -16165,7 +16350,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>41151.353078703702</v>
       </c>
@@ -16190,7 +16375,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>41151.416956018496</v>
       </c>
@@ -16215,7 +16400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>41151.711979166699</v>
       </c>
@@ -16240,7 +16425,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>41151.846539351798</v>
       </c>
@@ -16265,7 +16450,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>41152.293460648201</v>
       </c>
@@ -16292,7 +16477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>41152.339305555601</v>
       </c>
@@ -16317,7 +16502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>41152.381111111099</v>
       </c>
@@ -16342,7 +16527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>41152.425104166701</v>
       </c>
@@ -16367,7 +16552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>41152.429710648103</v>
       </c>
@@ -16392,7 +16577,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>41152.448553240698</v>
       </c>
@@ -16417,7 +16602,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>41152.457696759302</v>
       </c>
@@ -73510,6 +73695,466 @@
         <v>737</v>
       </c>
     </row>
+    <row r="2353" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2353" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2353" s="8" t="s">
+        <v>5199</v>
+      </c>
+      <c r="E2353" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2353" s="10" t="s">
+        <v>5215</v>
+      </c>
+      <c r="H2353" s="12">
+        <v>3961</v>
+      </c>
+      <c r="I2353" s="11" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K2353" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2354" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2354" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2354" s="8" t="s">
+        <v>5200</v>
+      </c>
+      <c r="E2354" s="9" t="s">
+        <v>4576</v>
+      </c>
+      <c r="F2354" s="10" t="s">
+        <v>5216</v>
+      </c>
+      <c r="H2354" s="12">
+        <v>9100</v>
+      </c>
+      <c r="I2354" s="11" t="s">
+        <v>5233</v>
+      </c>
+      <c r="K2354" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2355" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2355" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2355" s="8" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E2355" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2355" s="10" t="s">
+        <v>5217</v>
+      </c>
+      <c r="H2355" s="14">
+        <v>1687</v>
+      </c>
+      <c r="I2355" s="13" t="s">
+        <v>5234</v>
+      </c>
+      <c r="K2355" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2356" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2356" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2356" s="8" t="s">
+        <v>2783</v>
+      </c>
+      <c r="E2356" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2356" s="10" t="s">
+        <v>5218</v>
+      </c>
+      <c r="H2356" s="12">
+        <v>3280</v>
+      </c>
+      <c r="I2356" s="11" t="s">
+        <v>5235</v>
+      </c>
+      <c r="K2356" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2357" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2357" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2357" s="8" t="s">
+        <v>5201</v>
+      </c>
+      <c r="E2357" s="9" t="s">
+        <v>909</v>
+      </c>
+      <c r="F2357" s="10" t="s">
+        <v>5219</v>
+      </c>
+      <c r="H2357" s="12">
+        <v>3280</v>
+      </c>
+      <c r="I2357" s="11" t="s">
+        <v>5235</v>
+      </c>
+      <c r="K2357" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2358" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2358" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2358" s="8" t="s">
+        <v>5202</v>
+      </c>
+      <c r="E2358" s="9" t="s">
+        <v>1904</v>
+      </c>
+      <c r="G2358" s="10" t="s">
+        <v>5220</v>
+      </c>
+      <c r="H2358" s="12">
+        <v>2001</v>
+      </c>
+      <c r="I2358" s="11" t="s">
+        <v>5236</v>
+      </c>
+      <c r="K2358" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2359" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2359" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2359" s="8" t="s">
+        <v>5108</v>
+      </c>
+      <c r="E2359" s="9" t="s">
+        <v>5212</v>
+      </c>
+      <c r="F2359" s="10" t="s">
+        <v>5221</v>
+      </c>
+      <c r="H2359" s="12">
+        <v>1213</v>
+      </c>
+      <c r="I2359" s="11" t="s">
+        <v>5237</v>
+      </c>
+      <c r="K2359" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2360" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2360" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2360" s="8" t="s">
+        <v>5203</v>
+      </c>
+      <c r="E2360" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2360" s="10" t="s">
+        <v>5249</v>
+      </c>
+      <c r="H2360" s="12">
+        <v>1786</v>
+      </c>
+      <c r="I2360" s="11" t="s">
+        <v>5238</v>
+      </c>
+      <c r="K2360" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2361" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2361" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2361" s="8" t="s">
+        <v>2371</v>
+      </c>
+      <c r="E2361" s="9" t="s">
+        <v>883</v>
+      </c>
+      <c r="F2361" s="10" t="s">
+        <v>5222</v>
+      </c>
+      <c r="H2361" s="12">
+        <v>1528</v>
+      </c>
+      <c r="I2361" s="11" t="s">
+        <v>5239</v>
+      </c>
+      <c r="K2361" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2362" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2362" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2362" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="E2362" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2362" s="10" t="s">
+        <v>5223</v>
+      </c>
+      <c r="H2362" s="12">
+        <v>1205</v>
+      </c>
+      <c r="I2362" s="11" t="s">
+        <v>5240</v>
+      </c>
+      <c r="K2362" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2363" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2363" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2363" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="E2363" s="9" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F2363" s="10" t="s">
+        <v>5224</v>
+      </c>
+      <c r="H2363" s="12">
+        <v>1553</v>
+      </c>
+      <c r="I2363" s="13" t="s">
+        <v>5241</v>
+      </c>
+      <c r="K2363" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2364" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2364" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2364" s="8" t="s">
+        <v>5204</v>
+      </c>
+      <c r="E2364" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F2364" s="10" t="s">
+        <v>5225</v>
+      </c>
+      <c r="H2364" s="12">
+        <v>1483</v>
+      </c>
+      <c r="I2364" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="K2364" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2365" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2365" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2365" s="8" t="s">
+        <v>5205</v>
+      </c>
+      <c r="E2365" s="9" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F2365" s="10" t="s">
+        <v>5226</v>
+      </c>
+      <c r="H2365" s="12">
+        <v>1740</v>
+      </c>
+      <c r="I2365" s="11" t="s">
+        <v>5242</v>
+      </c>
+      <c r="K2365" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2366" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2366" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2366" s="8" t="s">
+        <v>5206</v>
+      </c>
+      <c r="E2366" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2366" s="10" t="s">
+        <v>5227</v>
+      </c>
+      <c r="H2366" s="12">
+        <v>1485</v>
+      </c>
+      <c r="I2366" s="11" t="s">
+        <v>5243</v>
+      </c>
+      <c r="K2366" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2367" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2367" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2367" s="8" t="s">
+        <v>5207</v>
+      </c>
+      <c r="E2367" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F2367" s="10" t="s">
+        <v>5228</v>
+      </c>
+      <c r="H2367" s="12">
+        <v>1470</v>
+      </c>
+      <c r="I2367" s="13" t="s">
+        <v>5244</v>
+      </c>
+      <c r="K2367" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2368" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2368" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2368" s="8" t="s">
+        <v>5208</v>
+      </c>
+      <c r="E2368" s="9" t="s">
+        <v>5213</v>
+      </c>
+      <c r="F2368" s="10" t="s">
+        <v>5229</v>
+      </c>
+      <c r="H2368" s="12">
+        <v>1217</v>
+      </c>
+      <c r="I2368" s="11" t="s">
+        <v>5245</v>
+      </c>
+      <c r="K2368" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2369" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2369" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2369" s="8" t="s">
+        <v>5209</v>
+      </c>
+      <c r="E2369" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2369" s="10" t="s">
+        <v>5250</v>
+      </c>
+      <c r="H2369" s="12">
+        <v>8044</v>
+      </c>
+      <c r="I2369" s="11" t="s">
+        <v>5246</v>
+      </c>
+      <c r="K2369" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2370" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2370" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2370" s="8" t="s">
+        <v>5210</v>
+      </c>
+      <c r="E2370" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2370" s="10" t="s">
+        <v>5230</v>
+      </c>
+      <c r="H2370" s="12">
+        <v>1749</v>
+      </c>
+      <c r="I2370" s="11" t="s">
+        <v>5247</v>
+      </c>
+      <c r="K2370" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2371" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2371" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2371" s="8" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E2371" s="9" t="s">
+        <v>5214</v>
+      </c>
+      <c r="F2371" s="10" t="s">
+        <v>5231</v>
+      </c>
+      <c r="H2371" s="12">
+        <v>1630</v>
+      </c>
+      <c r="I2371" s="11" t="s">
+        <v>5248</v>
+      </c>
+      <c r="K2371" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2372" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2372" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2372" s="8" t="s">
+        <v>5211</v>
+      </c>
+      <c r="E2372" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2372" s="10" t="s">
+        <v>5232</v>
+      </c>
+      <c r="H2372" s="12">
+        <v>1786</v>
+      </c>
+      <c r="I2372" s="11" t="s">
+        <v>5238</v>
+      </c>
+      <c r="K2372" s="12">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Bonne nouvelle/inscriptions-web.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Bonne nouvelle/inscriptions-web.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11837" uniqueCount="5252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12610" uniqueCount="5659">
   <si>
     <t>Horodateur</t>
   </si>
@@ -15773,16 +15773,1240 @@
   </si>
   <si>
     <t>Région</t>
+  </si>
+  <si>
+    <t>Archives de la ville de Lausanne</t>
+  </si>
+  <si>
+    <t>CHUAT</t>
+  </si>
+  <si>
+    <t>CP 579</t>
+  </si>
+  <si>
+    <t>LAUSANNE</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Editions Labor et Fides SA</t>
+  </si>
+  <si>
+    <t>DE MONTMOLLIN</t>
+  </si>
+  <si>
+    <t>rue Beauregard 1</t>
+  </si>
+  <si>
+    <t>GENÈVE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>EPG - Rue du Cloître 2</t>
+  </si>
+  <si>
+    <t>DERUAZ</t>
+  </si>
+  <si>
+    <t>Case postale 3078</t>
+  </si>
+  <si>
+    <t>GENÈVE 3</t>
+  </si>
+  <si>
+    <t>Vicariat épiscopal</t>
+  </si>
+  <si>
+    <t>Monsieur l'Abbé</t>
+  </si>
+  <si>
+    <t>DONZÉ</t>
+  </si>
+  <si>
+    <t>Ch. des Mouettes 4 / CP 1511</t>
+  </si>
+  <si>
+    <t>Radio Svizzera di lingua italiana</t>
+  </si>
+  <si>
+    <t>DRIUSSI</t>
+  </si>
+  <si>
+    <t>Gino</t>
+  </si>
+  <si>
+    <t>Casella postale</t>
+  </si>
+  <si>
+    <t>LUGANO</t>
+  </si>
+  <si>
+    <t>CP 93</t>
+  </si>
+  <si>
+    <t>DROZ</t>
+  </si>
+  <si>
+    <t>Paul-André</t>
+  </si>
+  <si>
+    <t>VILLENEUVE</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Evêque auxiliaire de Lausanne Genève-Fribourg</t>
+  </si>
+  <si>
+    <t>Monseigneur</t>
+  </si>
+  <si>
+    <t>FARINE</t>
+  </si>
+  <si>
+    <t>Rue des Granges 13</t>
+  </si>
+  <si>
+    <t>ÉDITIONS OLIVÉTAN FRANCE</t>
+  </si>
+  <si>
+    <t>FISCHER</t>
+  </si>
+  <si>
+    <t>Boîte Postale 4464</t>
+  </si>
+  <si>
+    <t>LYON CÉDEX 04</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>EPER</t>
+  </si>
+  <si>
+    <t>HERREN LAUFER</t>
+  </si>
+  <si>
+    <t>Bd de Grancy 17bis / CP 536</t>
+  </si>
+  <si>
+    <t>Ev.-ref. Landeskirche des Kantons Glarus</t>
+  </si>
+  <si>
+    <t>KNOEPFEL-KUNZ</t>
+  </si>
+  <si>
+    <t>Wiesli 7</t>
+  </si>
+  <si>
+    <t>GLARUS</t>
+  </si>
+  <si>
+    <t>Évêché de Lausanne-Genève-Fribourg</t>
+  </si>
+  <si>
+    <t>MOREROD</t>
+  </si>
+  <si>
+    <t>FRIBOURG</t>
+  </si>
+  <si>
+    <t>RTS</t>
+  </si>
+  <si>
+    <t>PETERMANN</t>
+  </si>
+  <si>
+    <t>Av. du Temple 40</t>
+  </si>
+  <si>
+    <t>LA VIE PROTESTANTE Neuchâtel, Berne, Jura</t>
+  </si>
+  <si>
+    <t>PIRKER</t>
+  </si>
+  <si>
+    <t>Rte de la Chapelle 2</t>
+  </si>
+  <si>
+    <t>MOSSEL</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>RTS RELIGIONS</t>
+  </si>
+  <si>
+    <t>PRIZRENI</t>
+  </si>
+  <si>
+    <t>Quai E. Ansermet 20 / CP 234</t>
+  </si>
+  <si>
+    <t>GENÈVE 8</t>
+  </si>
+  <si>
+    <t>KULTOUR VOYAGES SA</t>
+  </si>
+  <si>
+    <t>SCHENK</t>
+  </si>
+  <si>
+    <t>Hans-Peter</t>
+  </si>
+  <si>
+    <t>Case postale 7088</t>
+  </si>
+  <si>
+    <t>BIENNE 7</t>
+  </si>
+  <si>
+    <t>COMUNITÀ MONASTICA DI BOSE</t>
+  </si>
+  <si>
+    <t>WIRZ</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>MAGNANO</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>Case postale 66</t>
+  </si>
+  <si>
+    <t>YVONAND</t>
+  </si>
+  <si>
+    <t>BOREL</t>
+  </si>
+  <si>
+    <t>Chemin des Joyeuses 16</t>
+  </si>
+  <si>
+    <t>CORTAILLOD</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>BOURQUIN</t>
+  </si>
+  <si>
+    <t>Rue du 23 juin 38</t>
+  </si>
+  <si>
+    <t>COURRENDLIN</t>
+  </si>
+  <si>
+    <t>GOETZ</t>
+  </si>
+  <si>
+    <t>Rue de La Léchère 2</t>
+  </si>
+  <si>
+    <t>BULLE</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>HENCHOZ</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Rte En Champ Didon 114</t>
+  </si>
+  <si>
+    <t>NEYRUZ</t>
+  </si>
+  <si>
+    <t>KHALIL</t>
+  </si>
+  <si>
+    <t>grand Bourgeau 63</t>
+  </si>
+  <si>
+    <t>LES VERRIÈRES</t>
+  </si>
+  <si>
+    <t>MAYER</t>
+  </si>
+  <si>
+    <t>Ch. des Fougères 1</t>
+  </si>
+  <si>
+    <t>MONNIER</t>
+  </si>
+  <si>
+    <t>Roland-Henri</t>
+  </si>
+  <si>
+    <t>rue des Saars 85</t>
+  </si>
+  <si>
+    <t>NEUCHÂTEL</t>
+  </si>
+  <si>
+    <t>MÜLLER</t>
+  </si>
+  <si>
+    <t>Résidence Arcane
+Ch. des Cudeaux-du-Haut 37</t>
+  </si>
+  <si>
+    <t>CORCELLES</t>
+  </si>
+  <si>
+    <t>PETER</t>
+  </si>
+  <si>
+    <t>Sybille</t>
+  </si>
+  <si>
+    <t>Rue des Charpentiers 13</t>
+  </si>
+  <si>
+    <t>MORGES</t>
+  </si>
+  <si>
+    <t>M. et Mme</t>
+  </si>
+  <si>
+    <t>ROUVÉ</t>
+  </si>
+  <si>
+    <t>Nicolas et Anne-Sophie</t>
+  </si>
+  <si>
+    <t>Rte de Remaufens 28</t>
+  </si>
+  <si>
+    <t>TATROZ</t>
+  </si>
+  <si>
+    <t>TAUXE</t>
+  </si>
+  <si>
+    <t>Rue de Jaman 2</t>
+  </si>
+  <si>
+    <t>CORSIER</t>
+  </si>
+  <si>
+    <t>WILDI</t>
+  </si>
+  <si>
+    <t>Ch. du Pont 14</t>
+  </si>
+  <si>
+    <t>CERTOUX</t>
+  </si>
+  <si>
+    <t>WILLEMIN</t>
+  </si>
+  <si>
+    <t>Jean-Brice</t>
+  </si>
+  <si>
+    <t>Service Information
+Ch. des Mouettes 4</t>
+  </si>
+  <si>
+    <t>Case postale 600</t>
+  </si>
+  <si>
+    <t>AERNE</t>
+  </si>
+  <si>
+    <t>Rue des Parcs 36</t>
+  </si>
+  <si>
+    <t>Madame et Monsieur</t>
+  </si>
+  <si>
+    <t>BACHMANN</t>
+  </si>
+  <si>
+    <t>Elisabeth et Fabien</t>
+  </si>
+  <si>
+    <t>Impasse Côte-des-Esserts 3</t>
+  </si>
+  <si>
+    <t>COUSSET</t>
+  </si>
+  <si>
+    <t>BIRNBAUM</t>
+  </si>
+  <si>
+    <t>Av. du Casino 35</t>
+  </si>
+  <si>
+    <t>MONTREUX</t>
+  </si>
+  <si>
+    <t>BOCHERENS</t>
+  </si>
+  <si>
+    <t>Hohlegasse 38</t>
+  </si>
+  <si>
+    <t>BINNINGEN</t>
+  </si>
+  <si>
+    <t>BUTTICAZ</t>
+  </si>
+  <si>
+    <t>Rue du Lac 138</t>
+  </si>
+  <si>
+    <t>CLARENS</t>
+  </si>
+  <si>
+    <t>CHADOURNE</t>
+  </si>
+  <si>
+    <t>MONTET FR</t>
+  </si>
+  <si>
+    <t>CHAIGNAT</t>
+  </si>
+  <si>
+    <t>Meylandstrasse</t>
+  </si>
+  <si>
+    <t>MORAT</t>
+  </si>
+  <si>
+    <t>CAPT</t>
+  </si>
+  <si>
+    <t>"La Lavande" - Les Rochers 418</t>
+  </si>
+  <si>
+    <t>SAVIÈSE</t>
+  </si>
+  <si>
+    <t>CHEVALLEY</t>
+  </si>
+  <si>
+    <t>Ch. du Boisy 7</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DÉCOSTERD</t>
+  </si>
+  <si>
+    <t>Rue d'Or 5</t>
+  </si>
+  <si>
+    <t>DEL MORAL</t>
+  </si>
+  <si>
+    <t>Domaine de la Gracieuse</t>
+  </si>
+  <si>
+    <t>LONAY</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>DELSETH</t>
+  </si>
+  <si>
+    <t>Maryvonne</t>
+  </si>
+  <si>
+    <t>Rue des Petits-Epineys 19</t>
+  </si>
+  <si>
+    <t>MARTIGNY</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Hélène et Peter</t>
+  </si>
+  <si>
+    <t>DERRON-NOTTER</t>
+  </si>
+  <si>
+    <t>Nant - route des Baumes 2</t>
+  </si>
+  <si>
+    <t>SUGIEZ</t>
+  </si>
+  <si>
+    <t>DUBOIS</t>
+  </si>
+  <si>
+    <t>Av. Calas 8</t>
+  </si>
+  <si>
+    <t>DUPUIS</t>
+  </si>
+  <si>
+    <t>Laurène</t>
+  </si>
+  <si>
+    <t>Rte du Rin 39</t>
+  </si>
+  <si>
+    <t>DOMPIERRE</t>
+  </si>
+  <si>
+    <t>FALLET</t>
+  </si>
+  <si>
+    <t>EMS Nelty de Beausobre - Rue des Charpentiers 3</t>
+  </si>
+  <si>
+    <t>FREY</t>
+  </si>
+  <si>
+    <t>Ch. de Savoie 48</t>
+  </si>
+  <si>
+    <t>VAUDERENS</t>
+  </si>
+  <si>
+    <t>FRÖHLICH</t>
+  </si>
+  <si>
+    <t>Gartenweg 3</t>
+  </si>
+  <si>
+    <t>UETENDORF</t>
+  </si>
+  <si>
+    <t>GALLAZ-D'OKOLSKI</t>
+  </si>
+  <si>
+    <t>Marysia</t>
+  </si>
+  <si>
+    <t>Ch. de Pierrefleur 1</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>GLARDON</t>
+  </si>
+  <si>
+    <t>Ch. des Indiennes 6</t>
+  </si>
+  <si>
+    <t>AREUSE</t>
+  </si>
+  <si>
+    <t>GOBALET</t>
+  </si>
+  <si>
+    <t>Rue Sonnex 12</t>
+  </si>
+  <si>
+    <t>GRAND-SACONNEX</t>
+  </si>
+  <si>
+    <t>GUMY</t>
+  </si>
+  <si>
+    <t>Ch. de Monséjour 10</t>
+  </si>
+  <si>
+    <t>JACCARD KREJCI</t>
+  </si>
+  <si>
+    <t>JEANNERET</t>
+  </si>
+  <si>
+    <t>ONEX</t>
+  </si>
+  <si>
+    <t>JELEN</t>
+  </si>
+  <si>
+    <t>MEINIER</t>
+  </si>
+  <si>
+    <t>HAURI-KARRER</t>
+  </si>
+  <si>
+    <t>Dorfstrasse 19</t>
+  </si>
+  <si>
+    <t>BADEN-DÄTTWIL</t>
+  </si>
+  <si>
+    <t>HERMENJAT</t>
+  </si>
+  <si>
+    <t>Rte des Echelettes 7</t>
+  </si>
+  <si>
+    <t>LUSSY FR</t>
+  </si>
+  <si>
+    <t>KOBR-DUBRIT</t>
+  </si>
+  <si>
+    <t>Av. des Verchères 31</t>
+  </si>
+  <si>
+    <t>THÔNEX</t>
+  </si>
+  <si>
+    <t>LAUBSCHER</t>
+  </si>
+  <si>
+    <t>LIARD</t>
+  </si>
+  <si>
+    <t>ROCHE</t>
+  </si>
+  <si>
+    <t>LOSI</t>
+  </si>
+  <si>
+    <t>Ch. du Fief-de-Chapitre 8</t>
+  </si>
+  <si>
+    <t>PETIT-LANCY</t>
+  </si>
+  <si>
+    <t>MAZZONI</t>
+  </si>
+  <si>
+    <t>GORDEVIO</t>
+  </si>
+  <si>
+    <t>MARTIN-LENOIR</t>
+  </si>
+  <si>
+    <t>c/o Mme Elisabeth Gaudard - Ch. de Chevrine 5</t>
+  </si>
+  <si>
+    <t>BOUSSENS</t>
+  </si>
+  <si>
+    <t>MATTHEY</t>
+  </si>
+  <si>
+    <t>VUISTERNENS-DEVANT-ROMONT</t>
+  </si>
+  <si>
+    <t>MOOR</t>
+  </si>
+  <si>
+    <t>Ch. de la Confrérie 3</t>
+  </si>
+  <si>
+    <t>PRILLY</t>
+  </si>
+  <si>
+    <t>NERNY</t>
+  </si>
+  <si>
+    <t>Ch. de Riencourt 8</t>
+  </si>
+  <si>
+    <t>BELLEVUE</t>
+  </si>
+  <si>
+    <t>NICOD</t>
+  </si>
+  <si>
+    <t>SURPIERRE</t>
+  </si>
+  <si>
+    <t>NYDEGGER</t>
+  </si>
+  <si>
+    <t>Ch. des Falquets 15</t>
+  </si>
+  <si>
+    <t>COLOGNY</t>
+  </si>
+  <si>
+    <t>NYFFELER</t>
+  </si>
+  <si>
+    <t>Av. des Alpes 14</t>
+  </si>
+  <si>
+    <t>SIERRE</t>
+  </si>
+  <si>
+    <t>OLGIATI</t>
+  </si>
+  <si>
+    <t>Via da Mez 29</t>
+  </si>
+  <si>
+    <t>POSCHIAVO</t>
+  </si>
+  <si>
+    <t>PIGUET</t>
+  </si>
+  <si>
+    <t>PITTET</t>
+  </si>
+  <si>
+    <t>Ch. de Saule 66</t>
+  </si>
+  <si>
+    <t>BERNEX</t>
+  </si>
+  <si>
+    <t>REYMOND</t>
+  </si>
+  <si>
+    <t>Adrien-Jeandin 16</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ROD</t>
+  </si>
+  <si>
+    <t>impasse des Chaffeirus 19</t>
+  </si>
+  <si>
+    <t>CHÂTONNAYE</t>
+  </si>
+  <si>
+    <t>ROTH DURR</t>
+  </si>
+  <si>
+    <t>AYER</t>
+  </si>
+  <si>
+    <t>SCHEIBLER</t>
+  </si>
+  <si>
+    <t>HERISAU</t>
+  </si>
+  <si>
+    <t>SCHERTENLEIB</t>
+  </si>
+  <si>
+    <t>Burgunderstrasse 51</t>
+  </si>
+  <si>
+    <t>BERNE</t>
+  </si>
+  <si>
+    <t>SCHNELLER</t>
+  </si>
+  <si>
+    <t>SCHULTHESS</t>
+  </si>
+  <si>
+    <t>Pernette</t>
+  </si>
+  <si>
+    <t>Kronwiesenstrasse 49</t>
+  </si>
+  <si>
+    <t>ZURICH</t>
+  </si>
+  <si>
+    <t>STÄHLI</t>
+  </si>
+  <si>
+    <t>NUVILLY</t>
+  </si>
+  <si>
+    <t>TURRIAN</t>
+  </si>
+  <si>
+    <t>EMS La Résidence - Ch. du Levant 6</t>
+  </si>
+  <si>
+    <t>AIGLE</t>
+  </si>
+  <si>
+    <t>VALLOTTON-BOUVIER</t>
+  </si>
+  <si>
+    <t>Paul-Olivier</t>
+  </si>
+  <si>
+    <t>Rue Voltaire 7</t>
+  </si>
+  <si>
+    <t>VAUDAN</t>
+  </si>
+  <si>
+    <t>Rue des Fontaines 29</t>
+  </si>
+  <si>
+    <t>MONTAGNIER</t>
+  </si>
+  <si>
+    <t>VOLARY-CACHIN</t>
+  </si>
+  <si>
+    <t>Au Village 101</t>
+  </si>
+  <si>
+    <t>FÉTIGNY</t>
+  </si>
+  <si>
+    <t>VOLET</t>
+  </si>
+  <si>
+    <t>Blaise et Maryse</t>
+  </si>
+  <si>
+    <t>Ch. de Bois-Caran 7</t>
+  </si>
+  <si>
+    <t>VESENAZ</t>
+  </si>
+  <si>
+    <t>Rue de la Tambourine 31</t>
+  </si>
+  <si>
+    <t>CAROUGE</t>
+  </si>
+  <si>
+    <t>VUGMAN</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Rue des Noirettes 5</t>
+  </si>
+  <si>
+    <t>YERSIN</t>
+  </si>
+  <si>
+    <t>Bordamon 27</t>
+  </si>
+  <si>
+    <t>BOULENS</t>
+  </si>
+  <si>
+    <t>BRITTON</t>
+  </si>
+  <si>
+    <t>Neil</t>
+  </si>
+  <si>
+    <t>Rose Cottage - Newbury Road 7</t>
+  </si>
+  <si>
+    <t>RG20 5SP</t>
+  </si>
+  <si>
+    <t>Kingsclere</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>DELBEAUVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric et Michelle </t>
+  </si>
+  <si>
+    <t>Avenue de l'Aulne 95</t>
+  </si>
+  <si>
+    <t>BRUXELLES</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>KESSLER</t>
+  </si>
+  <si>
+    <t>Place Albert Schweitzer 1</t>
+  </si>
+  <si>
+    <t>PONTARLIER</t>
+  </si>
+  <si>
+    <t>POON</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Red Ash Drive 19</t>
+  </si>
+  <si>
+    <t>L3S 4B7</t>
+  </si>
+  <si>
+    <t>MARKHAM, Ontario</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Central Ave 30</t>
+  </si>
+  <si>
+    <t>Beaconsfield, Western Australia</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Pays</t>
+  </si>
+  <si>
+    <t>24 HEURES, Rédaction</t>
+  </si>
+  <si>
+    <t>Av. de la Gare 33</t>
+  </si>
+  <si>
+    <t>APIC, Rédaction</t>
+  </si>
+  <si>
+    <t>Rue du Botzet 2</t>
+  </si>
+  <si>
+    <t>Case postale 192</t>
+  </si>
+  <si>
+    <t>ARGUS DER PRESSE AG</t>
+  </si>
+  <si>
+    <t>Rüdigerstrasse 15</t>
+  </si>
+  <si>
+    <t>ZÜRICH</t>
+  </si>
+  <si>
+    <t>ARMÉE DU SALUT, Division Romande</t>
+  </si>
+  <si>
+    <t>Rue de l'Ecluse 16</t>
+  </si>
+  <si>
+    <t>BIBLIOTHÈQUE MUNICIPALE</t>
+  </si>
+  <si>
+    <t>Pl. Chauderon 11</t>
+  </si>
+  <si>
+    <t>BIBLIOTHÈQUE CANTONALE UNIVERSITAIRE, Dépôt légal</t>
+  </si>
+  <si>
+    <t>Pl. de la Riponne 6</t>
+  </si>
+  <si>
+    <t>BIBLIOTHÈQUE NATIONALE SUISSE, Service des périodiques</t>
+  </si>
+  <si>
+    <t>Hallwylstrasse 15</t>
+  </si>
+  <si>
+    <t>CIDOC</t>
+  </si>
+  <si>
+    <t>Bd de Grancy 29</t>
+  </si>
+  <si>
+    <t>Case postale 337</t>
+  </si>
+  <si>
+    <t>COMMUNAUTÉ DE GRANDCHAMP</t>
+  </si>
+  <si>
+    <t>COMMUNAUTÉ DE TAIZÉ</t>
+  </si>
+  <si>
+    <t>TAIZÉ-COMMUNAUTÉ</t>
+  </si>
+  <si>
+    <t>DM-ÉCHANGE ET MISSION, Bibliothèque</t>
+  </si>
+  <si>
+    <t>Ch. des Cèdres 5</t>
+  </si>
+  <si>
+    <t>ÉGLISE ÉVANGÉLIQUE RÉFORMÉE DU CANTON DE FRIBOURG, Conseil synodal</t>
+  </si>
+  <si>
+    <t>Beaulieu - Prehlstrasse 11</t>
+  </si>
+  <si>
+    <t>ÉGLISE RÉFORMÉE DE ROYAN</t>
+  </si>
+  <si>
+    <t>rue Alsace-Lorraine 17</t>
+  </si>
+  <si>
+    <t>ROYAN</t>
+  </si>
+  <si>
+    <t>ÉGLISE  RÉFORMÉE ÉVANGÉLIQUE DU CANTON DE NEUCHÂTEL (EREN)</t>
+  </si>
+  <si>
+    <t>Faubourg de l'Hôpital 24</t>
+  </si>
+  <si>
+    <t>Case postale 2231</t>
+  </si>
+  <si>
+    <t>ÉGLISES REFORMÉES BERNE-JURA-SOLEURE, Service de la communication</t>
+  </si>
+  <si>
+    <t>Altenbergstrasse66</t>
+  </si>
+  <si>
+    <t>Postfach 511</t>
+  </si>
+  <si>
+    <t>BERNE 25</t>
+  </si>
+  <si>
+    <t>ÉGLISE  RÉFORMÉE ÉVANGÉLIQUE DU CANTON DU VALAIS</t>
+  </si>
+  <si>
+    <t>Case postale 2185</t>
+  </si>
+  <si>
+    <t>SION 2</t>
+  </si>
+  <si>
+    <t>ÉGLISE  RÉFORMÉE ÉVANGÉLIQUE DE LA RÉPUBLIQUE ET CANTON DU JURA</t>
+  </si>
+  <si>
+    <t>Rue de la Préfecture 14</t>
+  </si>
+  <si>
+    <t>DELÉMONT</t>
+  </si>
+  <si>
+    <t>ÉVANGILE ET LIBERTÉ, Secrétariat</t>
+  </si>
+  <si>
+    <t>rue de Trévise 14</t>
+  </si>
+  <si>
+    <t>PARIS</t>
+  </si>
+  <si>
+    <t>FÉDÉRATION DES ÉGLISES PROTESTANTES DE LA SUISSE</t>
+  </si>
+  <si>
+    <t>Sulgenauweg 26</t>
+  </si>
+  <si>
+    <t>Case postale 36</t>
+  </si>
+  <si>
+    <t>BERNE 23</t>
+  </si>
+  <si>
+    <t>JOURNAL DE MORGES, Rédaction</t>
+  </si>
+  <si>
+    <t>Rue Saint-Louis 2</t>
+  </si>
+  <si>
+    <t>Case postale 614</t>
+  </si>
+  <si>
+    <t>MORGES 1</t>
+  </si>
+  <si>
+    <t>KIRCHENBOTE</t>
+  </si>
+  <si>
+    <t>Winkelriedplatz 6</t>
+  </si>
+  <si>
+    <t>Postfach</t>
+  </si>
+  <si>
+    <t>BASEL</t>
+  </si>
+  <si>
+    <t>LA CÔTE, Rédaction</t>
+  </si>
+  <si>
+    <t>Rte de Saint-Cergue 293</t>
+  </si>
+  <si>
+    <t>NYON</t>
+  </si>
+  <si>
+    <t>LA LIBERTÉ, Rédaction vaudoise</t>
+  </si>
+  <si>
+    <t>Pl. Grand-St-Jean 1</t>
+  </si>
+  <si>
+    <t>Case postale 6756</t>
+  </si>
+  <si>
+    <t>LA VIE PROTESTANTE GENEVOISE</t>
+  </si>
+  <si>
+    <t>PERRIER</t>
+  </si>
+  <si>
+    <t>Rue du Cloître 2</t>
+  </si>
+  <si>
+    <t>LE COURRIER, Rédaction vaudoise</t>
+  </si>
+  <si>
+    <t>LE MATIN, Rédaction</t>
+  </si>
+  <si>
+    <t>LE TEMPS, Rédaction de Lausanne</t>
+  </si>
+  <si>
+    <t>Pl. de la Gare 9 A</t>
+  </si>
+  <si>
+    <t>Case postale 1485</t>
+  </si>
+  <si>
+    <t>L'ECHO MAGAZINE, Rédaction</t>
+  </si>
+  <si>
+    <t>Rte de Meyrin 12</t>
+  </si>
+  <si>
+    <t>L'HEBDO, Rédaction</t>
+  </si>
+  <si>
+    <t>Rue Pont-Bessières 3</t>
+  </si>
+  <si>
+    <t>Case postale 3153</t>
+  </si>
+  <si>
+    <t>L'ILLUSTRÉ, Rédaction</t>
+  </si>
+  <si>
+    <t>Case postale 3100</t>
+  </si>
+  <si>
+    <t>OFFICE PROTESTANT DES ÉDITIONS CHRÉTIENNES</t>
+  </si>
+  <si>
+    <t>Case postale 709</t>
+  </si>
+  <si>
+    <t>PAROISSE RÉFORMÉE, Fichier paroissial</t>
+  </si>
+  <si>
+    <t>Quai du Haut 12</t>
+  </si>
+  <si>
+    <t>BIENNE</t>
+  </si>
+  <si>
+    <t>RÉFORME, Rédaction</t>
+  </si>
+  <si>
+    <t>avenue du Maine 5355</t>
+  </si>
+  <si>
+    <t>REFORMIERT</t>
+  </si>
+  <si>
+    <t>Postfach 312</t>
+  </si>
+  <si>
+    <t>BERNE 13</t>
+  </si>
+  <si>
+    <t>REFORMIERT ZÜRICH</t>
+  </si>
+  <si>
+    <t>Preyergasse 13</t>
+  </si>
+  <si>
+    <t>REFORMIERTE PRESSE, Rédaction</t>
+  </si>
+  <si>
+    <t>Badenerstrasse 69</t>
+  </si>
+  <si>
+    <t>REVUE CHOISIR</t>
+  </si>
+  <si>
+    <t>Rue Jacques-Dalphin 18</t>
+  </si>
+  <si>
+    <t>CAROUGE GE</t>
+  </si>
+  <si>
+    <t>REVUE SOURCES, Rédaction</t>
+  </si>
+  <si>
+    <t>Ch. de Grange-Canal 27 B</t>
+  </si>
+  <si>
+    <t>RTS Radio-Télévision-Suisse, Revue de presse</t>
+  </si>
+  <si>
+    <t>RTS VAUD RÉGION</t>
+  </si>
+  <si>
+    <t>Case postale 78</t>
+  </si>
+  <si>
+    <t>SERVICE PROTESTANT DE TÉLÉVISION ROMANDE</t>
+  </si>
+  <si>
+    <t>Case postale 234</t>
+  </si>
+  <si>
+    <t>SOCIÉTÉ BIBLIQUE SUISSE</t>
+  </si>
+  <si>
+    <t>Rue de l'Hôpital 12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;SFr.&quot;\ #,##0.00;[Red]&quot;SFr.&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -15821,8 +17045,31 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15847,13 +17094,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -15862,7 +17156,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -15893,6 +17187,63 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -16197,17 +17548,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2372"/>
+  <dimension ref="A1:M2511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2465" sqref="K2465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="34.42578125" customWidth="1"/>
     <col min="5" max="5" width="34.28515625" customWidth="1"/>
@@ -16215,7 +17566,7 @@
     <col min="9" max="9" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -16249,8 +17600,14 @@
       <c r="K1" t="s">
         <v>5251</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>5553</v>
+      </c>
+      <c r="M1" t="s">
+        <v>5554</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>41137.487604166701</v>
       </c>
@@ -16275,7 +17632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>41139.531643518501</v>
       </c>
@@ -16300,7 +17657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>41150.4466203704</v>
       </c>
@@ -16325,7 +17682,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>41150.640659722201</v>
       </c>
@@ -16350,7 +17707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>41151.353078703702</v>
       </c>
@@ -16375,7 +17732,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>41151.416956018496</v>
       </c>
@@ -16400,7 +17757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>41151.711979166699</v>
       </c>
@@ -16425,7 +17782,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>41151.846539351798</v>
       </c>
@@ -16450,7 +17807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>41152.293460648201</v>
       </c>
@@ -16477,7 +17834,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>41152.339305555601</v>
       </c>
@@ -16502,7 +17859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>41152.381111111099</v>
       </c>
@@ -16527,7 +17884,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>41152.425104166701</v>
       </c>
@@ -16552,7 +17909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>41152.429710648103</v>
       </c>
@@ -16577,7 +17934,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>41152.448553240698</v>
       </c>
@@ -16602,7 +17959,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>41152.457696759302</v>
       </c>
@@ -74063,7 +75420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2369" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2369" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2369" s="7" t="s">
         <v>10</v>
       </c>
@@ -74086,7 +75443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2370" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2370" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2370" s="7" t="s">
         <v>15</v>
       </c>
@@ -74109,7 +75466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2371" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2371" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2371" s="7" t="s">
         <v>15</v>
       </c>
@@ -74132,7 +75489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2372" spans="3:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2372" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2372" s="7" t="s">
         <v>15</v>
       </c>
@@ -74154,6 +75511,3517 @@
       <c r="K2372" s="12">
         <v>8</v>
       </c>
+    </row>
+    <row r="2374" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2374" s="15" t="s">
+        <v>5252</v>
+      </c>
+      <c r="C2374" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2374" s="15" t="s">
+        <v>5253</v>
+      </c>
+      <c r="E2374" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2374" s="15"/>
+      <c r="G2374" s="15" t="s">
+        <v>5254</v>
+      </c>
+      <c r="H2374" s="16">
+        <v>1002</v>
+      </c>
+      <c r="I2374" s="15" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2374" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2374" s="18"/>
+    </row>
+    <row r="2375" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2375" s="19" t="s">
+        <v>5257</v>
+      </c>
+      <c r="C2375" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2375" s="19" t="s">
+        <v>5258</v>
+      </c>
+      <c r="E2375" s="19" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F2375" s="19" t="s">
+        <v>5259</v>
+      </c>
+      <c r="G2375" s="18"/>
+      <c r="H2375" s="20">
+        <v>1204</v>
+      </c>
+      <c r="I2375" s="19" t="s">
+        <v>5260</v>
+      </c>
+      <c r="K2375" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2375" s="18"/>
+    </row>
+    <row r="2376" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2376" s="19" t="s">
+        <v>5262</v>
+      </c>
+      <c r="C2376" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2376" s="19" t="s">
+        <v>5263</v>
+      </c>
+      <c r="E2376" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F2376" s="19"/>
+      <c r="G2376" s="19" t="s">
+        <v>5264</v>
+      </c>
+      <c r="H2376" s="20">
+        <v>1211</v>
+      </c>
+      <c r="I2376" s="19" t="s">
+        <v>5265</v>
+      </c>
+      <c r="K2376" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2376" s="18"/>
+    </row>
+    <row r="2377" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2377" s="19" t="s">
+        <v>5266</v>
+      </c>
+      <c r="C2377" s="19" t="s">
+        <v>5267</v>
+      </c>
+      <c r="D2377" s="19" t="s">
+        <v>5268</v>
+      </c>
+      <c r="E2377" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2377" s="19"/>
+      <c r="G2377" s="19" t="s">
+        <v>5269</v>
+      </c>
+      <c r="H2377" s="20">
+        <v>1001</v>
+      </c>
+      <c r="I2377" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2377" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2377" s="18"/>
+    </row>
+    <row r="2378" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2378" s="19" t="s">
+        <v>5270</v>
+      </c>
+      <c r="C2378" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2378" s="19" t="s">
+        <v>5271</v>
+      </c>
+      <c r="E2378" s="19" t="s">
+        <v>5272</v>
+      </c>
+      <c r="F2378" s="19"/>
+      <c r="G2378" s="19" t="s">
+        <v>5273</v>
+      </c>
+      <c r="H2378" s="20">
+        <v>6903</v>
+      </c>
+      <c r="I2378" s="19" t="s">
+        <v>5274</v>
+      </c>
+      <c r="K2378" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2378" s="18"/>
+    </row>
+    <row r="2379" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2379" s="19" t="s">
+        <v>5275</v>
+      </c>
+      <c r="C2379" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2379" s="19" t="s">
+        <v>5276</v>
+      </c>
+      <c r="E2379" s="19" t="s">
+        <v>5277</v>
+      </c>
+      <c r="F2379" s="19"/>
+      <c r="G2379" s="19"/>
+      <c r="H2379" s="20">
+        <v>1844</v>
+      </c>
+      <c r="I2379" s="19" t="s">
+        <v>5278</v>
+      </c>
+      <c r="K2379" s="17" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L2379" s="18"/>
+    </row>
+    <row r="2380" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2380" s="22" t="s">
+        <v>5280</v>
+      </c>
+      <c r="C2380" s="15" t="s">
+        <v>5281</v>
+      </c>
+      <c r="D2380" s="15" t="s">
+        <v>5282</v>
+      </c>
+      <c r="E2380" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2380" s="15" t="s">
+        <v>5283</v>
+      </c>
+      <c r="G2380" s="18"/>
+      <c r="H2380" s="16">
+        <v>1204</v>
+      </c>
+      <c r="I2380" s="19" t="s">
+        <v>5260</v>
+      </c>
+      <c r="K2380" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2380" s="18"/>
+    </row>
+    <row r="2381" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2381" s="19" t="s">
+        <v>5284</v>
+      </c>
+      <c r="C2381" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2381" s="19" t="s">
+        <v>5285</v>
+      </c>
+      <c r="E2381" s="19" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F2381" s="19"/>
+      <c r="G2381" s="19" t="s">
+        <v>5286</v>
+      </c>
+      <c r="H2381" s="20">
+        <v>69241</v>
+      </c>
+      <c r="I2381" s="19" t="s">
+        <v>5287</v>
+      </c>
+      <c r="K2381" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2381" s="18"/>
+      <c r="M2381" s="18" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="2382" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2382" s="19" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C2382" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2382" s="19" t="s">
+        <v>5290</v>
+      </c>
+      <c r="E2382" s="19" t="s">
+        <v>3066</v>
+      </c>
+      <c r="F2382" s="19"/>
+      <c r="G2382" s="19" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H2382" s="20">
+        <v>1001</v>
+      </c>
+      <c r="I2382" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2382" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2382" s="18"/>
+      <c r="M2382" s="18"/>
+    </row>
+    <row r="2383" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2383" s="15" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C2383" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2383" s="15" t="s">
+        <v>5293</v>
+      </c>
+      <c r="E2383" s="23" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F2383" s="15" t="s">
+        <v>5294</v>
+      </c>
+      <c r="G2383" s="18"/>
+      <c r="H2383" s="16">
+        <v>8758</v>
+      </c>
+      <c r="I2383" s="15" t="s">
+        <v>5295</v>
+      </c>
+      <c r="K2383" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2383" s="18"/>
+      <c r="M2383" s="18"/>
+    </row>
+    <row r="2384" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2384" s="19" t="s">
+        <v>5296</v>
+      </c>
+      <c r="C2384" s="19" t="s">
+        <v>5281</v>
+      </c>
+      <c r="D2384" s="19" t="s">
+        <v>5297</v>
+      </c>
+      <c r="E2384" s="19" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2384" s="19"/>
+      <c r="G2384" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2384" s="20">
+        <v>1701</v>
+      </c>
+      <c r="I2384" s="19" t="s">
+        <v>5298</v>
+      </c>
+      <c r="K2384" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2384" s="18"/>
+      <c r="M2384" s="18"/>
+    </row>
+    <row r="2385" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2385" s="19" t="s">
+        <v>5299</v>
+      </c>
+      <c r="C2385" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2385" s="19" t="s">
+        <v>5300</v>
+      </c>
+      <c r="E2385" s="19" t="s">
+        <v>4838</v>
+      </c>
+      <c r="F2385" s="19" t="s">
+        <v>5301</v>
+      </c>
+      <c r="G2385" s="18"/>
+      <c r="H2385" s="20">
+        <v>1010</v>
+      </c>
+      <c r="I2385" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2385" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2385" s="18"/>
+      <c r="M2385" s="18"/>
+    </row>
+    <row r="2386" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2386" s="19" t="s">
+        <v>5302</v>
+      </c>
+      <c r="C2386" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2386" s="19" t="s">
+        <v>5303</v>
+      </c>
+      <c r="E2386" s="19" t="s">
+        <v>4573</v>
+      </c>
+      <c r="F2386" s="19" t="s">
+        <v>5304</v>
+      </c>
+      <c r="G2386" s="18"/>
+      <c r="H2386" s="20">
+        <v>1675</v>
+      </c>
+      <c r="I2386" s="19" t="s">
+        <v>5305</v>
+      </c>
+      <c r="K2386" s="17" t="s">
+        <v>5306</v>
+      </c>
+      <c r="L2386" s="18"/>
+      <c r="M2386" s="18"/>
+    </row>
+    <row r="2387" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2387" s="19" t="s">
+        <v>5307</v>
+      </c>
+      <c r="C2387" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2387" s="19" t="s">
+        <v>5308</v>
+      </c>
+      <c r="E2387" s="19" t="s">
+        <v>3030</v>
+      </c>
+      <c r="F2387" s="19"/>
+      <c r="G2387" s="19" t="s">
+        <v>5309</v>
+      </c>
+      <c r="H2387" s="20">
+        <v>1211</v>
+      </c>
+      <c r="I2387" s="19" t="s">
+        <v>5310</v>
+      </c>
+      <c r="K2387" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2387" s="18"/>
+      <c r="M2387" s="18"/>
+    </row>
+    <row r="2388" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2388" s="19" t="s">
+        <v>5311</v>
+      </c>
+      <c r="C2388" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2388" s="19" t="s">
+        <v>5312</v>
+      </c>
+      <c r="E2388" s="19" t="s">
+        <v>5313</v>
+      </c>
+      <c r="F2388" s="19"/>
+      <c r="G2388" s="19" t="s">
+        <v>5314</v>
+      </c>
+      <c r="H2388" s="20">
+        <v>2500</v>
+      </c>
+      <c r="I2388" s="19" t="s">
+        <v>5315</v>
+      </c>
+      <c r="K2388" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2388" s="18"/>
+      <c r="M2388" s="18"/>
+    </row>
+    <row r="2389" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2389" s="19" t="s">
+        <v>5316</v>
+      </c>
+      <c r="C2389" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2389" s="19" t="s">
+        <v>5317</v>
+      </c>
+      <c r="E2389" s="19" t="s">
+        <v>5318</v>
+      </c>
+      <c r="F2389" s="19"/>
+      <c r="G2389" s="19"/>
+      <c r="H2389" s="20">
+        <v>13887</v>
+      </c>
+      <c r="I2389" s="19" t="s">
+        <v>5319</v>
+      </c>
+      <c r="K2389" s="17" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L2389" s="18"/>
+      <c r="M2389" s="18" t="s">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="2391" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2391" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2391" s="15" t="s">
+        <v>5321</v>
+      </c>
+      <c r="E2391" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="F2391" s="18"/>
+      <c r="G2391" s="15" t="s">
+        <v>5322</v>
+      </c>
+      <c r="H2391" s="16">
+        <v>1462</v>
+      </c>
+      <c r="I2391" s="15" t="s">
+        <v>5323</v>
+      </c>
+      <c r="K2391" s="17">
+        <v>7</v>
+      </c>
+      <c r="L2391" s="18"/>
+      <c r="M2391" s="18"/>
+    </row>
+    <row r="2392" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2392" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2392" s="19" t="s">
+        <v>5324</v>
+      </c>
+      <c r="E2392" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2392" s="19" t="s">
+        <v>5325</v>
+      </c>
+      <c r="G2392" s="19"/>
+      <c r="H2392" s="20">
+        <v>2016</v>
+      </c>
+      <c r="I2392" s="19" t="s">
+        <v>5326</v>
+      </c>
+      <c r="K2392" s="17" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2392" s="18"/>
+      <c r="M2392" s="18"/>
+    </row>
+    <row r="2393" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2393" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2393" s="15" t="s">
+        <v>5328</v>
+      </c>
+      <c r="E2393" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2393" s="19" t="s">
+        <v>5329</v>
+      </c>
+      <c r="G2393" s="15"/>
+      <c r="H2393" s="16">
+        <v>2830</v>
+      </c>
+      <c r="I2393" s="15" t="s">
+        <v>5330</v>
+      </c>
+      <c r="K2393" s="17" t="s">
+        <v>5306</v>
+      </c>
+      <c r="L2393" s="18"/>
+      <c r="M2393" s="18"/>
+    </row>
+    <row r="2394" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2394" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2394" s="19" t="s">
+        <v>5331</v>
+      </c>
+      <c r="E2394" s="19" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F2394" s="19" t="s">
+        <v>5332</v>
+      </c>
+      <c r="G2394" s="19"/>
+      <c r="H2394" s="20">
+        <v>1630</v>
+      </c>
+      <c r="I2394" s="19" t="s">
+        <v>5333</v>
+      </c>
+      <c r="K2394" s="17" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2394" s="21"/>
+      <c r="M2394" s="18"/>
+    </row>
+    <row r="2395" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2395" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2395" s="24" t="s">
+        <v>5335</v>
+      </c>
+      <c r="E2395" s="24" t="s">
+        <v>5336</v>
+      </c>
+      <c r="F2395" s="24" t="s">
+        <v>5337</v>
+      </c>
+      <c r="G2395" s="24"/>
+      <c r="H2395" s="25">
+        <v>1740</v>
+      </c>
+      <c r="I2395" s="24" t="s">
+        <v>5338</v>
+      </c>
+      <c r="K2395" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2395" s="27"/>
+      <c r="M2395" s="18"/>
+    </row>
+    <row r="2396" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2396" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2396" s="19" t="s">
+        <v>5339</v>
+      </c>
+      <c r="E2396" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="F2396" s="19" t="s">
+        <v>5340</v>
+      </c>
+      <c r="G2396" s="19"/>
+      <c r="H2396" s="20">
+        <v>2126</v>
+      </c>
+      <c r="I2396" s="19" t="s">
+        <v>5341</v>
+      </c>
+      <c r="K2396" s="17" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2396" s="21"/>
+      <c r="M2396" s="18"/>
+    </row>
+    <row r="2397" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2397" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2397" s="19" t="s">
+        <v>5342</v>
+      </c>
+      <c r="E2397" s="19" t="s">
+        <v>1638</v>
+      </c>
+      <c r="F2397" s="19" t="s">
+        <v>5343</v>
+      </c>
+      <c r="G2397" s="19"/>
+      <c r="H2397" s="20">
+        <v>1700</v>
+      </c>
+      <c r="I2397" s="19" t="s">
+        <v>5298</v>
+      </c>
+      <c r="K2397" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2397" s="18"/>
+      <c r="M2397" s="18"/>
+    </row>
+    <row r="2398" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2398" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2398" s="19" t="s">
+        <v>5344</v>
+      </c>
+      <c r="E2398" s="19" t="s">
+        <v>5345</v>
+      </c>
+      <c r="F2398" s="19" t="s">
+        <v>5346</v>
+      </c>
+      <c r="G2398" s="19"/>
+      <c r="H2398" s="20">
+        <v>2000</v>
+      </c>
+      <c r="I2398" s="19" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K2398" s="17" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L2398" s="28"/>
+      <c r="M2398" s="18"/>
+    </row>
+    <row r="2399" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2399" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2399" s="19" t="s">
+        <v>5348</v>
+      </c>
+      <c r="E2399" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2399" s="19" t="s">
+        <v>5349</v>
+      </c>
+      <c r="G2399" s="19"/>
+      <c r="H2399" s="20">
+        <v>2035</v>
+      </c>
+      <c r="I2399" s="19" t="s">
+        <v>5350</v>
+      </c>
+      <c r="K2399" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2399" s="18"/>
+      <c r="M2399" s="18"/>
+    </row>
+    <row r="2400" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2400" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2400" s="19" t="s">
+        <v>5351</v>
+      </c>
+      <c r="E2400" s="19" t="s">
+        <v>5352</v>
+      </c>
+      <c r="F2400" s="19" t="s">
+        <v>5353</v>
+      </c>
+      <c r="G2400" s="19"/>
+      <c r="H2400" s="20">
+        <v>1110</v>
+      </c>
+      <c r="I2400" s="19" t="s">
+        <v>5354</v>
+      </c>
+      <c r="K2400" s="17" t="s">
+        <v>5306</v>
+      </c>
+      <c r="L2400" s="21"/>
+      <c r="M2400" s="18"/>
+    </row>
+    <row r="2401" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2401" s="19" t="s">
+        <v>5355</v>
+      </c>
+      <c r="D2401" s="19" t="s">
+        <v>5356</v>
+      </c>
+      <c r="E2401" s="19" t="s">
+        <v>5357</v>
+      </c>
+      <c r="F2401" s="19" t="s">
+        <v>5358</v>
+      </c>
+      <c r="G2401" s="19"/>
+      <c r="H2401" s="20">
+        <v>1617</v>
+      </c>
+      <c r="I2401" s="19" t="s">
+        <v>5359</v>
+      </c>
+      <c r="K2401" s="17" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L2401" s="21"/>
+      <c r="M2401" s="18"/>
+    </row>
+    <row r="2402" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2402" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2402" s="19" t="s">
+        <v>5360</v>
+      </c>
+      <c r="E2402" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2402" s="19" t="s">
+        <v>5361</v>
+      </c>
+      <c r="G2402" s="19"/>
+      <c r="H2402" s="20">
+        <v>1804</v>
+      </c>
+      <c r="I2402" s="19" t="s">
+        <v>5362</v>
+      </c>
+      <c r="K2402" s="17" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2402" s="21"/>
+      <c r="M2402" s="18"/>
+    </row>
+    <row r="2403" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2403" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2403" s="19" t="s">
+        <v>5363</v>
+      </c>
+      <c r="E2403" s="19" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F2403" s="19" t="s">
+        <v>5364</v>
+      </c>
+      <c r="G2403" s="19"/>
+      <c r="H2403" s="20">
+        <v>1258</v>
+      </c>
+      <c r="I2403" s="19" t="s">
+        <v>5365</v>
+      </c>
+      <c r="K2403" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2403" s="18"/>
+      <c r="M2403" s="18"/>
+    </row>
+    <row r="2404" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2404" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2404" s="19" t="s">
+        <v>5366</v>
+      </c>
+      <c r="E2404" s="19" t="s">
+        <v>5367</v>
+      </c>
+      <c r="F2404" s="19" t="s">
+        <v>5368</v>
+      </c>
+      <c r="G2404" s="19" t="s">
+        <v>5369</v>
+      </c>
+      <c r="H2404" s="20">
+        <v>1001</v>
+      </c>
+      <c r="I2404" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2404" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2404" s="18">
+        <v>3</v>
+      </c>
+      <c r="M2404" s="18"/>
+    </row>
+    <row r="2405" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2405" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2405" s="24" t="s">
+        <v>5370</v>
+      </c>
+      <c r="E2405" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2405" s="24" t="s">
+        <v>5371</v>
+      </c>
+      <c r="G2405" s="24"/>
+      <c r="H2405" s="25">
+        <v>2000</v>
+      </c>
+      <c r="I2405" s="24" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K2405" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2405" s="29"/>
+      <c r="M2405" s="30"/>
+    </row>
+    <row r="2406" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2406" s="24" t="s">
+        <v>5372</v>
+      </c>
+      <c r="D2406" s="24" t="s">
+        <v>5373</v>
+      </c>
+      <c r="E2406" s="24" t="s">
+        <v>5374</v>
+      </c>
+      <c r="F2406" s="24" t="s">
+        <v>5375</v>
+      </c>
+      <c r="G2406" s="24"/>
+      <c r="H2406" s="25">
+        <v>1774</v>
+      </c>
+      <c r="I2406" s="24" t="s">
+        <v>5376</v>
+      </c>
+      <c r="K2406" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2406" s="29"/>
+      <c r="M2406" s="30"/>
+    </row>
+    <row r="2407" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2407" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2407" s="24" t="s">
+        <v>5377</v>
+      </c>
+      <c r="E2407" s="24" t="s">
+        <v>1412</v>
+      </c>
+      <c r="F2407" s="24" t="s">
+        <v>5378</v>
+      </c>
+      <c r="G2407" s="24"/>
+      <c r="H2407" s="25">
+        <v>1820</v>
+      </c>
+      <c r="I2407" s="24" t="s">
+        <v>5379</v>
+      </c>
+      <c r="K2407" s="26" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2407" s="29"/>
+      <c r="M2407" s="30"/>
+    </row>
+    <row r="2408" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2408" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2408" s="24" t="s">
+        <v>5380</v>
+      </c>
+      <c r="E2408" s="24" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F2408" s="24" t="s">
+        <v>5381</v>
+      </c>
+      <c r="G2408" s="24"/>
+      <c r="H2408" s="25">
+        <v>4102</v>
+      </c>
+      <c r="I2408" s="24" t="s">
+        <v>5382</v>
+      </c>
+      <c r="K2408" s="26" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2408" s="29"/>
+      <c r="M2408" s="30"/>
+    </row>
+    <row r="2409" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2409" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2409" s="24" t="s">
+        <v>5383</v>
+      </c>
+      <c r="E2409" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2409" s="24" t="s">
+        <v>5384</v>
+      </c>
+      <c r="G2409" s="24"/>
+      <c r="H2409" s="25">
+        <v>1815</v>
+      </c>
+      <c r="I2409" s="24" t="s">
+        <v>5385</v>
+      </c>
+      <c r="K2409" s="26" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2409" s="29"/>
+      <c r="M2409" s="30"/>
+    </row>
+    <row r="2410" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2410" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2410" s="24" t="s">
+        <v>5386</v>
+      </c>
+      <c r="E2410" s="24" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F2410" s="24" t="s">
+        <v>5225</v>
+      </c>
+      <c r="G2410" s="24"/>
+      <c r="H2410" s="25">
+        <v>1483</v>
+      </c>
+      <c r="I2410" s="24" t="s">
+        <v>5387</v>
+      </c>
+      <c r="K2410" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2410" s="29"/>
+      <c r="M2410" s="30"/>
+    </row>
+    <row r="2411" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2411" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2411" s="24" t="s">
+        <v>5388</v>
+      </c>
+      <c r="E2411" s="24" t="s">
+        <v>909</v>
+      </c>
+      <c r="F2411" s="24" t="s">
+        <v>5389</v>
+      </c>
+      <c r="G2411" s="24"/>
+      <c r="H2411" s="25">
+        <v>3280</v>
+      </c>
+      <c r="I2411" s="24" t="s">
+        <v>5390</v>
+      </c>
+      <c r="K2411" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2411" s="29"/>
+      <c r="M2411" s="30"/>
+    </row>
+    <row r="2412" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2412" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2412" s="24" t="s">
+        <v>5391</v>
+      </c>
+      <c r="E2412" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="F2412" s="24" t="s">
+        <v>5392</v>
+      </c>
+      <c r="G2412" s="24"/>
+      <c r="H2412" s="25">
+        <v>1965</v>
+      </c>
+      <c r="I2412" s="24" t="s">
+        <v>5393</v>
+      </c>
+      <c r="K2412" s="26" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L2412" s="29"/>
+      <c r="M2412" s="30"/>
+    </row>
+    <row r="2413" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2413" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2413" s="24" t="s">
+        <v>5394</v>
+      </c>
+      <c r="E2413" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="F2413" s="24" t="s">
+        <v>5395</v>
+      </c>
+      <c r="G2413" s="24"/>
+      <c r="H2413" s="25">
+        <v>1004</v>
+      </c>
+      <c r="I2413" s="24" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2413" s="26" t="s">
+        <v>5396</v>
+      </c>
+      <c r="L2413" s="29"/>
+      <c r="M2413" s="30"/>
+    </row>
+    <row r="2414" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2414" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2414" s="24" t="s">
+        <v>5397</v>
+      </c>
+      <c r="E2414" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2414" s="24" t="s">
+        <v>5398</v>
+      </c>
+      <c r="G2414" s="24"/>
+      <c r="H2414" s="25">
+        <v>1700</v>
+      </c>
+      <c r="I2414" s="24" t="s">
+        <v>5298</v>
+      </c>
+      <c r="K2414" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2414" s="29"/>
+      <c r="M2414" s="30"/>
+    </row>
+    <row r="2415" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2415" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2415" s="24" t="s">
+        <v>5399</v>
+      </c>
+      <c r="E2415" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2415" s="24" t="s">
+        <v>5400</v>
+      </c>
+      <c r="G2415" s="24"/>
+      <c r="H2415" s="25">
+        <v>1027</v>
+      </c>
+      <c r="I2415" s="24" t="s">
+        <v>5401</v>
+      </c>
+      <c r="K2415" s="26" t="s">
+        <v>5402</v>
+      </c>
+      <c r="L2415" s="29"/>
+      <c r="M2415" s="30"/>
+    </row>
+    <row r="2416" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2416" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2416" s="24" t="s">
+        <v>5403</v>
+      </c>
+      <c r="E2416" s="24" t="s">
+        <v>5404</v>
+      </c>
+      <c r="F2416" s="24" t="s">
+        <v>5405</v>
+      </c>
+      <c r="G2416" s="24"/>
+      <c r="H2416" s="25">
+        <v>1920</v>
+      </c>
+      <c r="I2416" s="24" t="s">
+        <v>5406</v>
+      </c>
+      <c r="K2416" s="26" t="s">
+        <v>5407</v>
+      </c>
+      <c r="L2416" s="29"/>
+      <c r="M2416" s="30"/>
+    </row>
+    <row r="2417" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2417" s="31" t="s">
+        <v>5372</v>
+      </c>
+      <c r="D2417" s="24" t="s">
+        <v>5258</v>
+      </c>
+      <c r="E2417" s="24" t="s">
+        <v>5408</v>
+      </c>
+      <c r="F2417" s="24" t="s">
+        <v>5400</v>
+      </c>
+      <c r="G2417" s="24"/>
+      <c r="H2417" s="25">
+        <v>1027</v>
+      </c>
+      <c r="I2417" s="24" t="s">
+        <v>5401</v>
+      </c>
+      <c r="K2417" s="26" t="s">
+        <v>5402</v>
+      </c>
+      <c r="L2417" s="29"/>
+      <c r="M2417" s="30"/>
+    </row>
+    <row r="2418" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2418" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2418" s="24" t="s">
+        <v>5409</v>
+      </c>
+      <c r="E2418" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="F2418" s="24" t="s">
+        <v>5410</v>
+      </c>
+      <c r="G2418" s="24"/>
+      <c r="H2418" s="25">
+        <v>1786</v>
+      </c>
+      <c r="I2418" s="24" t="s">
+        <v>5411</v>
+      </c>
+      <c r="K2418" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2418" s="29"/>
+      <c r="M2418" s="30"/>
+    </row>
+    <row r="2419" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2419" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2419" s="24" t="s">
+        <v>5412</v>
+      </c>
+      <c r="E2419" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2419" s="24" t="s">
+        <v>5413</v>
+      </c>
+      <c r="G2419" s="24"/>
+      <c r="H2419" s="25">
+        <v>1206</v>
+      </c>
+      <c r="I2419" s="24" t="s">
+        <v>5260</v>
+      </c>
+      <c r="K2419" s="26" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2419" s="29"/>
+      <c r="M2419" s="30"/>
+    </row>
+    <row r="2420" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2420" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2420" s="24" t="s">
+        <v>5414</v>
+      </c>
+      <c r="E2420" s="24" t="s">
+        <v>5415</v>
+      </c>
+      <c r="F2420" s="24" t="s">
+        <v>5416</v>
+      </c>
+      <c r="G2420" s="24"/>
+      <c r="H2420" s="25">
+        <v>1563</v>
+      </c>
+      <c r="I2420" s="24" t="s">
+        <v>5417</v>
+      </c>
+      <c r="K2420" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2420" s="29"/>
+      <c r="M2420" s="30"/>
+    </row>
+    <row r="2421" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2421" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2421" s="24" t="s">
+        <v>5418</v>
+      </c>
+      <c r="E2421" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2421" s="24" t="s">
+        <v>5419</v>
+      </c>
+      <c r="G2421" s="24"/>
+      <c r="H2421" s="25">
+        <v>1110</v>
+      </c>
+      <c r="I2421" s="24" t="s">
+        <v>5354</v>
+      </c>
+      <c r="K2421" s="26" t="s">
+        <v>5402</v>
+      </c>
+      <c r="L2421" s="29"/>
+      <c r="M2421" s="30"/>
+    </row>
+    <row r="2422" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2422" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2422" s="24" t="s">
+        <v>5420</v>
+      </c>
+      <c r="E2422" s="24" t="s">
+        <v>1871</v>
+      </c>
+      <c r="F2422" s="24" t="s">
+        <v>5421</v>
+      </c>
+      <c r="G2422" s="24"/>
+      <c r="H2422" s="25">
+        <v>1675</v>
+      </c>
+      <c r="I2422" s="24" t="s">
+        <v>5422</v>
+      </c>
+      <c r="K2422" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2422" s="29"/>
+      <c r="M2422" s="30"/>
+    </row>
+    <row r="2423" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2423" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2423" s="24" t="s">
+        <v>5423</v>
+      </c>
+      <c r="E2423" s="24" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F2423" s="24" t="s">
+        <v>5424</v>
+      </c>
+      <c r="G2423" s="24"/>
+      <c r="H2423" s="25">
+        <v>3661</v>
+      </c>
+      <c r="I2423" s="24" t="s">
+        <v>5425</v>
+      </c>
+      <c r="K2423" s="26" t="s">
+        <v>5402</v>
+      </c>
+      <c r="L2423" s="29"/>
+      <c r="M2423" s="30"/>
+    </row>
+    <row r="2424" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2424" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2424" s="24" t="s">
+        <v>5426</v>
+      </c>
+      <c r="E2424" s="24" t="s">
+        <v>5427</v>
+      </c>
+      <c r="F2424" s="24" t="s">
+        <v>5428</v>
+      </c>
+      <c r="G2424" s="24"/>
+      <c r="H2424" s="25">
+        <v>1004</v>
+      </c>
+      <c r="I2424" s="24" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2424" s="26" t="s">
+        <v>5429</v>
+      </c>
+      <c r="L2424" s="29"/>
+      <c r="M2424" s="30"/>
+    </row>
+    <row r="2425" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2425" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2425" s="24" t="s">
+        <v>5430</v>
+      </c>
+      <c r="E2425" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2425" s="24" t="s">
+        <v>5431</v>
+      </c>
+      <c r="G2425" s="24"/>
+      <c r="H2425" s="25">
+        <v>2015</v>
+      </c>
+      <c r="I2425" s="24" t="s">
+        <v>5432</v>
+      </c>
+      <c r="K2425" s="26" t="s">
+        <v>5396</v>
+      </c>
+      <c r="L2425" s="29"/>
+      <c r="M2425" s="30"/>
+    </row>
+    <row r="2426" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2426" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2426" s="24" t="s">
+        <v>5433</v>
+      </c>
+      <c r="E2426" s="24" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F2426" s="24" t="s">
+        <v>5434</v>
+      </c>
+      <c r="G2426" s="24"/>
+      <c r="H2426" s="25">
+        <v>1218</v>
+      </c>
+      <c r="I2426" s="24" t="s">
+        <v>5435</v>
+      </c>
+      <c r="K2426" s="26" t="s">
+        <v>5429</v>
+      </c>
+      <c r="L2426" s="29"/>
+      <c r="M2426" s="30"/>
+    </row>
+    <row r="2427" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2427" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2427" s="24" t="s">
+        <v>5436</v>
+      </c>
+      <c r="E2427" s="24" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2427" s="24" t="s">
+        <v>5437</v>
+      </c>
+      <c r="G2427" s="24"/>
+      <c r="H2427" s="25">
+        <v>1700</v>
+      </c>
+      <c r="I2427" s="24" t="s">
+        <v>5298</v>
+      </c>
+      <c r="K2427" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2427" s="29"/>
+      <c r="M2427" s="30"/>
+    </row>
+    <row r="2428" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2428" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2428" s="24" t="s">
+        <v>5438</v>
+      </c>
+      <c r="E2428" s="24" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F2428" s="24" t="s">
+        <v>5226</v>
+      </c>
+      <c r="G2428" s="24"/>
+      <c r="H2428" s="25">
+        <v>1740</v>
+      </c>
+      <c r="I2428" s="24" t="s">
+        <v>5338</v>
+      </c>
+      <c r="K2428" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2428" s="29"/>
+      <c r="M2428" s="30"/>
+    </row>
+    <row r="2429" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2429" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2429" s="24" t="s">
+        <v>5439</v>
+      </c>
+      <c r="E2429" s="24" t="s">
+        <v>5212</v>
+      </c>
+      <c r="F2429" s="24" t="s">
+        <v>5221</v>
+      </c>
+      <c r="G2429" s="24"/>
+      <c r="H2429" s="25">
+        <v>1213</v>
+      </c>
+      <c r="I2429" s="24" t="s">
+        <v>5440</v>
+      </c>
+      <c r="K2429" s="26" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L2429" s="29"/>
+      <c r="M2429" s="30"/>
+    </row>
+    <row r="2430" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2430" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2430" s="24" t="s">
+        <v>5441</v>
+      </c>
+      <c r="E2430" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="F2430" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="G2430" s="24"/>
+      <c r="H2430" s="25">
+        <v>1252</v>
+      </c>
+      <c r="I2430" s="24" t="s">
+        <v>5442</v>
+      </c>
+      <c r="K2430" s="26" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2430" s="29"/>
+      <c r="M2430" s="30"/>
+    </row>
+    <row r="2431" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2431" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2431" s="24" t="s">
+        <v>5443</v>
+      </c>
+      <c r="E2431" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="F2431" s="24" t="s">
+        <v>5444</v>
+      </c>
+      <c r="G2431" s="24"/>
+      <c r="H2431" s="25">
+        <v>5405</v>
+      </c>
+      <c r="I2431" s="24" t="s">
+        <v>5445</v>
+      </c>
+      <c r="K2431" s="26" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2431" s="29"/>
+      <c r="M2431" s="30"/>
+    </row>
+    <row r="2432" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2432" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2432" s="24" t="s">
+        <v>5446</v>
+      </c>
+      <c r="E2432" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2432" s="24" t="s">
+        <v>5447</v>
+      </c>
+      <c r="G2432" s="24"/>
+      <c r="H2432" s="25">
+        <v>1690</v>
+      </c>
+      <c r="I2432" s="24" t="s">
+        <v>5448</v>
+      </c>
+      <c r="K2432" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2432" s="29"/>
+      <c r="M2432" s="30"/>
+    </row>
+    <row r="2433" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2433" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2433" s="24" t="s">
+        <v>5449</v>
+      </c>
+      <c r="E2433" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2433" s="24" t="s">
+        <v>5450</v>
+      </c>
+      <c r="G2433" s="24"/>
+      <c r="H2433" s="25">
+        <v>1226</v>
+      </c>
+      <c r="I2433" s="24" t="s">
+        <v>5451</v>
+      </c>
+      <c r="K2433" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2433" s="29"/>
+      <c r="M2433" s="30"/>
+    </row>
+    <row r="2434" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2434" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2434" s="24" t="s">
+        <v>5452</v>
+      </c>
+      <c r="E2434" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2434" s="24" t="s">
+        <v>5218</v>
+      </c>
+      <c r="G2434" s="24"/>
+      <c r="H2434" s="25">
+        <v>3280</v>
+      </c>
+      <c r="I2434" s="24" t="s">
+        <v>5390</v>
+      </c>
+      <c r="K2434" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2434" s="29"/>
+      <c r="M2434" s="30"/>
+    </row>
+    <row r="2435" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2435" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2435" s="24" t="s">
+        <v>5453</v>
+      </c>
+      <c r="E2435" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2435" s="24" t="s">
+        <v>5041</v>
+      </c>
+      <c r="G2435" s="24"/>
+      <c r="H2435" s="25">
+        <v>1852</v>
+      </c>
+      <c r="I2435" s="24" t="s">
+        <v>5454</v>
+      </c>
+      <c r="K2435" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2435" s="29"/>
+      <c r="M2435" s="30"/>
+    </row>
+    <row r="2436" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2436" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2436" s="24" t="s">
+        <v>5455</v>
+      </c>
+      <c r="E2436" s="24" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F2436" s="24" t="s">
+        <v>5456</v>
+      </c>
+      <c r="G2436" s="24"/>
+      <c r="H2436" s="25">
+        <v>1213</v>
+      </c>
+      <c r="I2436" s="24" t="s">
+        <v>5457</v>
+      </c>
+      <c r="K2436" s="26" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L2436" s="29"/>
+      <c r="M2436" s="30"/>
+    </row>
+    <row r="2437" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2437" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2437" s="24" t="s">
+        <v>5458</v>
+      </c>
+      <c r="E2437" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2437" s="24"/>
+      <c r="G2437" s="24"/>
+      <c r="H2437" s="25">
+        <v>6672</v>
+      </c>
+      <c r="I2437" s="24" t="s">
+        <v>5459</v>
+      </c>
+      <c r="K2437" s="26" t="s">
+        <v>5402</v>
+      </c>
+      <c r="L2437" s="29"/>
+      <c r="M2437" s="30"/>
+    </row>
+    <row r="2438" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2438" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2438" s="24" t="s">
+        <v>5460</v>
+      </c>
+      <c r="E2438" s="24" t="s">
+        <v>5062</v>
+      </c>
+      <c r="F2438" s="24" t="s">
+        <v>5461</v>
+      </c>
+      <c r="G2438" s="24"/>
+      <c r="H2438" s="25">
+        <v>1034</v>
+      </c>
+      <c r="I2438" s="24" t="s">
+        <v>5462</v>
+      </c>
+      <c r="K2438" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2438" s="29"/>
+      <c r="M2438" s="30"/>
+    </row>
+    <row r="2439" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2439" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2439" s="24" t="s">
+        <v>5463</v>
+      </c>
+      <c r="E2439" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="F2439" s="24" t="s">
+        <v>5217</v>
+      </c>
+      <c r="G2439" s="24"/>
+      <c r="H2439" s="25">
+        <v>1687</v>
+      </c>
+      <c r="I2439" s="24" t="s">
+        <v>5464</v>
+      </c>
+      <c r="K2439" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2439" s="29"/>
+      <c r="M2439" s="30"/>
+    </row>
+    <row r="2440" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2440" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2440" s="24" t="s">
+        <v>5465</v>
+      </c>
+      <c r="E2440" s="24" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F2440" s="24" t="s">
+        <v>5466</v>
+      </c>
+      <c r="G2440" s="24"/>
+      <c r="H2440" s="25">
+        <v>1008</v>
+      </c>
+      <c r="I2440" s="24" t="s">
+        <v>5467</v>
+      </c>
+      <c r="K2440" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2440" s="29"/>
+      <c r="M2440" s="30"/>
+    </row>
+    <row r="2441" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2441" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2441" s="32" t="s">
+        <v>5468</v>
+      </c>
+      <c r="E2441" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="F2441" s="32" t="s">
+        <v>5469</v>
+      </c>
+      <c r="G2441" s="32"/>
+      <c r="H2441" s="33">
+        <v>1293</v>
+      </c>
+      <c r="I2441" s="32" t="s">
+        <v>5470</v>
+      </c>
+      <c r="K2441" s="34" t="s">
+        <v>5429</v>
+      </c>
+      <c r="L2441" s="35"/>
+      <c r="M2441" s="36"/>
+    </row>
+    <row r="2442" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2442" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2442" s="32" t="s">
+        <v>5471</v>
+      </c>
+      <c r="E2442" s="32" t="s">
+        <v>883</v>
+      </c>
+      <c r="F2442" s="32" t="s">
+        <v>5222</v>
+      </c>
+      <c r="G2442" s="32"/>
+      <c r="H2442" s="33">
+        <v>1528</v>
+      </c>
+      <c r="I2442" s="32" t="s">
+        <v>5472</v>
+      </c>
+      <c r="K2442" s="34" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2442" s="35"/>
+      <c r="M2442" s="36"/>
+    </row>
+    <row r="2443" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2443" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2443" s="24" t="s">
+        <v>5473</v>
+      </c>
+      <c r="E2443" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2443" s="24" t="s">
+        <v>5474</v>
+      </c>
+      <c r="G2443" s="24"/>
+      <c r="H2443" s="25">
+        <v>1223</v>
+      </c>
+      <c r="I2443" s="24" t="s">
+        <v>5475</v>
+      </c>
+      <c r="K2443" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2443" s="29"/>
+      <c r="M2443" s="30"/>
+    </row>
+    <row r="2444" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2444" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2444" s="24" t="s">
+        <v>5476</v>
+      </c>
+      <c r="E2444" s="24" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2444" s="24" t="s">
+        <v>5477</v>
+      </c>
+      <c r="G2444" s="24"/>
+      <c r="H2444" s="25">
+        <v>3960</v>
+      </c>
+      <c r="I2444" s="24" t="s">
+        <v>5478</v>
+      </c>
+      <c r="K2444" s="26" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2444" s="29"/>
+      <c r="M2444" s="30"/>
+    </row>
+    <row r="2445" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2445" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2445" s="24" t="s">
+        <v>5479</v>
+      </c>
+      <c r="E2445" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="F2445" s="24" t="s">
+        <v>5480</v>
+      </c>
+      <c r="G2445" s="24"/>
+      <c r="H2445" s="25">
+        <v>7742</v>
+      </c>
+      <c r="I2445" s="24" t="s">
+        <v>5481</v>
+      </c>
+      <c r="K2445" s="26" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L2445" s="29"/>
+      <c r="M2445" s="30"/>
+    </row>
+    <row r="2446" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2446" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2446" s="24" t="s">
+        <v>5482</v>
+      </c>
+      <c r="E2446" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="F2446" s="24" t="s">
+        <v>5223</v>
+      </c>
+      <c r="G2446" s="24"/>
+      <c r="H2446" s="25">
+        <v>1205</v>
+      </c>
+      <c r="I2446" s="24" t="s">
+        <v>5260</v>
+      </c>
+      <c r="K2446" s="26" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2446" s="29"/>
+      <c r="M2446" s="30"/>
+    </row>
+    <row r="2447" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2447" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2447" s="24" t="s">
+        <v>5483</v>
+      </c>
+      <c r="E2447" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="F2447" s="24" t="s">
+        <v>5484</v>
+      </c>
+      <c r="G2447" s="24"/>
+      <c r="H2447" s="25">
+        <v>1233</v>
+      </c>
+      <c r="I2447" s="24" t="s">
+        <v>5485</v>
+      </c>
+      <c r="K2447" s="26" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2447" s="29"/>
+      <c r="M2447" s="30"/>
+    </row>
+    <row r="2448" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2448" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2448" s="24" t="s">
+        <v>5486</v>
+      </c>
+      <c r="E2448" s="24" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F2448" s="24" t="s">
+        <v>5487</v>
+      </c>
+      <c r="G2448" s="24"/>
+      <c r="H2448" s="25">
+        <v>1226</v>
+      </c>
+      <c r="I2448" s="24" t="s">
+        <v>5451</v>
+      </c>
+      <c r="K2448" s="26" t="s">
+        <v>5488</v>
+      </c>
+      <c r="L2448" s="29"/>
+      <c r="M2448" s="30"/>
+    </row>
+    <row r="2449" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2449" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2449" s="24" t="s">
+        <v>5489</v>
+      </c>
+      <c r="E2449" s="24" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F2449" s="24" t="s">
+        <v>5490</v>
+      </c>
+      <c r="G2449" s="24"/>
+      <c r="H2449" s="25">
+        <v>1553</v>
+      </c>
+      <c r="I2449" s="24" t="s">
+        <v>5491</v>
+      </c>
+      <c r="K2449" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2449" s="29"/>
+      <c r="M2449" s="30"/>
+    </row>
+    <row r="2450" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2450" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2450" s="24" t="s">
+        <v>5492</v>
+      </c>
+      <c r="E2450" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="F2450" s="24" t="s">
+        <v>5215</v>
+      </c>
+      <c r="G2450" s="24"/>
+      <c r="H2450" s="25">
+        <v>3961</v>
+      </c>
+      <c r="I2450" s="24" t="s">
+        <v>5493</v>
+      </c>
+      <c r="K2450" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2450" s="29"/>
+      <c r="M2450" s="30"/>
+    </row>
+    <row r="2451" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2451" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2451" s="24" t="s">
+        <v>5494</v>
+      </c>
+      <c r="E2451" s="24" t="s">
+        <v>4576</v>
+      </c>
+      <c r="F2451" s="24" t="s">
+        <v>5216</v>
+      </c>
+      <c r="G2451" s="24"/>
+      <c r="H2451" s="25">
+        <v>9100</v>
+      </c>
+      <c r="I2451" s="24" t="s">
+        <v>5495</v>
+      </c>
+      <c r="K2451" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2451" s="29"/>
+      <c r="M2451" s="30"/>
+    </row>
+    <row r="2452" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2452" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2452" s="24" t="s">
+        <v>5496</v>
+      </c>
+      <c r="E2452" s="24" t="s">
+        <v>706</v>
+      </c>
+      <c r="F2452" s="24" t="s">
+        <v>5497</v>
+      </c>
+      <c r="G2452" s="24"/>
+      <c r="H2452" s="25">
+        <v>3018</v>
+      </c>
+      <c r="I2452" s="24" t="s">
+        <v>5498</v>
+      </c>
+      <c r="K2452" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2452" s="29"/>
+      <c r="M2452" s="30"/>
+    </row>
+    <row r="2453" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2453" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2453" s="24" t="s">
+        <v>5499</v>
+      </c>
+      <c r="E2453" s="24" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F2453" s="18"/>
+      <c r="G2453" s="24" t="s">
+        <v>5220</v>
+      </c>
+      <c r="H2453" s="25">
+        <v>2001</v>
+      </c>
+      <c r="I2453" s="24" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K2453" s="26" t="s">
+        <v>5306</v>
+      </c>
+      <c r="L2453" s="29"/>
+      <c r="M2453" s="30"/>
+    </row>
+    <row r="2454" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2454" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2454" s="24" t="s">
+        <v>5500</v>
+      </c>
+      <c r="E2454" s="24" t="s">
+        <v>5501</v>
+      </c>
+      <c r="F2454" s="24" t="s">
+        <v>5502</v>
+      </c>
+      <c r="G2454" s="24"/>
+      <c r="H2454" s="25">
+        <v>8051</v>
+      </c>
+      <c r="I2454" s="24" t="s">
+        <v>5503</v>
+      </c>
+      <c r="K2454" s="26" t="s">
+        <v>5306</v>
+      </c>
+      <c r="L2454" s="29"/>
+      <c r="M2454" s="30"/>
+    </row>
+    <row r="2455" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2455" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2455" s="24" t="s">
+        <v>5504</v>
+      </c>
+      <c r="E2455" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2455" s="24" t="s">
+        <v>5227</v>
+      </c>
+      <c r="G2455" s="24"/>
+      <c r="H2455" s="25">
+        <v>1485</v>
+      </c>
+      <c r="I2455" s="24" t="s">
+        <v>5505</v>
+      </c>
+      <c r="K2455" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2455" s="29"/>
+      <c r="M2455" s="30"/>
+    </row>
+    <row r="2456" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2456" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2456" s="24" t="s">
+        <v>5506</v>
+      </c>
+      <c r="E2456" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="F2456" s="24" t="s">
+        <v>5507</v>
+      </c>
+      <c r="G2456" s="24"/>
+      <c r="H2456" s="25">
+        <v>1860</v>
+      </c>
+      <c r="I2456" s="24" t="s">
+        <v>5508</v>
+      </c>
+      <c r="K2456" s="26" t="s">
+        <v>5327</v>
+      </c>
+      <c r="L2456" s="29"/>
+      <c r="M2456" s="30"/>
+    </row>
+    <row r="2457" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2457" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2457" s="24" t="s">
+        <v>5509</v>
+      </c>
+      <c r="E2457" s="24" t="s">
+        <v>5510</v>
+      </c>
+      <c r="F2457" s="24" t="s">
+        <v>5511</v>
+      </c>
+      <c r="G2457" s="24"/>
+      <c r="H2457" s="25">
+        <v>1201</v>
+      </c>
+      <c r="I2457" s="24" t="s">
+        <v>5260</v>
+      </c>
+      <c r="K2457" s="26" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2457" s="29"/>
+      <c r="M2457" s="30"/>
+    </row>
+    <row r="2458" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2458" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2458" s="24" t="s">
+        <v>5512</v>
+      </c>
+      <c r="E2458" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2458" s="24" t="s">
+        <v>5513</v>
+      </c>
+      <c r="G2458" s="24"/>
+      <c r="H2458" s="25">
+        <v>1934</v>
+      </c>
+      <c r="I2458" s="24" t="s">
+        <v>5514</v>
+      </c>
+      <c r="K2458" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2458" s="29"/>
+      <c r="M2458" s="30"/>
+    </row>
+    <row r="2459" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2459" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2459" s="24" t="s">
+        <v>5515</v>
+      </c>
+      <c r="E2459" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2459" s="24" t="s">
+        <v>5516</v>
+      </c>
+      <c r="G2459" s="24"/>
+      <c r="H2459" s="25">
+        <v>1532</v>
+      </c>
+      <c r="I2459" s="24" t="s">
+        <v>5517</v>
+      </c>
+      <c r="K2459" s="26" t="s">
+        <v>5334</v>
+      </c>
+      <c r="L2459" s="29"/>
+      <c r="M2459" s="30"/>
+    </row>
+    <row r="2460" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2460" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2460" s="24" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E2460" s="24" t="s">
+        <v>5519</v>
+      </c>
+      <c r="F2460" s="24" t="s">
+        <v>5520</v>
+      </c>
+      <c r="G2460" s="24"/>
+      <c r="H2460" s="25">
+        <v>1222</v>
+      </c>
+      <c r="I2460" s="24" t="s">
+        <v>5521</v>
+      </c>
+      <c r="K2460" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2460" s="29"/>
+      <c r="M2460" s="30"/>
+    </row>
+    <row r="2461" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2461" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2461" s="24" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E2461" s="24" t="s">
+        <v>4106</v>
+      </c>
+      <c r="F2461" s="24" t="s">
+        <v>5522</v>
+      </c>
+      <c r="G2461" s="24"/>
+      <c r="H2461" s="25">
+        <v>1227</v>
+      </c>
+      <c r="I2461" s="24" t="s">
+        <v>5523</v>
+      </c>
+      <c r="K2461" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2461" s="29"/>
+      <c r="M2461" s="30"/>
+    </row>
+    <row r="2462" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2462" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2462" s="24" t="s">
+        <v>5524</v>
+      </c>
+      <c r="E2462" s="24" t="s">
+        <v>5525</v>
+      </c>
+      <c r="F2462" s="24" t="s">
+        <v>5526</v>
+      </c>
+      <c r="G2462" s="24"/>
+      <c r="H2462" s="25">
+        <v>1227</v>
+      </c>
+      <c r="I2462" s="24" t="s">
+        <v>5523</v>
+      </c>
+      <c r="K2462" s="26" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2462" s="29"/>
+      <c r="M2462" s="30"/>
+    </row>
+    <row r="2463" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2463" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2463" s="24" t="s">
+        <v>5527</v>
+      </c>
+      <c r="E2463" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2463" s="24" t="s">
+        <v>5528</v>
+      </c>
+      <c r="G2463" s="24"/>
+      <c r="H2463" s="25">
+        <v>1063</v>
+      </c>
+      <c r="I2463" s="24" t="s">
+        <v>5529</v>
+      </c>
+      <c r="K2463" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2463" s="29"/>
+      <c r="M2463" s="30"/>
+    </row>
+    <row r="2464" spans="3:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2464" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2464" s="24" t="s">
+        <v>5530</v>
+      </c>
+      <c r="E2464" s="24" t="s">
+        <v>5531</v>
+      </c>
+      <c r="F2464" s="24" t="s">
+        <v>5532</v>
+      </c>
+      <c r="G2464" s="24"/>
+      <c r="H2464" s="25" t="s">
+        <v>5533</v>
+      </c>
+      <c r="I2464" s="24" t="s">
+        <v>5534</v>
+      </c>
+      <c r="K2464" s="26" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2464" s="29"/>
+      <c r="M2464" s="30" t="s">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="2465" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2465" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D2465" s="24" t="s">
+        <v>5536</v>
+      </c>
+      <c r="E2465" s="24" t="s">
+        <v>5537</v>
+      </c>
+      <c r="F2465" s="24" t="s">
+        <v>5538</v>
+      </c>
+      <c r="G2465" s="24"/>
+      <c r="H2465" s="25">
+        <v>1180</v>
+      </c>
+      <c r="I2465" s="24" t="s">
+        <v>5539</v>
+      </c>
+      <c r="K2465" s="26" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2465" s="29"/>
+      <c r="M2465" s="30" t="s">
+        <v>5540</v>
+      </c>
+    </row>
+    <row r="2466" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2466" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2466" s="24" t="s">
+        <v>5541</v>
+      </c>
+      <c r="E2466" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2466" s="24" t="s">
+        <v>5542</v>
+      </c>
+      <c r="G2466" s="24"/>
+      <c r="H2466" s="25">
+        <v>25300</v>
+      </c>
+      <c r="I2466" s="24" t="s">
+        <v>5543</v>
+      </c>
+      <c r="K2466" s="26" t="s">
+        <v>5488</v>
+      </c>
+      <c r="L2466" s="29"/>
+      <c r="M2466" s="30" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="2467" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2467" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2467" s="24" t="s">
+        <v>5544</v>
+      </c>
+      <c r="E2467" s="24" t="s">
+        <v>5545</v>
+      </c>
+      <c r="F2467" s="24" t="s">
+        <v>5546</v>
+      </c>
+      <c r="G2467" s="24"/>
+      <c r="H2467" s="25" t="s">
+        <v>5547</v>
+      </c>
+      <c r="I2467" s="24" t="s">
+        <v>5548</v>
+      </c>
+      <c r="K2467" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2467" s="29"/>
+      <c r="M2467" s="30" t="s">
+        <v>5549</v>
+      </c>
+    </row>
+    <row r="2468" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C2468" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2468" s="24" t="s">
+        <v>5518</v>
+      </c>
+      <c r="E2468" s="24" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F2468" s="24" t="s">
+        <v>5550</v>
+      </c>
+      <c r="G2468" s="24"/>
+      <c r="H2468" s="25">
+        <v>6162</v>
+      </c>
+      <c r="I2468" s="24" t="s">
+        <v>5551</v>
+      </c>
+      <c r="K2468" s="26" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2468" s="29"/>
+      <c r="M2468" s="30" t="s">
+        <v>5552</v>
+      </c>
+    </row>
+    <row r="2470" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2470" s="19" t="s">
+        <v>5555</v>
+      </c>
+      <c r="C2470" s="19"/>
+      <c r="D2470" s="19"/>
+      <c r="E2470" s="19"/>
+      <c r="F2470" s="19" t="s">
+        <v>5556</v>
+      </c>
+      <c r="G2470" s="19"/>
+      <c r="H2470" s="20">
+        <v>1001</v>
+      </c>
+      <c r="I2470" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2470" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2470" s="18"/>
+      <c r="M2470" s="18"/>
+    </row>
+    <row r="2471" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2471" s="19" t="s">
+        <v>5557</v>
+      </c>
+      <c r="C2471" s="19"/>
+      <c r="D2471" s="19"/>
+      <c r="E2471" s="19"/>
+      <c r="F2471" s="19" t="s">
+        <v>5558</v>
+      </c>
+      <c r="G2471" s="19" t="s">
+        <v>5559</v>
+      </c>
+      <c r="H2471" s="20">
+        <v>1705</v>
+      </c>
+      <c r="I2471" s="19" t="s">
+        <v>5298</v>
+      </c>
+      <c r="K2471" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2471" s="18"/>
+      <c r="M2471" s="18"/>
+    </row>
+    <row r="2472" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2472" s="19" t="s">
+        <v>5560</v>
+      </c>
+      <c r="C2472" s="19"/>
+      <c r="D2472" s="19"/>
+      <c r="E2472" s="19"/>
+      <c r="F2472" s="19" t="s">
+        <v>5561</v>
+      </c>
+      <c r="G2472" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2472" s="20">
+        <v>8027</v>
+      </c>
+      <c r="I2472" s="19" t="s">
+        <v>5562</v>
+      </c>
+      <c r="K2472" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2472" s="18"/>
+      <c r="M2472" s="18"/>
+    </row>
+    <row r="2473" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2473" s="19" t="s">
+        <v>5563</v>
+      </c>
+      <c r="C2473" s="19"/>
+      <c r="D2473" s="19"/>
+      <c r="E2473" s="19"/>
+      <c r="F2473" s="19" t="s">
+        <v>5564</v>
+      </c>
+      <c r="G2473" s="19"/>
+      <c r="H2473" s="20">
+        <v>2000</v>
+      </c>
+      <c r="I2473" s="19" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K2473" s="17">
+        <v>7</v>
+      </c>
+      <c r="L2473" s="18"/>
+      <c r="M2473" s="18"/>
+    </row>
+    <row r="2474" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2474" s="19" t="s">
+        <v>5565</v>
+      </c>
+      <c r="C2474" s="19"/>
+      <c r="D2474" s="19"/>
+      <c r="E2474" s="19"/>
+      <c r="F2474" s="19" t="s">
+        <v>5566</v>
+      </c>
+      <c r="G2474" s="19"/>
+      <c r="H2474" s="20">
+        <v>1003</v>
+      </c>
+      <c r="I2474" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2474" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2474" s="18"/>
+      <c r="M2474" s="18"/>
+    </row>
+    <row r="2475" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2475" s="19" t="s">
+        <v>5567</v>
+      </c>
+      <c r="C2475" s="19"/>
+      <c r="D2475" s="19"/>
+      <c r="E2475" s="19"/>
+      <c r="F2475" s="19" t="s">
+        <v>5568</v>
+      </c>
+      <c r="G2475" s="19"/>
+      <c r="H2475" s="20">
+        <v>1014</v>
+      </c>
+      <c r="I2475" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2475" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2475" s="18"/>
+      <c r="M2475" s="18"/>
+    </row>
+    <row r="2476" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2476" s="19" t="s">
+        <v>5569</v>
+      </c>
+      <c r="C2476" s="19"/>
+      <c r="D2476" s="19"/>
+      <c r="E2476" s="19"/>
+      <c r="F2476" s="19" t="s">
+        <v>5570</v>
+      </c>
+      <c r="G2476" s="19"/>
+      <c r="H2476" s="20">
+        <v>3003</v>
+      </c>
+      <c r="I2476" s="19" t="s">
+        <v>5498</v>
+      </c>
+      <c r="K2476" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2476" s="18"/>
+      <c r="M2476" s="18"/>
+    </row>
+    <row r="2477" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2477" s="19" t="s">
+        <v>5571</v>
+      </c>
+      <c r="C2477" s="19"/>
+      <c r="D2477" s="19"/>
+      <c r="E2477" s="19"/>
+      <c r="F2477" s="19" t="s">
+        <v>5572</v>
+      </c>
+      <c r="G2477" s="19" t="s">
+        <v>5573</v>
+      </c>
+      <c r="H2477" s="20">
+        <v>1001</v>
+      </c>
+      <c r="I2477" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2477" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2477" s="18">
+        <v>2</v>
+      </c>
+      <c r="M2477" s="18"/>
+    </row>
+    <row r="2478" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2478" s="19" t="s">
+        <v>5574</v>
+      </c>
+      <c r="C2478" s="19"/>
+      <c r="D2478" s="19"/>
+      <c r="E2478" s="19"/>
+      <c r="F2478" s="19"/>
+      <c r="G2478" s="19"/>
+      <c r="H2478" s="20">
+        <v>2015</v>
+      </c>
+      <c r="I2478" s="19" t="s">
+        <v>5432</v>
+      </c>
+      <c r="K2478" s="17">
+        <v>7</v>
+      </c>
+      <c r="L2478" s="18"/>
+      <c r="M2478" s="18"/>
+    </row>
+    <row r="2479" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2479" s="19" t="s">
+        <v>5575</v>
+      </c>
+      <c r="C2479" s="19"/>
+      <c r="D2479" s="19"/>
+      <c r="E2479" s="19"/>
+      <c r="F2479" s="19"/>
+      <c r="G2479" s="19"/>
+      <c r="H2479" s="20">
+        <v>71250</v>
+      </c>
+      <c r="I2479" s="19" t="s">
+        <v>5576</v>
+      </c>
+      <c r="K2479" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2479" s="18"/>
+      <c r="M2479" s="18" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="2480" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2480" s="19" t="s">
+        <v>5577</v>
+      </c>
+      <c r="C2480" s="19"/>
+      <c r="D2480" s="19"/>
+      <c r="E2480" s="19"/>
+      <c r="F2480" s="19" t="s">
+        <v>5578</v>
+      </c>
+      <c r="G2480" s="19"/>
+      <c r="H2480" s="20">
+        <v>1004</v>
+      </c>
+      <c r="I2480" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2480" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2480" s="18"/>
+      <c r="M2480" s="18"/>
+    </row>
+    <row r="2481" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2481" s="19" t="s">
+        <v>5579</v>
+      </c>
+      <c r="C2481" s="19"/>
+      <c r="D2481" s="19"/>
+      <c r="E2481" s="19"/>
+      <c r="F2481" s="19" t="s">
+        <v>5580</v>
+      </c>
+      <c r="G2481" s="19"/>
+      <c r="H2481" s="20">
+        <v>3280</v>
+      </c>
+      <c r="I2481" s="19" t="s">
+        <v>5390</v>
+      </c>
+      <c r="K2481" s="17">
+        <v>6</v>
+      </c>
+      <c r="L2481" s="18"/>
+      <c r="M2481" s="18"/>
+    </row>
+    <row r="2482" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2482" s="19" t="s">
+        <v>5581</v>
+      </c>
+      <c r="C2482" s="19"/>
+      <c r="D2482" s="19"/>
+      <c r="E2482" s="19"/>
+      <c r="F2482" s="19" t="s">
+        <v>5582</v>
+      </c>
+      <c r="G2482" s="19"/>
+      <c r="H2482" s="20">
+        <v>17200</v>
+      </c>
+      <c r="I2482" s="19" t="s">
+        <v>5583</v>
+      </c>
+      <c r="K2482" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2482" s="18"/>
+      <c r="M2482" s="18" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="2483" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2483" s="19" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C2483" s="19"/>
+      <c r="D2483" s="19"/>
+      <c r="E2483" s="19"/>
+      <c r="F2483" s="19" t="s">
+        <v>5585</v>
+      </c>
+      <c r="G2483" s="19" t="s">
+        <v>5586</v>
+      </c>
+      <c r="H2483" s="20">
+        <v>2001</v>
+      </c>
+      <c r="I2483" s="19" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K2483" s="17">
+        <v>7</v>
+      </c>
+      <c r="L2483" s="18"/>
+      <c r="M2483" s="18"/>
+    </row>
+    <row r="2484" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2484" s="19" t="s">
+        <v>5587</v>
+      </c>
+      <c r="C2484" s="19"/>
+      <c r="D2484" s="19"/>
+      <c r="E2484" s="19"/>
+      <c r="F2484" s="19" t="s">
+        <v>5588</v>
+      </c>
+      <c r="G2484" s="19" t="s">
+        <v>5589</v>
+      </c>
+      <c r="H2484" s="20">
+        <v>3000</v>
+      </c>
+      <c r="I2484" s="19" t="s">
+        <v>5590</v>
+      </c>
+      <c r="K2484" s="17" t="s">
+        <v>5306</v>
+      </c>
+      <c r="L2484" s="18"/>
+      <c r="M2484" s="18"/>
+    </row>
+    <row r="2485" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2485" s="19" t="s">
+        <v>5591</v>
+      </c>
+      <c r="C2485" s="37"/>
+      <c r="D2485" s="37"/>
+      <c r="E2485" s="37"/>
+      <c r="F2485" s="18"/>
+      <c r="G2485" s="19" t="s">
+        <v>5592</v>
+      </c>
+      <c r="H2485" s="20">
+        <v>1950</v>
+      </c>
+      <c r="I2485" s="19" t="s">
+        <v>5593</v>
+      </c>
+      <c r="K2485" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2485" s="18"/>
+      <c r="M2485" s="18"/>
+    </row>
+    <row r="2486" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2486" s="15" t="s">
+        <v>5594</v>
+      </c>
+      <c r="C2486" s="15"/>
+      <c r="D2486" s="15"/>
+      <c r="E2486" s="15"/>
+      <c r="F2486" s="19" t="s">
+        <v>5595</v>
+      </c>
+      <c r="G2486" s="23"/>
+      <c r="H2486" s="20">
+        <v>2800</v>
+      </c>
+      <c r="I2486" s="19" t="s">
+        <v>5596</v>
+      </c>
+      <c r="K2486" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2486" s="18"/>
+      <c r="M2486" s="18"/>
+    </row>
+    <row r="2487" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2487" s="19" t="s">
+        <v>5597</v>
+      </c>
+      <c r="C2487" s="19"/>
+      <c r="D2487" s="19"/>
+      <c r="E2487" s="19"/>
+      <c r="F2487" s="19" t="s">
+        <v>5598</v>
+      </c>
+      <c r="G2487" s="18"/>
+      <c r="H2487" s="20">
+        <v>75009</v>
+      </c>
+      <c r="I2487" s="19" t="s">
+        <v>5599</v>
+      </c>
+      <c r="K2487" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2487" s="18"/>
+      <c r="M2487" s="18" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="2488" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2488" s="19" t="s">
+        <v>5600</v>
+      </c>
+      <c r="C2488" s="19"/>
+      <c r="D2488" s="19"/>
+      <c r="E2488" s="19"/>
+      <c r="F2488" s="19" t="s">
+        <v>5601</v>
+      </c>
+      <c r="G2488" s="19" t="s">
+        <v>5602</v>
+      </c>
+      <c r="H2488" s="20">
+        <v>3000</v>
+      </c>
+      <c r="I2488" s="19" t="s">
+        <v>5603</v>
+      </c>
+      <c r="K2488" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2488" s="18"/>
+      <c r="M2488" s="18"/>
+    </row>
+    <row r="2489" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2489" s="19" t="s">
+        <v>5604</v>
+      </c>
+      <c r="C2489" s="19"/>
+      <c r="D2489" s="19"/>
+      <c r="E2489" s="19"/>
+      <c r="F2489" s="19" t="s">
+        <v>5605</v>
+      </c>
+      <c r="G2489" s="19" t="s">
+        <v>5606</v>
+      </c>
+      <c r="H2489" s="20">
+        <v>1110</v>
+      </c>
+      <c r="I2489" s="19" t="s">
+        <v>5607</v>
+      </c>
+      <c r="K2489" s="17" t="s">
+        <v>5402</v>
+      </c>
+      <c r="L2489" s="18"/>
+      <c r="M2489" s="18"/>
+    </row>
+    <row r="2490" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2490" s="19" t="s">
+        <v>5608</v>
+      </c>
+      <c r="C2490" s="19"/>
+      <c r="D2490" s="19"/>
+      <c r="E2490" s="19"/>
+      <c r="F2490" s="19" t="s">
+        <v>5609</v>
+      </c>
+      <c r="G2490" s="19" t="s">
+        <v>5610</v>
+      </c>
+      <c r="H2490" s="20">
+        <v>4008</v>
+      </c>
+      <c r="I2490" s="19" t="s">
+        <v>5611</v>
+      </c>
+      <c r="K2490" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2490" s="18"/>
+      <c r="M2490" s="18"/>
+    </row>
+    <row r="2491" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2491" s="19" t="s">
+        <v>5612</v>
+      </c>
+      <c r="C2491" s="19"/>
+      <c r="D2491" s="19"/>
+      <c r="E2491" s="19"/>
+      <c r="F2491" s="19" t="s">
+        <v>5613</v>
+      </c>
+      <c r="G2491" s="19"/>
+      <c r="H2491" s="20">
+        <v>1260</v>
+      </c>
+      <c r="I2491" s="19" t="s">
+        <v>5614</v>
+      </c>
+      <c r="K2491" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2491" s="18"/>
+      <c r="M2491" s="18"/>
+    </row>
+    <row r="2492" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2492" s="19" t="s">
+        <v>5615</v>
+      </c>
+      <c r="C2492" s="19"/>
+      <c r="D2492" s="19"/>
+      <c r="E2492" s="19"/>
+      <c r="F2492" s="19" t="s">
+        <v>5616</v>
+      </c>
+      <c r="G2492" s="19" t="s">
+        <v>5617</v>
+      </c>
+      <c r="H2492" s="20">
+        <v>1002</v>
+      </c>
+      <c r="I2492" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2492" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2492" s="18"/>
+      <c r="M2492" s="18"/>
+    </row>
+    <row r="2493" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2493" s="19" t="s">
+        <v>5618</v>
+      </c>
+      <c r="C2493" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2493" s="19" t="s">
+        <v>5619</v>
+      </c>
+      <c r="E2493" s="19" t="s">
+        <v>1616</v>
+      </c>
+      <c r="F2493" s="19" t="s">
+        <v>5620</v>
+      </c>
+      <c r="G2493" s="19"/>
+      <c r="H2493" s="20">
+        <v>1204</v>
+      </c>
+      <c r="I2493" s="19" t="s">
+        <v>5260</v>
+      </c>
+      <c r="K2493" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2493" s="18">
+        <v>3</v>
+      </c>
+      <c r="M2493" s="18"/>
+    </row>
+    <row r="2494" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2494" s="19" t="s">
+        <v>5621</v>
+      </c>
+      <c r="C2494" s="19"/>
+      <c r="D2494" s="19"/>
+      <c r="E2494" s="19"/>
+      <c r="F2494" s="19" t="s">
+        <v>5616</v>
+      </c>
+      <c r="G2494" s="19"/>
+      <c r="H2494" s="20">
+        <v>1003</v>
+      </c>
+      <c r="I2494" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2494" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2494" s="18"/>
+      <c r="M2494" s="18"/>
+    </row>
+    <row r="2495" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2495" s="19" t="s">
+        <v>5622</v>
+      </c>
+      <c r="C2495" s="19"/>
+      <c r="D2495" s="19"/>
+      <c r="E2495" s="19"/>
+      <c r="F2495" s="19" t="s">
+        <v>5556</v>
+      </c>
+      <c r="G2495" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2495" s="20">
+        <v>1001</v>
+      </c>
+      <c r="I2495" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2495" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2495" s="18"/>
+      <c r="M2495" s="18"/>
+    </row>
+    <row r="2496" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2496" s="19" t="s">
+        <v>5623</v>
+      </c>
+      <c r="C2496" s="19"/>
+      <c r="D2496" s="19"/>
+      <c r="E2496" s="19"/>
+      <c r="F2496" s="19" t="s">
+        <v>5624</v>
+      </c>
+      <c r="G2496" s="19" t="s">
+        <v>5625</v>
+      </c>
+      <c r="H2496" s="20">
+        <v>1001</v>
+      </c>
+      <c r="I2496" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2496" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2496" s="18"/>
+      <c r="M2496" s="18"/>
+    </row>
+    <row r="2497" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2497" s="19" t="s">
+        <v>5626</v>
+      </c>
+      <c r="C2497" s="19"/>
+      <c r="D2497" s="19"/>
+      <c r="E2497" s="19"/>
+      <c r="F2497" s="19" t="s">
+        <v>5627</v>
+      </c>
+      <c r="G2497" s="19"/>
+      <c r="H2497" s="20">
+        <v>1202</v>
+      </c>
+      <c r="I2497" s="19" t="s">
+        <v>5260</v>
+      </c>
+      <c r="K2497" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2497" s="18"/>
+      <c r="M2497" s="18"/>
+    </row>
+    <row r="2498" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2498" s="19" t="s">
+        <v>5628</v>
+      </c>
+      <c r="C2498" s="19"/>
+      <c r="D2498" s="19"/>
+      <c r="E2498" s="19"/>
+      <c r="F2498" s="19" t="s">
+        <v>5629</v>
+      </c>
+      <c r="G2498" s="19" t="s">
+        <v>5630</v>
+      </c>
+      <c r="H2498" s="20">
+        <v>1002</v>
+      </c>
+      <c r="I2498" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2498" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2498" s="18"/>
+      <c r="M2498" s="18"/>
+    </row>
+    <row r="2499" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2499" s="19" t="s">
+        <v>5631</v>
+      </c>
+      <c r="C2499" s="19"/>
+      <c r="D2499" s="19"/>
+      <c r="E2499" s="19"/>
+      <c r="F2499" s="19" t="s">
+        <v>5629</v>
+      </c>
+      <c r="G2499" s="19" t="s">
+        <v>5632</v>
+      </c>
+      <c r="H2499" s="20">
+        <v>1002</v>
+      </c>
+      <c r="I2499" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2499" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2499" s="18"/>
+      <c r="M2499" s="18"/>
+    </row>
+    <row r="2500" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2500" s="19" t="s">
+        <v>5633</v>
+      </c>
+      <c r="C2500" s="19"/>
+      <c r="D2500" s="19"/>
+      <c r="E2500" s="19"/>
+      <c r="F2500" s="19" t="s">
+        <v>5585</v>
+      </c>
+      <c r="G2500" s="19" t="s">
+        <v>5634</v>
+      </c>
+      <c r="H2500" s="20">
+        <v>2002</v>
+      </c>
+      <c r="I2500" s="19" t="s">
+        <v>5347</v>
+      </c>
+      <c r="K2500" s="17">
+        <v>7</v>
+      </c>
+      <c r="L2500" s="18"/>
+      <c r="M2500" s="18"/>
+    </row>
+    <row r="2501" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2501" s="19" t="s">
+        <v>5635</v>
+      </c>
+      <c r="C2501" s="19"/>
+      <c r="D2501" s="19"/>
+      <c r="E2501" s="19"/>
+      <c r="F2501" s="19" t="s">
+        <v>5636</v>
+      </c>
+      <c r="G2501" s="19"/>
+      <c r="H2501" s="20">
+        <v>2503</v>
+      </c>
+      <c r="I2501" s="19" t="s">
+        <v>5637</v>
+      </c>
+      <c r="K2501" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2501" s="18"/>
+      <c r="M2501" s="18"/>
+    </row>
+    <row r="2502" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2502" s="19" t="s">
+        <v>5638</v>
+      </c>
+      <c r="C2502" s="19"/>
+      <c r="D2502" s="19"/>
+      <c r="E2502" s="19"/>
+      <c r="F2502" s="19" t="s">
+        <v>5639</v>
+      </c>
+      <c r="G2502" s="19"/>
+      <c r="H2502" s="20">
+        <v>75014</v>
+      </c>
+      <c r="I2502" s="19" t="s">
+        <v>5599</v>
+      </c>
+      <c r="K2502" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2502" s="18"/>
+      <c r="M2502" s="18" t="s">
+        <v>5288</v>
+      </c>
+    </row>
+    <row r="2503" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2503" s="19" t="s">
+        <v>5640</v>
+      </c>
+      <c r="C2503" s="37"/>
+      <c r="D2503" s="37"/>
+      <c r="E2503" s="37"/>
+      <c r="F2503" s="18"/>
+      <c r="G2503" s="19" t="s">
+        <v>5641</v>
+      </c>
+      <c r="H2503" s="20">
+        <v>3000</v>
+      </c>
+      <c r="I2503" s="19" t="s">
+        <v>5642</v>
+      </c>
+      <c r="K2503" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2503" s="18"/>
+      <c r="M2503" s="18"/>
+    </row>
+    <row r="2504" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2504" s="19" t="s">
+        <v>5643</v>
+      </c>
+      <c r="C2504" s="23"/>
+      <c r="D2504" s="23"/>
+      <c r="E2504" s="23"/>
+      <c r="F2504" s="19" t="s">
+        <v>5644</v>
+      </c>
+      <c r="G2504" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2504" s="20">
+        <v>8022</v>
+      </c>
+      <c r="I2504" s="19" t="s">
+        <v>5562</v>
+      </c>
+      <c r="K2504" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2504" s="18"/>
+      <c r="M2504" s="18"/>
+    </row>
+    <row r="2505" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2505" s="19" t="s">
+        <v>5645</v>
+      </c>
+      <c r="C2505" s="23"/>
+      <c r="D2505" s="23"/>
+      <c r="E2505" s="23"/>
+      <c r="F2505" s="19" t="s">
+        <v>5646</v>
+      </c>
+      <c r="G2505" s="19"/>
+      <c r="H2505" s="20">
+        <v>8004</v>
+      </c>
+      <c r="I2505" s="19" t="s">
+        <v>5562</v>
+      </c>
+      <c r="K2505" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2505" s="18"/>
+      <c r="M2505" s="18"/>
+    </row>
+    <row r="2506" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2506" s="19" t="s">
+        <v>5647</v>
+      </c>
+      <c r="C2506" s="19"/>
+      <c r="D2506" s="19"/>
+      <c r="E2506" s="19"/>
+      <c r="F2506" s="19" t="s">
+        <v>5648</v>
+      </c>
+      <c r="G2506" s="19"/>
+      <c r="H2506" s="20">
+        <v>1227</v>
+      </c>
+      <c r="I2506" s="19" t="s">
+        <v>5649</v>
+      </c>
+      <c r="K2506" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2506" s="18"/>
+      <c r="M2506" s="18"/>
+    </row>
+    <row r="2507" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2507" s="19" t="s">
+        <v>5650</v>
+      </c>
+      <c r="C2507" s="19"/>
+      <c r="D2507" s="19"/>
+      <c r="E2507" s="19"/>
+      <c r="F2507" s="19" t="s">
+        <v>5651</v>
+      </c>
+      <c r="G2507" s="19"/>
+      <c r="H2507" s="20">
+        <v>1223</v>
+      </c>
+      <c r="I2507" s="19" t="s">
+        <v>5475</v>
+      </c>
+      <c r="K2507" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2507" s="18"/>
+      <c r="M2507" s="18"/>
+    </row>
+    <row r="2508" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2508" s="19" t="s">
+        <v>5652</v>
+      </c>
+      <c r="C2508" s="19"/>
+      <c r="D2508" s="19"/>
+      <c r="E2508" s="19"/>
+      <c r="F2508" s="19" t="s">
+        <v>5301</v>
+      </c>
+      <c r="G2508" s="19"/>
+      <c r="H2508" s="20">
+        <v>1010</v>
+      </c>
+      <c r="I2508" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2508" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2508" s="18"/>
+      <c r="M2508" s="18"/>
+    </row>
+    <row r="2509" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2509" s="19" t="s">
+        <v>5653</v>
+      </c>
+      <c r="C2509" s="19"/>
+      <c r="D2509" s="19"/>
+      <c r="E2509" s="19"/>
+      <c r="F2509" s="19" t="s">
+        <v>5301</v>
+      </c>
+      <c r="G2509" s="19" t="s">
+        <v>5654</v>
+      </c>
+      <c r="H2509" s="20">
+        <v>1010</v>
+      </c>
+      <c r="I2509" s="19" t="s">
+        <v>5255</v>
+      </c>
+      <c r="K2509" s="17" t="s">
+        <v>5256</v>
+      </c>
+      <c r="L2509" s="18"/>
+      <c r="M2509" s="18"/>
+    </row>
+    <row r="2510" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2510" s="19" t="s">
+        <v>5655</v>
+      </c>
+      <c r="C2510" s="19"/>
+      <c r="D2510" s="19"/>
+      <c r="E2510" s="19"/>
+      <c r="F2510" s="19"/>
+      <c r="G2510" s="19" t="s">
+        <v>5656</v>
+      </c>
+      <c r="H2510" s="20">
+        <v>1211</v>
+      </c>
+      <c r="I2510" s="19" t="s">
+        <v>5310</v>
+      </c>
+      <c r="K2510" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2510" s="18"/>
+      <c r="M2510" s="18"/>
+    </row>
+    <row r="2511" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2511" s="19" t="s">
+        <v>5657</v>
+      </c>
+      <c r="C2511" s="19"/>
+      <c r="D2511" s="19"/>
+      <c r="E2511" s="19"/>
+      <c r="F2511" s="19" t="s">
+        <v>5658</v>
+      </c>
+      <c r="G2511" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2511" s="20">
+        <v>2501</v>
+      </c>
+      <c r="I2511" s="19" t="s">
+        <v>5637</v>
+      </c>
+      <c r="K2511" s="17" t="s">
+        <v>5261</v>
+      </c>
+      <c r="L2511" s="18"/>
+      <c r="M2511" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
